--- a/학습자료/단답형/영어_단어.xlsx
+++ b/학습자료/단답형/영어_단어.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2997" uniqueCount="987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3361" uniqueCount="1135">
   <si>
     <t>질문</t>
   </si>
@@ -3385,6 +3385,598 @@
   </si>
   <si>
     <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suspect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의심하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doubt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>question</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distrust</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mistrust</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be suspicious of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uncivilized</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야만적인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>barbaric</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>savage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brutal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>barbarous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cheerful</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jolly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lightsome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivacious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쾌활한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volunteer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>willing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unforced</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spontaneous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자발적인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curtail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decrease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diminish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>줄이다, 축소하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wander</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배회하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initiate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>launch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>undertake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작하다, 착수하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aggravate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>worsen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deteriorate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deprave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exacerbate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>악화시키다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hallucination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>illusion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phantom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delusion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환각, 환상, 망상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>template</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pattern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specimen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alpha and Omega</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작과 끝, 모든 것, 근본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관용어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총계가 ~에 이르다; 결과적으로 ~에 해당하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act of God</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천재지변, 불가항력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>an apple of discord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분쟁의 화두</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>an escape clause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>면책사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>an old hand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노련한 사람, 숙련자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>and so on(=and so forth, and what not)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~등등, 따위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answer for (=be responsible for)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~에 대해 책임지다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anything but (=never)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결코 ~이 아닌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apart from (=independently of)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~은 별도로 하고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply for</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~에 지원하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply oneself to (=give all one's energy to)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~에 전념하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apt to (=be likely to, be liable to)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~하기 쉬운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>around the corner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길모퉁이에, 임박한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>around[round] the clock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24시간 내내, 밤낮으로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as a matter of course</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당연히</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as a matter of fact (=in fact)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as a result of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~의 결과로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as a rule(=usually, on the whole)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통상, 대체로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as a whole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체로서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as bold as brass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뻔뻔스러운, 철면피의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as crooked as a dog's hind leg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부정직한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as deep as a well</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우물만큼 깊은, 이해하기 어려운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(as) easy as pie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누워서 떡 먹기인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as for (=speaking of)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~에 관하여 말하면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as good as(=practically, no better than)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사실상, ~과 같은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(as) hard as nails</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>냉혹한, 무자비한, 건장한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as it were (=so to speak, so to say, as one might say)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말하자면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as likely as not (=probably)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as regards (=as to, concerning, regarding)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~에 관하여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as sound as a dollar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매우 간단히</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평소와 다름없이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as usual (=in the usual way)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as well (=besides, into the bargain)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게다가, 또한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as yet (=up to now)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제껏, 아직까지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ask after (=inquire after)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안부를 묻다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ask for</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~을 요청하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ask somebody out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~에게 데이트를 신청하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assume[put on] airs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뽐내다, 잘난 체하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at loose ends (=at a loose ends)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할 일이 없는, 뭘 해야 할지 모르는)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at a loss (=perplexed, uncertain)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어쩔 줄을 몰라서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">at about (=near) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~쯤에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at all events(=in any case, at any rate)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 경우라도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at any rates (=in any case, at all events)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어쨌든</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at best (=in the most favorable case)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무리 잘해야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at every turn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언제나, 어디에서나</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3801,10 +4393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E749"/>
+  <dimension ref="A1:E840"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A788" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B793" sqref="B793"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16546,6 +17138,1553 @@
         <v>985</v>
       </c>
     </row>
+    <row r="750" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A750" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="B750" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="C750" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="D750" s="3">
+        <v>0</v>
+      </c>
+      <c r="E750" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="751" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A751" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="B751" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="C751" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="D751" s="3">
+        <v>0</v>
+      </c>
+      <c r="E751" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="752" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A752" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="B752" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="C752" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="D752" s="3">
+        <v>0</v>
+      </c>
+      <c r="E752" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="753" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A753" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="B753" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="C753" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="D753" s="3">
+        <v>0</v>
+      </c>
+      <c r="E753" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="754" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A754" s="3" t="s">
+        <v>993</v>
+      </c>
+      <c r="B754" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="C754" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="D754" s="3">
+        <v>0</v>
+      </c>
+      <c r="E754" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="755" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A755" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="B755" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="C755" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="D755" s="3">
+        <v>0</v>
+      </c>
+      <c r="E755" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="756" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A756" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="B756" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="C756" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="D756" s="3">
+        <v>0</v>
+      </c>
+      <c r="E756" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="757" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A757" s="3" t="s">
+        <v>997</v>
+      </c>
+      <c r="B757" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="C757" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="D757" s="3">
+        <v>0</v>
+      </c>
+      <c r="E757" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="758" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A758" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B758" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="C758" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="D758" s="3">
+        <v>0</v>
+      </c>
+      <c r="E758" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="759" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A759" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="B759" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="C759" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="D759" s="3">
+        <v>0</v>
+      </c>
+      <c r="E759" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="760" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A760" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="B760" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="C760" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="D760" s="3">
+        <v>0</v>
+      </c>
+      <c r="E760" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="761" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A761" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B761" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C761" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="D761" s="3">
+        <v>0</v>
+      </c>
+      <c r="E761" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="762" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A762" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B762" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C762" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="D762" s="3">
+        <v>0</v>
+      </c>
+      <c r="E762" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="763" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A763" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B763" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C763" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="D763" s="3">
+        <v>0</v>
+      </c>
+      <c r="E763" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="764" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A764" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B764" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C764" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="D764" s="3">
+        <v>0</v>
+      </c>
+      <c r="E764" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="765" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A765" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B765" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C765" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="D765" s="3">
+        <v>0</v>
+      </c>
+      <c r="E765" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="766" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A766" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B766" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C766" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="D766" s="3">
+        <v>0</v>
+      </c>
+      <c r="E766" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="767" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A767" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B767" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C767" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="D767" s="3">
+        <v>0</v>
+      </c>
+      <c r="E767" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="768" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A768" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B768" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C768" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="D768" s="3">
+        <v>0</v>
+      </c>
+      <c r="E768" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="769" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A769" s="3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B769" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C769" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="D769" s="3">
+        <v>0</v>
+      </c>
+      <c r="E769" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="770" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A770" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B770" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C770" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="D770" s="3">
+        <v>0</v>
+      </c>
+      <c r="E770" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="771" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A771" s="3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B771" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C771" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="D771" s="3">
+        <v>0</v>
+      </c>
+      <c r="E771" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="772" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A772" s="3" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B772" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C772" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="D772" s="3">
+        <v>0</v>
+      </c>
+      <c r="E772" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="773" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A773" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B773" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C773" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="D773" s="3">
+        <v>0</v>
+      </c>
+      <c r="E773" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="774" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A774" s="3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B774" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C774" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="D774" s="3">
+        <v>0</v>
+      </c>
+      <c r="E774" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="775" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A775" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B775" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C775" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="D775" s="3">
+        <v>0</v>
+      </c>
+      <c r="E775" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="776" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A776" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B776" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C776" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="D776" s="3">
+        <v>0</v>
+      </c>
+      <c r="E776" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="777" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A777" s="3" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B777" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C777" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="D777" s="3">
+        <v>0</v>
+      </c>
+      <c r="E777" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="778" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A778" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B778" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C778" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="D778" s="3">
+        <v>0</v>
+      </c>
+      <c r="E778" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="779" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A779" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B779" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C779" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="D779" s="3">
+        <v>0</v>
+      </c>
+      <c r="E779" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="780" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A780" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B780" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C780" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="D780" s="3">
+        <v>0</v>
+      </c>
+      <c r="E780" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="781" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A781" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B781" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C781" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="D781" s="3">
+        <v>0</v>
+      </c>
+      <c r="E781" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="782" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A782" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B782" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C782" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="D782" s="3">
+        <v>0</v>
+      </c>
+      <c r="E782" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="783" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A783" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B783" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C783" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="D783" s="3">
+        <v>0</v>
+      </c>
+      <c r="E783" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="784" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A784" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B784" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C784" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="D784" s="3">
+        <v>0</v>
+      </c>
+      <c r="E784" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="785" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A785" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B785" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C785" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="D785" s="3">
+        <v>0</v>
+      </c>
+      <c r="E785" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="786" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A786" s="3" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B786" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C786" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="D786" s="3">
+        <v>0</v>
+      </c>
+      <c r="E786" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="787" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A787" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B787" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C787" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="D787" s="3">
+        <v>0</v>
+      </c>
+      <c r="E787" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="788" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A788" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B788" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C788" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="D788" s="3">
+        <v>0</v>
+      </c>
+      <c r="E788" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="789" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A789" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B789" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C789" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="D789" s="3">
+        <v>0</v>
+      </c>
+      <c r="E789" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="790" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A790" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B790" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C790" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="D790" s="3">
+        <v>0</v>
+      </c>
+      <c r="E790" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="791" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A791" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B791" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C791" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="D791" s="3">
+        <v>0</v>
+      </c>
+      <c r="E791" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="792" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A792" s="3" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B792" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C792" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="D792" s="3">
+        <v>0</v>
+      </c>
+      <c r="E792" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="793" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A793" s="3" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B793" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C793" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="D793" s="3">
+        <v>0</v>
+      </c>
+      <c r="E793" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="794" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A794" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B794" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C794" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="D794" s="3">
+        <v>0</v>
+      </c>
+      <c r="E794" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="795" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A795" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B795" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C795" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="D795" s="3">
+        <v>0</v>
+      </c>
+      <c r="E795" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="796" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A796" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B796" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C796" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="D796" s="4">
+        <v>0</v>
+      </c>
+      <c r="E796" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="797" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A797" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B797" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C797" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="D797" s="4">
+        <v>0</v>
+      </c>
+      <c r="E797" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="798" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A798" s="4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B798" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C798" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="D798" s="4">
+        <v>0</v>
+      </c>
+      <c r="E798" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="799" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A799" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B799" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C799" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="D799" s="4">
+        <v>0</v>
+      </c>
+      <c r="E799" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="800" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A800" s="4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B800" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C800" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="D800" s="4">
+        <v>0</v>
+      </c>
+      <c r="E800" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="801" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A801" s="4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B801" s="4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C801" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="D801" s="4">
+        <v>0</v>
+      </c>
+      <c r="E801" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="802" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A802" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B802" s="4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C802" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="D802" s="4">
+        <v>0</v>
+      </c>
+      <c r="E802" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="803" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A803" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B803" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C803" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="D803" s="4">
+        <v>0</v>
+      </c>
+      <c r="E803" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="804" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A804" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B804" s="4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C804" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="D804" s="4">
+        <v>0</v>
+      </c>
+      <c r="E804" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="805" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A805" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B805" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C805" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="D805" s="4">
+        <v>0</v>
+      </c>
+      <c r="E805" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="806" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A806" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B806" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C806" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="D806" s="4">
+        <v>0</v>
+      </c>
+      <c r="E806" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="807" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A807" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B807" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C807" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="D807" s="4">
+        <v>0</v>
+      </c>
+      <c r="E807" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="808" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A808" s="4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B808" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C808" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="D808" s="4">
+        <v>0</v>
+      </c>
+      <c r="E808" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="809" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A809" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B809" s="4" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C809" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="D809" s="4">
+        <v>0</v>
+      </c>
+      <c r="E809" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="810" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A810" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B810" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C810" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="D810" s="4">
+        <v>0</v>
+      </c>
+      <c r="E810" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="811" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A811" s="4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B811" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C811" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="D811" s="4">
+        <v>0</v>
+      </c>
+      <c r="E811" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="812" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A812" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B812" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C812" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="D812" s="4">
+        <v>0</v>
+      </c>
+      <c r="E812" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="813" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A813" s="4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B813" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C813" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="D813" s="4">
+        <v>0</v>
+      </c>
+      <c r="E813" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="814" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A814" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B814" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C814" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="D814" s="4">
+        <v>0</v>
+      </c>
+      <c r="E814" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="815" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A815" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B815" s="4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C815" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="D815" s="4">
+        <v>0</v>
+      </c>
+      <c r="E815" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="816" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A816" s="4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B816" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C816" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="D816" s="4">
+        <v>0</v>
+      </c>
+      <c r="E816" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="817" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A817" s="4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B817" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C817" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="D817" s="4">
+        <v>0</v>
+      </c>
+      <c r="E817" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="818" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A818" s="4" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B818" s="4" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C818" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="D818" s="4">
+        <v>0</v>
+      </c>
+      <c r="E818" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="819" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A819" s="4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B819" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C819" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="D819" s="4">
+        <v>0</v>
+      </c>
+      <c r="E819" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="820" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A820" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B820" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C820" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="D820" s="4">
+        <v>0</v>
+      </c>
+      <c r="E820" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="821" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A821" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B821" s="4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C821" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="D821" s="4">
+        <v>0</v>
+      </c>
+      <c r="E821" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="822" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A822" s="4" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B822" s="4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C822" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="D822" s="4">
+        <v>0</v>
+      </c>
+      <c r="E822" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="823" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A823" s="4" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B823" s="4" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C823" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="D823" s="4">
+        <v>0</v>
+      </c>
+      <c r="E823" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="824" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A824" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B824" s="4" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C824" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="D824" s="4">
+        <v>0</v>
+      </c>
+      <c r="E824" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="825" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A825" s="4" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B825" s="4" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C825" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="D825" s="4">
+        <v>0</v>
+      </c>
+      <c r="E825" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="826" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A826" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B826" s="4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C826" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="D826" s="4">
+        <v>0</v>
+      </c>
+      <c r="E826" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="827" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A827" s="4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B827" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C827" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="D827" s="4">
+        <v>0</v>
+      </c>
+      <c r="E827" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="828" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A828" s="4" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B828" s="4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C828" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="D828" s="4">
+        <v>0</v>
+      </c>
+      <c r="E828" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="829" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A829" s="4" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B829" s="4" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C829" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="D829" s="4">
+        <v>0</v>
+      </c>
+      <c r="E829" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="830" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A830" s="4" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B830" s="4" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C830" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="D830" s="4">
+        <v>0</v>
+      </c>
+      <c r="E830" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="831" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A831" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B831" s="4" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C831" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="D831" s="4">
+        <v>0</v>
+      </c>
+      <c r="E831" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="832" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A832" s="4" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B832" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C832" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="D832" s="4">
+        <v>0</v>
+      </c>
+      <c r="E832" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="833" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A833" s="4" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B833" s="4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C833" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="D833" s="4">
+        <v>0</v>
+      </c>
+      <c r="E833" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="834" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A834" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B834" s="4" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C834" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="D834" s="4">
+        <v>0</v>
+      </c>
+      <c r="E834" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="835" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A835" s="4" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B835" s="4" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C835" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="D835" s="4">
+        <v>0</v>
+      </c>
+      <c r="E835" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="836" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A836" s="4" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B836" s="4" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C836" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="D836" s="4">
+        <v>0</v>
+      </c>
+      <c r="E836" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="837" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A837" s="4" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B837" s="4" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C837" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="D837" s="4">
+        <v>0</v>
+      </c>
+      <c r="E837" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="838" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A838" s="4" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B838" s="4" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C838" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="D838" s="4">
+        <v>0</v>
+      </c>
+      <c r="E838" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="839" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A839" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B839" s="4" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C839" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="D839" s="4">
+        <v>0</v>
+      </c>
+      <c r="E839" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="840" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A840" s="4" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B840" s="4" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C840" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="D840" s="4">
+        <v>0</v>
+      </c>
+      <c r="E840" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/학습자료/단답형/영어_단어.xlsx
+++ b/학습자료/단답형/영어_단어.xlsx
@@ -11552,7 +11552,7 @@
         </is>
       </c>
       <c r="D445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E445" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         </is>
       </c>
       <c r="D462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E462" t="inlineStr">
         <is>
@@ -19352,7 +19352,7 @@
         </is>
       </c>
       <c r="D757" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E757" t="inlineStr">
         <is>
@@ -19427,7 +19427,7 @@
         </is>
       </c>
       <c r="D760" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E760" t="inlineStr">
         <is>
@@ -19452,7 +19452,7 @@
         </is>
       </c>
       <c r="D761" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E761" t="inlineStr">
         <is>
@@ -19477,7 +19477,7 @@
         </is>
       </c>
       <c r="D762" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E762" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         </is>
       </c>
       <c r="D763" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E763" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D764" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E764" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         </is>
       </c>
       <c r="D765" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E765" t="inlineStr">
         <is>
@@ -19577,7 +19577,7 @@
         </is>
       </c>
       <c r="D766" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E766" t="inlineStr">
         <is>
@@ -19602,7 +19602,7 @@
         </is>
       </c>
       <c r="D767" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E767" t="inlineStr">
         <is>
@@ -19652,7 +19652,7 @@
         </is>
       </c>
       <c r="D769" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E769" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         </is>
       </c>
       <c r="D770" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E770" t="inlineStr">
         <is>
@@ -19702,7 +19702,7 @@
         </is>
       </c>
       <c r="D771" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E771" t="inlineStr">
         <is>
@@ -19727,7 +19727,7 @@
         </is>
       </c>
       <c r="D772" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E772" t="inlineStr">
         <is>
@@ -19752,7 +19752,7 @@
         </is>
       </c>
       <c r="D773" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E773" t="inlineStr">
         <is>
@@ -19777,7 +19777,7 @@
         </is>
       </c>
       <c r="D774" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E774" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         </is>
       </c>
       <c r="D775" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E775" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         </is>
       </c>
       <c r="D776" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E776" t="inlineStr">
         <is>
@@ -19852,7 +19852,7 @@
         </is>
       </c>
       <c r="D777" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E777" t="inlineStr">
         <is>
@@ -19877,7 +19877,7 @@
         </is>
       </c>
       <c r="D778" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E778" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         </is>
       </c>
       <c r="D779" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E779" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D780" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E780" t="inlineStr">
         <is>
@@ -19952,7 +19952,7 @@
         </is>
       </c>
       <c r="D781" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E781" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         </is>
       </c>
       <c r="D782" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E782" t="inlineStr">
         <is>
@@ -20002,7 +20002,7 @@
         </is>
       </c>
       <c r="D783" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E783" t="inlineStr">
         <is>
@@ -20027,7 +20027,7 @@
         </is>
       </c>
       <c r="D784" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E784" t="inlineStr">
         <is>
@@ -20077,7 +20077,7 @@
         </is>
       </c>
       <c r="D786" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E786" t="inlineStr">
         <is>
@@ -20102,7 +20102,7 @@
         </is>
       </c>
       <c r="D787" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E787" t="inlineStr">
         <is>
@@ -20127,7 +20127,7 @@
         </is>
       </c>
       <c r="D788" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E788" t="inlineStr">
         <is>
@@ -20152,7 +20152,7 @@
         </is>
       </c>
       <c r="D789" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E789" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         </is>
       </c>
       <c r="D790" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E790" t="inlineStr">
         <is>
@@ -20227,7 +20227,7 @@
         </is>
       </c>
       <c r="D792" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E792" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         </is>
       </c>
       <c r="D793" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E793" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D794" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E794" t="inlineStr">
         <is>
@@ -20302,7 +20302,7 @@
         </is>
       </c>
       <c r="D795" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E795" t="inlineStr">
         <is>
@@ -20352,7 +20352,7 @@
         </is>
       </c>
       <c r="D797" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E797" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         </is>
       </c>
       <c r="D798" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E798" t="inlineStr">
         <is>
@@ -20427,7 +20427,7 @@
         </is>
       </c>
       <c r="D800" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E800" t="inlineStr">
         <is>
@@ -20452,7 +20452,7 @@
         </is>
       </c>
       <c r="D801" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E801" t="inlineStr">
         <is>
@@ -20477,7 +20477,7 @@
         </is>
       </c>
       <c r="D802" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E802" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         </is>
       </c>
       <c r="D803" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E803" t="inlineStr">
         <is>
@@ -20527,7 +20527,7 @@
         </is>
       </c>
       <c r="D804" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E804" t="inlineStr">
         <is>
@@ -20552,7 +20552,7 @@
         </is>
       </c>
       <c r="D805" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E805" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         </is>
       </c>
       <c r="D807" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E807" t="inlineStr">
         <is>
@@ -20652,7 +20652,7 @@
         </is>
       </c>
       <c r="D809" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E809" t="inlineStr">
         <is>
@@ -20677,7 +20677,7 @@
         </is>
       </c>
       <c r="D810" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E810" t="inlineStr">
         <is>
@@ -20702,7 +20702,7 @@
         </is>
       </c>
       <c r="D811" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E811" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D812" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E812" t="inlineStr">
         <is>
@@ -20752,7 +20752,7 @@
         </is>
       </c>
       <c r="D813" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E813" t="inlineStr">
         <is>
@@ -20777,7 +20777,7 @@
         </is>
       </c>
       <c r="D814" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E814" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
         </is>
       </c>
       <c r="D815" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E815" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="D816" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E816" t="inlineStr">
         <is>
@@ -20852,7 +20852,7 @@
         </is>
       </c>
       <c r="D817" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E817" t="inlineStr">
         <is>
@@ -20927,7 +20927,7 @@
         </is>
       </c>
       <c r="D820" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E820" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         </is>
       </c>
       <c r="D821" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E821" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         </is>
       </c>
       <c r="D822" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E822" t="inlineStr">
         <is>
@@ -21002,7 +21002,7 @@
         </is>
       </c>
       <c r="D823" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E823" t="inlineStr">
         <is>
@@ -21027,7 +21027,7 @@
         </is>
       </c>
       <c r="D824" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E824" t="inlineStr">
         <is>
@@ -21052,7 +21052,7 @@
         </is>
       </c>
       <c r="D825" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E825" t="inlineStr">
         <is>
@@ -21077,7 +21077,7 @@
         </is>
       </c>
       <c r="D826" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E826" t="inlineStr">
         <is>
@@ -21102,7 +21102,7 @@
         </is>
       </c>
       <c r="D827" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E827" t="inlineStr">
         <is>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D828" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E828" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         </is>
       </c>
       <c r="D829" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E829" t="inlineStr">
         <is>
@@ -21177,7 +21177,7 @@
         </is>
       </c>
       <c r="D830" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E830" t="inlineStr">
         <is>
@@ -21202,7 +21202,7 @@
         </is>
       </c>
       <c r="D831" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E831" t="inlineStr">
         <is>
@@ -21227,7 +21227,7 @@
         </is>
       </c>
       <c r="D832" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E832" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         </is>
       </c>
       <c r="D833" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E833" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         </is>
       </c>
       <c r="D835" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E835" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         </is>
       </c>
       <c r="D836" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E836" t="inlineStr">
         <is>
@@ -21352,7 +21352,7 @@
         </is>
       </c>
       <c r="D837" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E837" t="inlineStr">
         <is>
@@ -21377,7 +21377,7 @@
         </is>
       </c>
       <c r="D838" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E838" t="inlineStr">
         <is>

--- a/학습자료/단답형/영어_단어.xlsx
+++ b/학습자료/단답형/영어_단어.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9">
@@ -1507,7 +1507,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44">
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74">
@@ -2657,7 +2657,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90">
@@ -3457,7 +3457,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122">
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145">
@@ -4157,7 +4157,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150">
@@ -4682,7 +4682,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171">
@@ -4707,7 +4707,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -4782,7 +4782,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175">
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="221">
@@ -5957,7 +5957,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222">
@@ -6432,7 +6432,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="241">
@@ -6757,7 +6757,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -6857,7 +6857,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="258">
@@ -6907,7 +6907,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -7032,7 +7032,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -7582,7 +7582,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="287">
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="304">
@@ -8032,7 +8032,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="305">
@@ -8157,7 +8157,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="310">
@@ -8382,7 +8382,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="319">
@@ -8482,7 +8482,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="323">
@@ -8707,7 +8707,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="332">
@@ -8982,7 +8982,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="343">
@@ -9232,7 +9232,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
@@ -9507,7 +9507,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="364">
@@ -10332,7 +10332,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397">
@@ -10757,7 +10757,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="414">
@@ -10857,7 +10857,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418">
@@ -10957,7 +10957,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="422">
@@ -11032,7 +11032,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="425">
@@ -11707,7 +11707,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="452">
@@ -12632,7 +12632,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="489">
@@ -12657,7 +12657,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490">
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="512">
@@ -13282,7 +13282,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515">
@@ -14082,7 +14082,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="547">
@@ -14357,7 +14357,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="558">
@@ -14482,7 +14482,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="563">
@@ -14557,7 +14557,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566">
@@ -15407,7 +15407,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="600">
@@ -16382,7 +16382,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="639">
@@ -16657,7 +16657,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="650">
@@ -17682,7 +17682,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="691">
@@ -17732,7 +17732,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="693">
@@ -17782,7 +17782,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="695">
@@ -17807,7 +17807,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="696">
@@ -18582,7 +18582,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="727">
@@ -18632,7 +18632,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="729">
@@ -19382,7 +19382,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="759">
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="768">
@@ -19632,7 +19632,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="769">
@@ -19732,7 +19732,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="773">
@@ -19757,7 +19757,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="774">
@@ -19932,7 +19932,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="781">
@@ -19957,7 +19957,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="782">
@@ -20032,7 +20032,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="785">
@@ -20057,7 +20057,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="786">
@@ -20307,7 +20307,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="796">
@@ -20457,7 +20457,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="802">
@@ -20557,7 +20557,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="806">
@@ -20982,7 +20982,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="823">
@@ -21057,7 +21057,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="826">
@@ -21532,7 +21532,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="845">
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="848">
@@ -21982,7 +21982,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="863">
@@ -22232,7 +22232,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="873">
@@ -22432,7 +22432,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="881">
@@ -22632,7 +22632,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="889">
@@ -22882,7 +22882,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="899">
@@ -22957,7 +22957,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="902">
@@ -23132,7 +23132,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909">
@@ -23407,7 +23407,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920">
@@ -23582,7 +23582,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="927">
@@ -23657,7 +23657,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="930">
@@ -23682,7 +23682,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="931">
@@ -23832,7 +23832,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="937">
@@ -23907,7 +23907,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="940">
@@ -23957,7 +23957,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="942">
@@ -24107,7 +24107,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="948">
@@ -24257,7 +24257,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="954">
@@ -24282,7 +24282,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="955">
@@ -24332,7 +24332,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="957">
@@ -24457,7 +24457,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="962">
@@ -24532,7 +24532,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="965">
@@ -24557,7 +24557,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="966">
@@ -24657,7 +24657,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="970">
@@ -24932,7 +24932,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="981">
@@ -25057,7 +25057,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="986">
@@ -25107,7 +25107,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="988">
@@ -25282,7 +25282,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="995">
@@ -25357,7 +25357,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="998">

--- a/학습자료/단답형/영어_단어.xlsx
+++ b/학습자료/단답형/영어_단어.xlsx
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19">
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34">
@@ -2357,7 +2357,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85">
@@ -2607,7 +2607,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97">
@@ -3157,7 +3157,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110">
@@ -3407,7 +3407,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120">
@@ -4707,7 +4707,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -4757,7 +4757,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174">
@@ -5557,7 +5557,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206">
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="233">
@@ -6482,7 +6482,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="243">
@@ -6757,7 +6757,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
@@ -6907,7 +6907,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
@@ -7007,7 +7007,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="264">
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
@@ -7482,7 +7482,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -7982,7 +7982,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="303">
@@ -9082,7 +9082,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
@@ -9232,7 +9232,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353">
@@ -9432,7 +9432,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="361">
@@ -10182,7 +10182,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="391">
@@ -10332,7 +10332,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397">
@@ -10682,7 +10682,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="411">
@@ -10732,7 +10732,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="413">
@@ -11332,7 +11332,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="437">
@@ -11932,7 +11932,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="461">
@@ -12657,7 +12657,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490">
@@ -12782,7 +12782,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="495">
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="500">
@@ -12957,7 +12957,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="502">
@@ -13257,7 +13257,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514">
@@ -13282,7 +13282,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="515">
@@ -14307,7 +14307,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="556">
@@ -14557,7 +14557,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566">
@@ -14982,7 +14982,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="583">
@@ -15482,7 +15482,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603">
@@ -15882,7 +15882,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="619">
@@ -15982,7 +15982,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="623">
@@ -16732,7 +16732,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653">
@@ -16857,7 +16857,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="658">
@@ -17057,7 +17057,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="666">
@@ -17532,7 +17532,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="685">
@@ -17557,7 +17557,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="686">
@@ -18182,7 +18182,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="711">
@@ -20557,7 +20557,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806">
@@ -21032,7 +21032,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="825">
@@ -21157,7 +21157,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="830">
@@ -22257,7 +22257,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="874">
@@ -22357,7 +22357,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="878">
@@ -22932,7 +22932,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="901">
@@ -23107,7 +23107,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908">
@@ -23232,7 +23232,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913">
@@ -23482,7 +23482,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="923">
@@ -23632,7 +23632,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="929">
@@ -23857,7 +23857,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="938">
@@ -23907,7 +23907,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="940">
@@ -23982,7 +23982,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="943">
@@ -24207,7 +24207,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="952">
@@ -24832,7 +24832,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="977">
@@ -25032,7 +25032,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="985">
@@ -25132,7 +25132,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="989">
@@ -25332,7 +25332,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="997">

--- a/학습자료/단답형/영어_단어.xlsx
+++ b/학습자료/단답형/영어_단어.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1001"/>
+  <dimension ref="A1:E1100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15">
@@ -2857,7 +2857,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98">
@@ -2957,7 +2957,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121">
@@ -3507,7 +3507,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -3582,7 +3582,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127">
@@ -4207,7 +4207,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152">
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153">
@@ -4882,7 +4882,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179">
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185">
@@ -5182,7 +5182,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191">
@@ -5232,7 +5232,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193">
@@ -5332,7 +5332,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197">
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213">
@@ -6157,7 +6157,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230">
@@ -6282,7 +6282,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="235">
@@ -6632,7 +6632,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="249">
@@ -6782,7 +6782,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="262">
@@ -7032,7 +7032,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
@@ -7482,7 +7482,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
@@ -7957,7 +7957,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="302">
@@ -8107,7 +8107,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="308">
@@ -8907,7 +8907,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="340">
@@ -8932,7 +8932,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="341">
@@ -8957,7 +8957,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="342">
@@ -9082,7 +9082,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
@@ -9107,7 +9107,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="348">
@@ -9157,7 +9157,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="350">
@@ -9382,7 +9382,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="359">
@@ -9407,7 +9407,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="360">
@@ -9882,7 +9882,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="379">
@@ -9932,7 +9932,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
@@ -10307,7 +10307,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="396">
@@ -10857,7 +10857,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418">
@@ -10982,7 +10982,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423">
@@ -11182,7 +11182,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431">
@@ -11782,7 +11782,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="455">
@@ -12057,7 +12057,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="466">
@@ -12182,7 +12182,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="471">
@@ -12207,7 +12207,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="472">
@@ -12582,7 +12582,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="487">
@@ -12732,7 +12732,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="493">
@@ -13257,7 +13257,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514">
@@ -13282,7 +13282,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515">
@@ -13857,7 +13857,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="538">
@@ -13882,7 +13882,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="539">
@@ -14132,7 +14132,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="549">
@@ -14182,7 +14182,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="551">
@@ -15482,7 +15482,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603">
@@ -15807,7 +15807,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="616">
@@ -15907,7 +15907,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620">
@@ -16107,7 +16107,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="628">
@@ -16157,7 +16157,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="630">
@@ -16282,7 +16282,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="635">
@@ -16732,7 +16732,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653">
@@ -16982,7 +16982,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="663">
@@ -18057,7 +18057,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="706">
@@ -18132,7 +18132,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="709">
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="716">
@@ -18707,7 +18707,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="732">
@@ -18757,7 +18757,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="734">
@@ -19432,7 +19432,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="761">
@@ -19707,7 +19707,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="772">
@@ -20907,7 +20907,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="820">
@@ -21007,7 +21007,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="824">
@@ -21107,7 +21107,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="828">
@@ -21132,7 +21132,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="829">
@@ -21157,7 +21157,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830">
@@ -21182,7 +21182,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="831">
@@ -21632,7 +21632,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="849">
@@ -21732,7 +21732,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="853">
@@ -21932,7 +21932,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="861">
@@ -21982,7 +21982,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863">
@@ -22482,7 +22482,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="883">
@@ -22732,7 +22732,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="893">
@@ -23307,7 +23307,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="916">
@@ -23532,7 +23532,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="925">
@@ -23582,7 +23582,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="927">
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="928">
@@ -23657,7 +23657,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="930">
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="932">
@@ -23757,7 +23757,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="934">
@@ -23782,7 +23782,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="935">
@@ -23832,7 +23832,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="937">
@@ -23982,7 +23982,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="943">
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="944">
@@ -24332,7 +24332,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="957">
@@ -25082,7 +25082,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="987">
@@ -25182,7 +25182,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="991">
@@ -25457,6 +25457,2481 @@
         </is>
       </c>
       <c r="E1001" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="inlineStr">
+        <is>
+          <t>on a par with</t>
+        </is>
+      </c>
+      <c r="B1002" t="inlineStr">
+        <is>
+          <t>동등하게</t>
+        </is>
+      </c>
+      <c r="C1002" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1002" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1002" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="inlineStr">
+        <is>
+          <t>in a class with</t>
+        </is>
+      </c>
+      <c r="B1003" t="inlineStr">
+        <is>
+          <t>동등하게</t>
+        </is>
+      </c>
+      <c r="C1003" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1003" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1003" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="inlineStr">
+        <is>
+          <t>equally</t>
+        </is>
+      </c>
+      <c r="B1004" t="inlineStr">
+        <is>
+          <t>동등하게</t>
+        </is>
+      </c>
+      <c r="C1004" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1004" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1004" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="inlineStr">
+        <is>
+          <t>comparably</t>
+        </is>
+      </c>
+      <c r="B1005" t="inlineStr">
+        <is>
+          <t>동등하게</t>
+        </is>
+      </c>
+      <c r="C1005" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1005" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1005" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="inlineStr">
+        <is>
+          <t>indentically</t>
+        </is>
+      </c>
+      <c r="B1006" t="inlineStr">
+        <is>
+          <t>동등하게</t>
+        </is>
+      </c>
+      <c r="C1006" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1006" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1006" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="inlineStr">
+        <is>
+          <t>a far cry from</t>
+        </is>
+      </c>
+      <c r="B1007" t="inlineStr">
+        <is>
+          <t>전혀다른</t>
+        </is>
+      </c>
+      <c r="C1007" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1007" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1007" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="inlineStr">
+        <is>
+          <t>far removed from</t>
+        </is>
+      </c>
+      <c r="B1008" t="inlineStr">
+        <is>
+          <t>전혀다른</t>
+        </is>
+      </c>
+      <c r="C1008" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1008" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1008" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="inlineStr">
+        <is>
+          <t>poles apart</t>
+        </is>
+      </c>
+      <c r="B1009" t="inlineStr">
+        <is>
+          <t>전혀다른</t>
+        </is>
+      </c>
+      <c r="C1009" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1009" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1009" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="inlineStr">
+        <is>
+          <t>poles asunder</t>
+        </is>
+      </c>
+      <c r="B1010" t="inlineStr">
+        <is>
+          <t>전혀다른</t>
+        </is>
+      </c>
+      <c r="C1010" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1010" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1010" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="inlineStr">
+        <is>
+          <t>be contigent upon</t>
+        </is>
+      </c>
+      <c r="B1011" t="inlineStr">
+        <is>
+          <t>~에 달려 있다</t>
+        </is>
+      </c>
+      <c r="C1011" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1011" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1011" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="inlineStr">
+        <is>
+          <t>depend on[upon]</t>
+        </is>
+      </c>
+      <c r="B1012" t="inlineStr">
+        <is>
+          <t>~에 달려 있다</t>
+        </is>
+      </c>
+      <c r="C1012" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1012" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1012" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="inlineStr">
+        <is>
+          <t>hinge on[upon]</t>
+        </is>
+      </c>
+      <c r="B1013" t="inlineStr">
+        <is>
+          <t>~에 달려 있다</t>
+        </is>
+      </c>
+      <c r="C1013" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1013" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1013" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="inlineStr">
+        <is>
+          <t>be up to</t>
+        </is>
+      </c>
+      <c r="B1014" t="inlineStr">
+        <is>
+          <t>~에 달려 있다</t>
+        </is>
+      </c>
+      <c r="C1014" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1014" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1014" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="inlineStr">
+        <is>
+          <t>prelude</t>
+        </is>
+      </c>
+      <c r="B1015" t="inlineStr">
+        <is>
+          <t>서막 / 전조</t>
+        </is>
+      </c>
+      <c r="C1015" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1015" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1015" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="inlineStr">
+        <is>
+          <t>prologue</t>
+        </is>
+      </c>
+      <c r="B1016" t="inlineStr">
+        <is>
+          <t>서막 / 전조</t>
+        </is>
+      </c>
+      <c r="C1016" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1016" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1016" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="inlineStr">
+        <is>
+          <t>preface</t>
+        </is>
+      </c>
+      <c r="B1017" t="inlineStr">
+        <is>
+          <t>서막 / 전조</t>
+        </is>
+      </c>
+      <c r="C1017" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1017" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1017" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="inlineStr">
+        <is>
+          <t>omen</t>
+        </is>
+      </c>
+      <c r="B1018" t="inlineStr">
+        <is>
+          <t>서막 / 전조</t>
+        </is>
+      </c>
+      <c r="C1018" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1018" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1018" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="inlineStr">
+        <is>
+          <t>portent</t>
+        </is>
+      </c>
+      <c r="B1019" t="inlineStr">
+        <is>
+          <t>서막 / 전조</t>
+        </is>
+      </c>
+      <c r="C1019" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1019" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1019" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="inlineStr">
+        <is>
+          <t>malefactor</t>
+        </is>
+      </c>
+      <c r="B1020" t="inlineStr">
+        <is>
+          <t>범인 / 범죄자</t>
+        </is>
+      </c>
+      <c r="C1020" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1020" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1020" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="inlineStr">
+        <is>
+          <t>culprit</t>
+        </is>
+      </c>
+      <c r="B1021" t="inlineStr">
+        <is>
+          <t>범인 / 범죄자</t>
+        </is>
+      </c>
+      <c r="C1021" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1021" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1021" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="inlineStr">
+        <is>
+          <t>criminal</t>
+        </is>
+      </c>
+      <c r="B1022" t="inlineStr">
+        <is>
+          <t>범인 / 범죄자</t>
+        </is>
+      </c>
+      <c r="C1022" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1022" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1022" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="inlineStr">
+        <is>
+          <t>offender</t>
+        </is>
+      </c>
+      <c r="B1023" t="inlineStr">
+        <is>
+          <t>범인 / 범죄자</t>
+        </is>
+      </c>
+      <c r="C1023" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1023" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1023" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="inlineStr">
+        <is>
+          <t>perpetrator</t>
+        </is>
+      </c>
+      <c r="B1024" t="inlineStr">
+        <is>
+          <t>범인 / 범죄자</t>
+        </is>
+      </c>
+      <c r="C1024" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1024" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1024" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="inlineStr">
+        <is>
+          <t>dilettante</t>
+        </is>
+      </c>
+      <c r="B1025" t="inlineStr">
+        <is>
+          <t>예술 애호가 / 아마추어의</t>
+        </is>
+      </c>
+      <c r="C1025" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1025" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1025" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="inlineStr">
+        <is>
+          <t>aesthete</t>
+        </is>
+      </c>
+      <c r="B1026" t="inlineStr">
+        <is>
+          <t>예술 애호가 / 아마추어의</t>
+        </is>
+      </c>
+      <c r="C1026" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1026" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1026" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="inlineStr">
+        <is>
+          <t>amateur</t>
+        </is>
+      </c>
+      <c r="B1027" t="inlineStr">
+        <is>
+          <t>예술 애호가 / 아마추어의</t>
+        </is>
+      </c>
+      <c r="C1027" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1027" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1027" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="inlineStr">
+        <is>
+          <t>pariah</t>
+        </is>
+      </c>
+      <c r="B1028" t="inlineStr">
+        <is>
+          <t>추방자</t>
+        </is>
+      </c>
+      <c r="C1028" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1028" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1028" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="inlineStr">
+        <is>
+          <t>exile</t>
+        </is>
+      </c>
+      <c r="B1029" t="inlineStr">
+        <is>
+          <t>추방자</t>
+        </is>
+      </c>
+      <c r="C1029" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1029" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1029" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="inlineStr">
+        <is>
+          <t>purgee</t>
+        </is>
+      </c>
+      <c r="B1030" t="inlineStr">
+        <is>
+          <t>추방자</t>
+        </is>
+      </c>
+      <c r="C1030" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1030" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1030" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="inlineStr">
+        <is>
+          <t>outcast</t>
+        </is>
+      </c>
+      <c r="B1031" t="inlineStr">
+        <is>
+          <t>추방자</t>
+        </is>
+      </c>
+      <c r="C1031" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1031" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1031" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="inlineStr">
+        <is>
+          <t>demagogue</t>
+        </is>
+      </c>
+      <c r="B1032" t="inlineStr">
+        <is>
+          <t>선동자</t>
+        </is>
+      </c>
+      <c r="C1032" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1032" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1032" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="inlineStr">
+        <is>
+          <t>agitator</t>
+        </is>
+      </c>
+      <c r="B1033" t="inlineStr">
+        <is>
+          <t>선동자</t>
+        </is>
+      </c>
+      <c r="C1033" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1033" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1033" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="inlineStr">
+        <is>
+          <t>instigator</t>
+        </is>
+      </c>
+      <c r="B1034" t="inlineStr">
+        <is>
+          <t>선동자</t>
+        </is>
+      </c>
+      <c r="C1034" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1034" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1034" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="inlineStr">
+        <is>
+          <t>abettor</t>
+        </is>
+      </c>
+      <c r="B1035" t="inlineStr">
+        <is>
+          <t>선동자</t>
+        </is>
+      </c>
+      <c r="C1035" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1035" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1035" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="inlineStr">
+        <is>
+          <t>through thick and thin</t>
+        </is>
+      </c>
+      <c r="B1036" t="inlineStr">
+        <is>
+          <t>좋을 때나 나쁠 때나</t>
+        </is>
+      </c>
+      <c r="C1036" t="inlineStr">
+        <is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D1036" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1036" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="inlineStr">
+        <is>
+          <t>in good times and bad times</t>
+        </is>
+      </c>
+      <c r="B1037" t="inlineStr">
+        <is>
+          <t>좋을 때나 나쁠 때나</t>
+        </is>
+      </c>
+      <c r="C1037" t="inlineStr">
+        <is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D1037" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1037" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="inlineStr">
+        <is>
+          <t>in joy and in sorrow</t>
+        </is>
+      </c>
+      <c r="B1038" t="inlineStr">
+        <is>
+          <t>좋을 때나 나쁠 때나</t>
+        </is>
+      </c>
+      <c r="C1038" t="inlineStr">
+        <is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D1038" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1038" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="inlineStr">
+        <is>
+          <t>in weal and woe</t>
+        </is>
+      </c>
+      <c r="B1039" t="inlineStr">
+        <is>
+          <t>좋을 때나 나쁠 때나</t>
+        </is>
+      </c>
+      <c r="C1039" t="inlineStr">
+        <is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D1039" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1039" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="inlineStr">
+        <is>
+          <t>in no time</t>
+        </is>
+      </c>
+      <c r="B1040" t="inlineStr">
+        <is>
+          <t>당장 / 즉시</t>
+        </is>
+      </c>
+      <c r="C1040" t="inlineStr">
+        <is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D1040" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1040" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="inlineStr">
+        <is>
+          <t>at once</t>
+        </is>
+      </c>
+      <c r="B1041" t="inlineStr">
+        <is>
+          <t>당장 / 즉시</t>
+        </is>
+      </c>
+      <c r="C1041" t="inlineStr">
+        <is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D1041" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1041" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="inlineStr">
+        <is>
+          <t>immediately</t>
+        </is>
+      </c>
+      <c r="B1042" t="inlineStr">
+        <is>
+          <t>당장 / 즉시</t>
+        </is>
+      </c>
+      <c r="C1042" t="inlineStr">
+        <is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D1042" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1042" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="inlineStr">
+        <is>
+          <t>in a flash</t>
+        </is>
+      </c>
+      <c r="B1043" t="inlineStr">
+        <is>
+          <t>당장 / 즉시</t>
+        </is>
+      </c>
+      <c r="C1043" t="inlineStr">
+        <is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D1043" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1043" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="inlineStr">
+        <is>
+          <t>on the spot</t>
+        </is>
+      </c>
+      <c r="B1044" t="inlineStr">
+        <is>
+          <t>당장 / 즉시</t>
+        </is>
+      </c>
+      <c r="C1044" t="inlineStr">
+        <is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D1044" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1044" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="inlineStr">
+        <is>
+          <t>instantly</t>
+        </is>
+      </c>
+      <c r="B1045" t="inlineStr">
+        <is>
+          <t>당장 / 즉시</t>
+        </is>
+      </c>
+      <c r="C1045" t="inlineStr">
+        <is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D1045" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1045" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="inlineStr">
+        <is>
+          <t>promptly</t>
+        </is>
+      </c>
+      <c r="B1046" t="inlineStr">
+        <is>
+          <t>당장 / 즉시</t>
+        </is>
+      </c>
+      <c r="C1046" t="inlineStr">
+        <is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D1046" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1046" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="inlineStr">
+        <is>
+          <t>be inclined to R</t>
+        </is>
+      </c>
+      <c r="B1047" t="inlineStr">
+        <is>
+          <t>~하고 싶다 / ~하는 경향이 있다</t>
+        </is>
+      </c>
+      <c r="C1047" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1047" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1047" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="inlineStr">
+        <is>
+          <t>be liable to R</t>
+        </is>
+      </c>
+      <c r="B1048" t="inlineStr">
+        <is>
+          <t>~하기 쉽다</t>
+        </is>
+      </c>
+      <c r="C1048" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1048" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1048" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="inlineStr">
+        <is>
+          <t>be obliged to R (=be compelled to, be bound to, be forced to)</t>
+        </is>
+      </c>
+      <c r="B1049" t="inlineStr">
+        <is>
+          <t>~하도록 의무를 받다 / ~하지 않을 수 없다</t>
+        </is>
+      </c>
+      <c r="C1049" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1049" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1049" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="inlineStr">
+        <is>
+          <t>be on good[friendly] terms with(=be friendly with)</t>
+        </is>
+      </c>
+      <c r="B1050" t="inlineStr">
+        <is>
+          <t>~와 사이가 좋다</t>
+        </is>
+      </c>
+      <c r="C1050" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1050" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1050" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="inlineStr">
+        <is>
+          <t>be on a roll</t>
+        </is>
+      </c>
+      <c r="B1051" t="inlineStr">
+        <is>
+          <t>승승장구하고 있다</t>
+        </is>
+      </c>
+      <c r="C1051" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1051" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1051" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="inlineStr">
+        <is>
+          <t>be on pins and needles</t>
+        </is>
+      </c>
+      <c r="B1052" t="inlineStr">
+        <is>
+          <t>매우 불안하다 / 가시방석에 앉다</t>
+        </is>
+      </c>
+      <c r="C1052" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1052" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1052" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="inlineStr">
+        <is>
+          <t>be on the fence</t>
+        </is>
+      </c>
+      <c r="B1053" t="inlineStr">
+        <is>
+          <t>기회를 살피다</t>
+        </is>
+      </c>
+      <c r="C1053" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1053" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1053" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="inlineStr">
+        <is>
+          <t>be on the safe side</t>
+        </is>
+      </c>
+      <c r="B1054" t="inlineStr">
+        <is>
+          <t>조심하다 / 신중을 기하다</t>
+        </is>
+      </c>
+      <c r="C1054" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1054" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1054" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="inlineStr">
+        <is>
+          <t>be out of order</t>
+        </is>
+      </c>
+      <c r="B1055" t="inlineStr">
+        <is>
+          <t>고장나다 / 정리가 안 되다</t>
+        </is>
+      </c>
+      <c r="C1055" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1055" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1055" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="inlineStr">
+        <is>
+          <t>be over</t>
+        </is>
+      </c>
+      <c r="B1056" t="inlineStr">
+        <is>
+          <t>끝나다</t>
+        </is>
+      </c>
+      <c r="C1056" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1056" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1056" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="inlineStr">
+        <is>
+          <t>be poles apart</t>
+        </is>
+      </c>
+      <c r="B1057" t="inlineStr">
+        <is>
+          <t>정반대이다 / 전혀 다르다</t>
+        </is>
+      </c>
+      <c r="C1057" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1057" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1057" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="inlineStr">
+        <is>
+          <t>be possessed with</t>
+        </is>
+      </c>
+      <c r="B1058" t="inlineStr">
+        <is>
+          <t>~에 사로잡혀 있다</t>
+        </is>
+      </c>
+      <c r="C1058" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1058" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1058" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="inlineStr">
+        <is>
+          <t>be prone to R</t>
+        </is>
+      </c>
+      <c r="B1059" t="inlineStr">
+        <is>
+          <t>~하기 쉽다</t>
+        </is>
+      </c>
+      <c r="C1059" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1059" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1059" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="inlineStr">
+        <is>
+          <t>be short of breath</t>
+        </is>
+      </c>
+      <c r="B1060" t="inlineStr">
+        <is>
+          <t>숨이 가쁘다</t>
+        </is>
+      </c>
+      <c r="C1060" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1060" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1060" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="inlineStr">
+        <is>
+          <t>be snowed under</t>
+        </is>
+      </c>
+      <c r="B1061" t="inlineStr">
+        <is>
+          <t>크게 밀리다 / 압도되다</t>
+        </is>
+      </c>
+      <c r="C1061" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1061" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1061" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="inlineStr">
+        <is>
+          <t>be subject to (=be liable to, be going to)</t>
+        </is>
+      </c>
+      <c r="B1062" t="inlineStr">
+        <is>
+          <t>~당하기 쉽다</t>
+        </is>
+      </c>
+      <c r="C1062" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1062" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1062" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="inlineStr">
+        <is>
+          <t>be supposed to (=be scheduled to, be going to)</t>
+        </is>
+      </c>
+      <c r="B1063" t="inlineStr">
+        <is>
+          <t>~할 예정이다</t>
+        </is>
+      </c>
+      <c r="C1063" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1063" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1063" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="inlineStr">
+        <is>
+          <t>be sure of</t>
+        </is>
+      </c>
+      <c r="B1064" t="inlineStr">
+        <is>
+          <t>~을 확신하다</t>
+        </is>
+      </c>
+      <c r="C1064" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1064" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1064" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="inlineStr">
+        <is>
+          <t>be sure to</t>
+        </is>
+      </c>
+      <c r="B1065" t="inlineStr">
+        <is>
+          <t>틀림없이 ~하다</t>
+        </is>
+      </c>
+      <c r="C1065" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1065" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1065" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="inlineStr">
+        <is>
+          <t>be swamped with</t>
+        </is>
+      </c>
+      <c r="B1066" t="inlineStr">
+        <is>
+          <t>~로 바쁘다</t>
+        </is>
+      </c>
+      <c r="C1066" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1066" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1066" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="inlineStr">
+        <is>
+          <t>be taken aback</t>
+        </is>
+      </c>
+      <c r="B1067" t="inlineStr">
+        <is>
+          <t>깜짝 놀라다</t>
+        </is>
+      </c>
+      <c r="C1067" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1067" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1067" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="inlineStr">
+        <is>
+          <t>be tied up</t>
+        </is>
+      </c>
+      <c r="B1068" t="inlineStr">
+        <is>
+          <t>매여 있다</t>
+        </is>
+      </c>
+      <c r="C1068" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1068" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1068" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="inlineStr">
+        <is>
+          <t>be tied to</t>
+        </is>
+      </c>
+      <c r="B1069" t="inlineStr">
+        <is>
+          <t>~하는 것과 연관되어 있다</t>
+        </is>
+      </c>
+      <c r="C1069" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1069" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1069" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="inlineStr">
+        <is>
+          <t>be the talk of the town</t>
+        </is>
+      </c>
+      <c r="B1070" t="inlineStr">
+        <is>
+          <t>장안의 화제가 되다</t>
+        </is>
+      </c>
+      <c r="C1070" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1070" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1070" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="inlineStr">
+        <is>
+          <t>be tired from (=become tired)</t>
+        </is>
+      </c>
+      <c r="B1071" t="inlineStr">
+        <is>
+          <t>피곤해지다</t>
+        </is>
+      </c>
+      <c r="C1071" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1071" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1071" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="inlineStr">
+        <is>
+          <t>be tired of (=be bored with, be sick of)</t>
+        </is>
+      </c>
+      <c r="B1072" t="inlineStr">
+        <is>
+          <t>~에 싫증이 나다</t>
+        </is>
+      </c>
+      <c r="C1072" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1072" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1072" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="inlineStr">
+        <is>
+          <t>be through (with)</t>
+        </is>
+      </c>
+      <c r="B1073" t="inlineStr">
+        <is>
+          <t>(~을) 끝내다 / (~와) 인연을 끊다</t>
+        </is>
+      </c>
+      <c r="C1073" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1073" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1073" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="inlineStr">
+        <is>
+          <t>true to (=faithful to)</t>
+        </is>
+      </c>
+      <c r="B1074" t="inlineStr">
+        <is>
+          <t>~에 충실한</t>
+        </is>
+      </c>
+      <c r="C1074" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1074" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1074" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="inlineStr">
+        <is>
+          <t>be up in the air</t>
+        </is>
+      </c>
+      <c r="B1075" t="inlineStr">
+        <is>
+          <t>미정이다</t>
+        </is>
+      </c>
+      <c r="C1075" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1075" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1075" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="inlineStr">
+        <is>
+          <t>be up to</t>
+        </is>
+      </c>
+      <c r="B1076" t="inlineStr">
+        <is>
+          <t>~에 달려있다 / ~가 할 일이다</t>
+        </is>
+      </c>
+      <c r="C1076" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1076" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1076" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="inlineStr">
+        <is>
+          <t>be up for grabs</t>
+        </is>
+      </c>
+      <c r="B1077" t="inlineStr">
+        <is>
+          <t>누구나 차지할 수 있다 / 누구나 구할 수 있다</t>
+        </is>
+      </c>
+      <c r="C1077" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1077" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1077" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="inlineStr">
+        <is>
+          <t>be up to one's ears[neck] in</t>
+        </is>
+      </c>
+      <c r="B1078" t="inlineStr">
+        <is>
+          <t>~으로 정신이 없다 / 바쁘다 / 할 일이 너무 많다</t>
+        </is>
+      </c>
+      <c r="C1078" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1078" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1078" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="inlineStr">
+        <is>
+          <t>be well[better] off</t>
+        </is>
+      </c>
+      <c r="B1079" t="inlineStr">
+        <is>
+          <t>잘 살다 / 부유하다</t>
+        </is>
+      </c>
+      <c r="C1079" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1079" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1079" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="inlineStr">
+        <is>
+          <t>grin and bear it</t>
+        </is>
+      </c>
+      <c r="B1080" t="inlineStr">
+        <is>
+          <t>쓴웃음을 지으며 참다</t>
+        </is>
+      </c>
+      <c r="C1080" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1080" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1080" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="inlineStr">
+        <is>
+          <t>bear something in mind</t>
+        </is>
+      </c>
+      <c r="B1081" t="inlineStr">
+        <is>
+          <t>~을 명심하다</t>
+        </is>
+      </c>
+      <c r="C1081" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1081" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1081" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="inlineStr">
+        <is>
+          <t>bear the bell</t>
+        </is>
+      </c>
+      <c r="B1082" t="inlineStr">
+        <is>
+          <t>선두에 서다 / 우승하다</t>
+        </is>
+      </c>
+      <c r="C1082" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1082" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1082" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="inlineStr">
+        <is>
+          <t>beat a dead horse</t>
+        </is>
+      </c>
+      <c r="B1083" t="inlineStr">
+        <is>
+          <t>헛수고하다</t>
+        </is>
+      </c>
+      <c r="C1083" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1083" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1083" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="inlineStr">
+        <is>
+          <t>beat one's head against the wall</t>
+        </is>
+      </c>
+      <c r="B1084" t="inlineStr">
+        <is>
+          <t>헛된 노력을 하다 / 헛수고하다</t>
+        </is>
+      </c>
+      <c r="C1084" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1084" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1084" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="inlineStr">
+        <is>
+          <t>beat around[about] the bush</t>
+        </is>
+      </c>
+      <c r="B1085" t="inlineStr">
+        <is>
+          <t>돌려 말하다 / 변죽을 울리다</t>
+        </is>
+      </c>
+      <c r="C1085" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1085" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1085" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="inlineStr">
+        <is>
+          <t>beat oneself up</t>
+        </is>
+      </c>
+      <c r="B1086" t="inlineStr">
+        <is>
+          <t>자책하다</t>
+        </is>
+      </c>
+      <c r="C1086" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1086" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1086" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="inlineStr">
+        <is>
+          <t>beat the bushes (for)</t>
+        </is>
+      </c>
+      <c r="B1087" t="inlineStr">
+        <is>
+          <t>(~을) 찾아다니다</t>
+        </is>
+      </c>
+      <c r="C1087" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1087" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1087" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="inlineStr">
+        <is>
+          <t>beat[rack] one's barins</t>
+        </is>
+      </c>
+      <c r="B1088" t="inlineStr">
+        <is>
+          <t>머리를 짜내다</t>
+        </is>
+      </c>
+      <c r="C1088" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1088" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1088" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="inlineStr">
+        <is>
+          <t>be beaten black and blue</t>
+        </is>
+      </c>
+      <c r="B1089" t="inlineStr">
+        <is>
+          <t>멍이 들도록 두들겨 맞다</t>
+        </is>
+      </c>
+      <c r="C1089" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1089" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1089" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="inlineStr">
+        <is>
+          <t>become of (=happen to)</t>
+        </is>
+      </c>
+      <c r="B1090" t="inlineStr">
+        <is>
+          <t>~이 (어떻게) 되다</t>
+        </is>
+      </c>
+      <c r="C1090" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1090" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1090" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="inlineStr">
+        <is>
+          <t>beef about</t>
+        </is>
+      </c>
+      <c r="B1091" t="inlineStr">
+        <is>
+          <t>~에 대해 불평하다</t>
+        </is>
+      </c>
+      <c r="C1091" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1091" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1091" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="inlineStr">
+        <is>
+          <t>beef up (= bulid something up)</t>
+        </is>
+      </c>
+      <c r="B1092" t="inlineStr">
+        <is>
+          <t>강화하다</t>
+        </is>
+      </c>
+      <c r="C1092" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1092" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1092" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="inlineStr">
+        <is>
+          <t>before long (=pretty soon, by and by, in a little while)</t>
+        </is>
+      </c>
+      <c r="B1093" t="inlineStr">
+        <is>
+          <t>곧</t>
+        </is>
+      </c>
+      <c r="C1093" t="inlineStr">
+        <is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D1093" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1093" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="inlineStr">
+        <is>
+          <t>behave oneself</t>
+        </is>
+      </c>
+      <c r="B1094" t="inlineStr">
+        <is>
+          <t>얌전히 굴다</t>
+        </is>
+      </c>
+      <c r="C1094" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1094" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1094" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="inlineStr">
+        <is>
+          <t>behind bars</t>
+        </is>
+      </c>
+      <c r="B1095" t="inlineStr">
+        <is>
+          <t>투옥된</t>
+        </is>
+      </c>
+      <c r="C1095" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1095" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1095" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="inlineStr">
+        <is>
+          <t>behind the eight ball</t>
+        </is>
+      </c>
+      <c r="B1096" t="inlineStr">
+        <is>
+          <t>불리한 입장에서[인] / 궁지에 빠져[빠진]</t>
+        </is>
+      </c>
+      <c r="C1096" t="inlineStr">
+        <is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D1096" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1096" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="inlineStr">
+        <is>
+          <t>behind the scenes</t>
+        </is>
+      </c>
+      <c r="B1097" t="inlineStr">
+        <is>
+          <t>막의 뒤에서 / 은밀히</t>
+        </is>
+      </c>
+      <c r="C1097" t="inlineStr">
+        <is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D1097" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1097" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="inlineStr">
+        <is>
+          <t>behind the times (=out of date, old-fashioned)</t>
+        </is>
+      </c>
+      <c r="B1098" t="inlineStr">
+        <is>
+          <t>시대에 뒤떨어진 / 구식의</t>
+        </is>
+      </c>
+      <c r="C1098" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1098" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1098" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="inlineStr">
+        <is>
+          <t>behind the whell</t>
+        </is>
+      </c>
+      <c r="B1099" t="inlineStr">
+        <is>
+          <t>운전 중인</t>
+        </is>
+      </c>
+      <c r="C1099" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1099" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1099" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="inlineStr">
+        <is>
+          <t>behind time (=late)</t>
+        </is>
+      </c>
+      <c r="B1100" t="inlineStr">
+        <is>
+          <t>시간에 늦은</t>
+        </is>
+      </c>
+      <c r="C1100" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1100" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+      <c r="E1100" t="n">
         <v>0</v>
       </c>
     </row>

--- a/학습자료/단답형/영어_단어.xlsx
+++ b/학습자료/단답형/영어_단어.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4837" uniqueCount="1703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5241" uniqueCount="1811">
   <si>
     <t>질문</t>
   </si>
@@ -51,7 +51,7 @@
     <t>ruthless</t>
   </si>
   <si>
-    <t>무정한 / 냉담한</t>
+    <t>무정한, 냉담한</t>
   </si>
   <si>
     <t>merciless</t>
@@ -81,13 +81,13 @@
     <t>delusive</t>
   </si>
   <si>
-    <t>남을 속이는 / 기만적인</t>
+    <t>남을 속이는, 기만적인</t>
   </si>
   <si>
     <t>current</t>
   </si>
   <si>
-    <t>널리 퍼진 / 만연한</t>
+    <t>널리 퍼진, 만연한</t>
   </si>
   <si>
     <t>rife</t>
@@ -246,7 +246,7 @@
     <t>contentment</t>
   </si>
   <si>
-    <t>만족 / 희열</t>
+    <t>만족, 희열</t>
   </si>
   <si>
     <t>명사</t>
@@ -258,19 +258,19 @@
     <t>serve out</t>
   </si>
   <si>
-    <t>나눠주다 / 분배하다</t>
+    <t>나눠주다, 분배하다</t>
   </si>
   <si>
     <t>burst into</t>
   </si>
   <si>
-    <t>침입하다 / 난입하다</t>
+    <t>침입하다, 난입하다</t>
   </si>
   <si>
     <t>tranquility</t>
   </si>
   <si>
-    <t>고요 / 평온</t>
+    <t>고요, 평온</t>
   </si>
   <si>
     <t>trespass</t>
@@ -297,7 +297,7 @@
     <t>reputable</t>
   </si>
   <si>
-    <t>평판 좋은 / 존경할 만한</t>
+    <t>평판 좋은, 존경할 만한</t>
   </si>
   <si>
     <t>continue</t>
@@ -309,7 +309,7 @@
     <t>conviction</t>
   </si>
   <si>
-    <t>신뢰 / 확신</t>
+    <t>신뢰, 확신</t>
   </si>
   <si>
     <t>rush into</t>
@@ -321,7 +321,7 @@
     <t>arrange</t>
   </si>
   <si>
-    <t>배열하다 / 일렬로 세우다</t>
+    <t>배열하다, 일렬로 세우다</t>
   </si>
   <si>
     <t>go on</t>
@@ -384,7 +384,7 @@
     <t>vivacity</t>
   </si>
   <si>
-    <t>생기 / 활기</t>
+    <t>생기, 활기</t>
   </si>
   <si>
     <t>give away</t>
@@ -432,7 +432,7 @@
     <t>put in for</t>
   </si>
   <si>
-    <t>요청하다 / 요구하다</t>
+    <t>요청하다, 요구하다</t>
   </si>
   <si>
     <t>Day03</t>
@@ -441,13 +441,13 @@
     <t>dejection</t>
   </si>
   <si>
-    <t>우울 / 불경기</t>
+    <t>우울, 불경기</t>
   </si>
   <si>
     <t>efficacy</t>
   </si>
   <si>
-    <t>효율 / 효능</t>
+    <t>효율, 효능</t>
   </si>
   <si>
     <t>require</t>
@@ -456,7 +456,7 @@
     <t>award</t>
   </si>
   <si>
-    <t>상 / 소중한 것</t>
+    <t>상, 소중한 것</t>
   </si>
   <si>
     <t>efficiency</t>
@@ -468,7 +468,7 @@
     <t>fix</t>
   </si>
   <si>
-    <t>해결책 / 곤경</t>
+    <t>해결책, 곤경</t>
   </si>
   <si>
     <t>heed</t>
@@ -483,19 +483,19 @@
     <t>extinction</t>
   </si>
   <si>
-    <t>절멸 / 전멸 / 소멸</t>
+    <t>절멸, 전멸, 소멸</t>
   </si>
   <si>
     <t>mischief</t>
   </si>
   <si>
-    <t>손해 / 손상</t>
+    <t>손해, 손상</t>
   </si>
   <si>
     <t>come off</t>
   </si>
   <si>
-    <t>떨어지다 / 습격하다</t>
+    <t>떨어지다, 습격하다</t>
   </si>
   <si>
     <t>intricacy</t>
@@ -648,7 +648,7 @@
     <t>get over</t>
   </si>
   <si>
-    <t>집어 올리다 / 회복하다</t>
+    <t>집어 올리다, 회복하다</t>
   </si>
   <si>
     <t>Day04</t>
@@ -657,7 +657,7 @@
     <t>include</t>
   </si>
   <si>
-    <t>포함하다 / 에워싸다</t>
+    <t>포함하다, 에워싸다</t>
   </si>
   <si>
     <t>inspect</t>
@@ -678,7 +678,7 @@
     <t>savvy</t>
   </si>
   <si>
-    <t>이해하다 / 파악하다</t>
+    <t>이해하다, 파악하다</t>
   </si>
   <si>
     <t>passionate</t>
@@ -690,13 +690,13 @@
     <t>interfere</t>
   </si>
   <si>
-    <t>침입하다 / 개입하다</t>
+    <t>침입하다, 개입하다</t>
   </si>
   <si>
     <t>implict</t>
   </si>
   <si>
-    <t>암시적인 / 함축적인</t>
+    <t>암시적인, 함축적인</t>
   </si>
   <si>
     <t>enclose</t>
@@ -705,7 +705,7 @@
     <t>reject</t>
   </si>
   <si>
-    <t>거절하다 / 거부하다</t>
+    <t>거절하다, 거부하다</t>
   </si>
   <si>
     <t>forthright</t>
@@ -747,7 +747,7 @@
     <t>rational</t>
   </si>
   <si>
-    <t>논리적인 / 타당한</t>
+    <t>논리적인, 타당한</t>
   </si>
   <si>
     <t>scrutinize</t>
@@ -864,7 +864,7 @@
     <t>striking</t>
   </si>
   <si>
-    <t>눈에 띄는 / 현저한</t>
+    <t>눈에 띄는, 현저한</t>
   </si>
   <si>
     <t>Day05</t>
@@ -873,19 +873,19 @@
     <t>pay tribute to</t>
   </si>
   <si>
-    <t>경의를 표하다 / 존경하다</t>
+    <t>경의를 표하다, 존경하다</t>
   </si>
   <si>
     <t>inactive</t>
   </si>
   <si>
-    <t>수동적인 / 소극적인 / 복종적인</t>
+    <t>수동적인, 소극적인, 복종적인</t>
   </si>
   <si>
     <t>finally</t>
   </si>
   <si>
-    <t>결국 / 마침내</t>
+    <t>결국, 마침내</t>
   </si>
   <si>
     <t>부사</t>
@@ -894,13 +894,13 @@
     <t>hesitantly</t>
   </si>
   <si>
-    <t>잠정적으로 / 망설이면서</t>
+    <t>잠정적으로, 망설이면서</t>
   </si>
   <si>
     <t>vaporous</t>
   </si>
   <si>
-    <t>증기를 내는 / 안개가 많은 / 공상적인</t>
+    <t>증기를 내는, 안개가 많은, 공상적인</t>
   </si>
   <si>
     <t>speculative</t>
@@ -915,7 +915,7 @@
     <t>completely</t>
   </si>
   <si>
-    <t>철저히 / 철저하게</t>
+    <t>철저히, 철저하게</t>
   </si>
   <si>
     <t>conspicuous</t>
@@ -1032,7 +1032,7 @@
     <t>literately</t>
   </si>
   <si>
-    <t>문화적으로 / 망설이면서</t>
+    <t>문화적으로, 망설이면서</t>
   </si>
   <si>
     <t>dangerous</t>
@@ -1056,7 +1056,7 @@
     <t>segregated</t>
   </si>
   <si>
-    <t>절연된 / 격리된</t>
+    <t>절연된, 격리된</t>
   </si>
   <si>
     <t>Day06</t>
@@ -1065,13 +1065,13 @@
     <t>immaculate</t>
   </si>
   <si>
-    <t>위생적인 / 깨끗한</t>
+    <t>위생적인, 깨끗한</t>
   </si>
   <si>
     <t>interlink</t>
   </si>
   <si>
-    <t>연결하다 / 가입하다</t>
+    <t>연결하다, 가입하다</t>
   </si>
   <si>
     <t>compensate</t>
@@ -1095,7 +1095,7 @@
     <t>regenerable</t>
   </si>
   <si>
-    <t>재활용할 수 있는 / 재생가능한</t>
+    <t>재활용할 수 있는, 재생가능한</t>
   </si>
   <si>
     <t>indemnify</t>
@@ -1119,7 +1119,7 @@
     <t>look after</t>
   </si>
   <si>
-    <t>돌보다 / 보살피다</t>
+    <t>돌보다, 보살피다</t>
   </si>
   <si>
     <t>isolated</t>
@@ -1239,7 +1239,7 @@
     <t>discipline</t>
   </si>
   <si>
-    <t>처벌하다 / 벌하다</t>
+    <t>처벌하다, 벌하다</t>
   </si>
   <si>
     <t>Day07</t>
@@ -1248,7 +1248,7 @@
     <t>replenish</t>
   </si>
   <si>
-    <t>보충하다 / 보완하다</t>
+    <t>보충하다, 보완하다</t>
   </si>
   <si>
     <t>avoid</t>
@@ -1278,7 +1278,7 @@
     <t>forewarn</t>
   </si>
   <si>
-    <t>경고하다 / 충고하다</t>
+    <t>경고하다, 충고하다</t>
   </si>
   <si>
     <t>soothe</t>
@@ -1296,7 +1296,7 @@
     <t>compute</t>
   </si>
   <si>
-    <t>계산하다 / 추정하다</t>
+    <t>계산하다, 추정하다</t>
   </si>
   <si>
     <t>chastise</t>
@@ -1362,7 +1362,7 @@
     <t>promote</t>
   </si>
   <si>
-    <t>가속화하다 / 촉진하다</t>
+    <t>가속화하다, 촉진하다</t>
   </si>
   <si>
     <t>gauge</t>
@@ -1437,7 +1437,7 @@
     <t>causual</t>
   </si>
   <si>
-    <t>비공식의 / 평상복의</t>
+    <t>비공식의, 평상복의</t>
   </si>
   <si>
     <t>Day08</t>
@@ -1446,7 +1446,7 @@
     <t>slight</t>
   </si>
   <si>
-    <t>무시하다 / 일축하다</t>
+    <t>무시하다, 일축하다</t>
   </si>
   <si>
     <t>sumptuous</t>
@@ -1473,13 +1473,13 @@
     <t>exercise</t>
   </si>
   <si>
-    <t>연습하다 / 연습시키다</t>
+    <t>연습하다, 연습시키다</t>
   </si>
   <si>
     <t>regulate</t>
   </si>
   <si>
-    <t>규제하다 / 통제하다</t>
+    <t>규제하다, 통제하다</t>
   </si>
   <si>
     <t>endorse</t>
@@ -1491,7 +1491,7 @@
     <t>legitimize</t>
   </si>
   <si>
-    <t>정당화하다 / 합법화하다 / 합법의</t>
+    <t>정당화하다, 합법화하다, 합법의</t>
   </si>
   <si>
     <t>spontaneous</t>
@@ -1500,7 +1500,7 @@
     <t>elucidate</t>
   </si>
   <si>
-    <t>설명하다 / 해명하다</t>
+    <t>설명하다, 해명하다</t>
   </si>
   <si>
     <t>expound</t>
@@ -1632,7 +1632,7 @@
     <t>stick out</t>
   </si>
   <si>
-    <t>눈에 띄다 / 인상적이다</t>
+    <t>눈에 띄다, 인상적이다</t>
   </si>
   <si>
     <t>weaken</t>
@@ -1641,7 +1641,7 @@
     <t>redeeming</t>
   </si>
   <si>
-    <t>보충의 / 보충하는</t>
+    <t>보충의, 보충하는</t>
   </si>
   <si>
     <t>diminish</t>
@@ -1659,7 +1659,7 @@
     <t>discern</t>
   </si>
   <si>
-    <t>식별하다 / 구별하다</t>
+    <t>식별하다, 구별하다</t>
   </si>
   <si>
     <t>undermine</t>
@@ -1797,13 +1797,13 @@
     <t>a bigmouth</t>
   </si>
   <si>
-    <t>입이 가벼운 사람 / 수다스러운 사람</t>
+    <t>입이 가벼운 사람, 수다스러운 사람</t>
   </si>
   <si>
     <t>memorialize</t>
   </si>
   <si>
-    <t>축하하다 / 기념하다</t>
+    <t>축하하다, 기념하다</t>
   </si>
   <si>
     <t>let down</t>
@@ -1845,7 +1845,7 @@
     <t>a long shot</t>
   </si>
   <si>
-    <t>가능성 없는 일 / 어려운 일</t>
+    <t>가능성 없는 일, 어려운 일</t>
   </si>
   <si>
     <t>a cash cow</t>
@@ -1863,7 +1863,7 @@
     <t>systematic</t>
   </si>
   <si>
-    <t>체계적인 / 조직적인</t>
+    <t>체계적인, 조직적인</t>
   </si>
   <si>
     <t>censor</t>
@@ -1884,7 +1884,7 @@
     <t>lossen</t>
   </si>
   <si>
-    <t>완화하다 / 완화되다</t>
+    <t>완화하다, 완화되다</t>
   </si>
   <si>
     <t>let up</t>
@@ -1914,7 +1914,7 @@
     <t>예상치 못한 상황에 대한 늦은 반응</t>
   </si>
   <si>
-    <t>a dead[good / real] bargin</t>
+    <t>a dead[good, real] bargin</t>
   </si>
   <si>
     <t>헐값에 산 물건</t>
@@ -1959,7 +1959,7 @@
     <t>a Jack of all trades</t>
   </si>
   <si>
-    <t>다재다능한 인물 / 팔방미인</t>
+    <t>다재다능한 인물, 팔방미인</t>
   </si>
   <si>
     <t>a hard nut to crack</t>
@@ -2046,7 +2046,7 @@
     <t>a blind date</t>
   </si>
   <si>
-    <t>소개팅 / 서로 모르는 남녀의 데이트</t>
+    <t>소개팅, 서로 모르는 남녀의 데이트</t>
   </si>
   <si>
     <t>a lemon</t>
@@ -2121,7 +2121,7 @@
     <t>a big hand</t>
   </si>
   <si>
-    <t>힘찬 박수 / 뜨거운 박수</t>
+    <t>힘찬 박수, 뜨거운 박수</t>
   </si>
   <si>
     <t>divulge</t>
@@ -2151,7 +2151,7 @@
     <t>a cold fish</t>
   </si>
   <si>
-    <t>냉혈한 / 냉정한 인간</t>
+    <t>냉혈한, 냉정한 인간</t>
   </si>
   <si>
     <t>organized</t>
@@ -2208,7 +2208,7 @@
     <t>a fat cat</t>
   </si>
   <si>
-    <t>큰 금액의 정치 후원을 하는 사람 / 부자</t>
+    <t>큰 금액의 정치 후원을 하는 사람, 부자</t>
   </si>
   <si>
     <t>a dark horse</t>
@@ -2232,7 +2232,7 @@
     <t>at times</t>
   </si>
   <si>
-    <t>때때로 / 가끔</t>
+    <t>때때로, 가끔</t>
   </si>
   <si>
     <t>Day11</t>
@@ -2253,7 +2253,7 @@
     <t>settle</t>
   </si>
   <si>
-    <t>안정하다 / 고정시키다</t>
+    <t>안정하다, 고정시키다</t>
   </si>
   <si>
     <t>unconcerned</t>
@@ -2286,7 +2286,7 @@
     <t>be familiar with</t>
   </si>
   <si>
-    <t>정통하다 / 잘 알다</t>
+    <t>정통하다, 잘 알다</t>
   </si>
   <si>
     <t>keep abreast of</t>
@@ -2304,7 +2304,7 @@
     <t>forestall</t>
   </si>
   <si>
-    <t>몰두시키다 / 독점하다</t>
+    <t>몰두시키다, 독점하다</t>
   </si>
   <si>
     <t>sheer</t>
@@ -2427,7 +2427,7 @@
     <t>bicker</t>
   </si>
   <si>
-    <t>언쟁하다 / 말다툼하다</t>
+    <t>언쟁하다, 말다툼하다</t>
   </si>
   <si>
     <t>Day12</t>
@@ -2436,7 +2436,7 @@
     <t>a snow job</t>
   </si>
   <si>
-    <t>그럴듯한 거짓말 / 속이기</t>
+    <t>그럴듯한 거짓말, 속이기</t>
   </si>
   <si>
     <t>all dancing</t>
@@ -2448,25 +2448,25 @@
     <t>contradict</t>
   </si>
   <si>
-    <t>논쟁하다 / 반박하다</t>
+    <t>논쟁하다, 반박하다</t>
   </si>
   <si>
     <t>consent</t>
   </si>
   <si>
-    <t>의견이 일치하다 / 동의하다</t>
+    <t>의견이 일치하다, 동의하다</t>
   </si>
   <si>
     <t>sociable</t>
   </si>
   <si>
-    <t>외향적인 / 사교적인</t>
+    <t>외향적인, 사교적인</t>
   </si>
   <si>
     <t>on the ropes</t>
   </si>
   <si>
-    <t>궁지에 몰린 / 망하기 직전에</t>
+    <t>궁지에 몰린, 망하기 직전에</t>
   </si>
   <si>
     <t>believe in</t>
@@ -2478,7 +2478,7 @@
     <t>all in all</t>
   </si>
   <si>
-    <t>대체로 / 모두 합해서 / 통틀어</t>
+    <t>대체로, 모두 합해서, 통틀어</t>
   </si>
   <si>
     <t>refute</t>
@@ -2487,7 +2487,7 @@
     <t>a smash hit</t>
   </si>
   <si>
-    <t>대히트 / 대성공</t>
+    <t>대히트, 대성공</t>
   </si>
   <si>
     <t>add insult to injury</t>
@@ -2502,16 +2502,16 @@
     <t>all out</t>
   </si>
   <si>
-    <t>사력을 다하여 / 전력으로</t>
-  </si>
-  <si>
-    <t>의무적인 / 강제적인</t>
+    <t>사력을 다하여, 전력으로</t>
+  </si>
+  <si>
+    <t>의무적인, 강제적인</t>
   </si>
   <si>
     <t>segment</t>
   </si>
   <si>
-    <t>나누다 / 가르다</t>
+    <t>나누다, 가르다</t>
   </si>
   <si>
     <t>count on</t>
@@ -2553,7 +2553,7 @@
     <t>a shutdown</t>
   </si>
   <si>
-    <t>대결 / 마지막 결전</t>
+    <t>대결, 마지막 결전</t>
   </si>
   <si>
     <t>debate</t>
@@ -2562,19 +2562,19 @@
     <t>keep clear of</t>
   </si>
   <si>
-    <t>가까이 하지 않다 / 떨어져 있다</t>
+    <t>가까이 하지 않다, 떨어져 있다</t>
   </si>
   <si>
     <t>a windfall profit</t>
   </si>
   <si>
-    <t>우발적인 이익 / 불로소득</t>
+    <t>우발적인 이익, 불로소득</t>
   </si>
   <si>
     <t>a shot in the dark</t>
   </si>
   <si>
-    <t>근거 없는 짐작 / 억측</t>
+    <t>근거 없는 짐작, 억측</t>
   </si>
   <si>
     <t>redundant</t>
@@ -2583,7 +2583,7 @@
     <t>a needle in a haystack</t>
   </si>
   <si>
-    <t>건초 더미에서 바늘 찾기 / 거의 불가능한 일</t>
+    <t>건초 더미에서 바늘 찾기, 거의 불가능한 일</t>
   </si>
   <si>
     <t>be far away</t>
@@ -2610,7 +2610,7 @@
     <t>Achilles' heel</t>
   </si>
   <si>
-    <t>아킬레스건 / 치명적인 약점</t>
+    <t>아킬레스건, 치명적인 약점</t>
   </si>
   <si>
     <t>rely on</t>
@@ -2628,19 +2628,19 @@
     <t>adhere to</t>
   </si>
   <si>
-    <t>~을 고수하다 / 들러붙다</t>
+    <t>~을 고수하다, 들러붙다</t>
   </si>
   <si>
     <t>a walk of life</t>
   </si>
   <si>
-    <t>계층 / 지위</t>
+    <t>계층, 지위</t>
   </si>
   <si>
     <t>a steal</t>
   </si>
   <si>
-    <t>횡재한 것 / 거의 헐값에 얻은 것</t>
+    <t>횡재한 것, 거의 헐값에 얻은 것</t>
   </si>
   <si>
     <t>all-around</t>
@@ -2655,7 +2655,7 @@
     <t>a white elephant</t>
   </si>
   <si>
-    <t>성가신 것 / 골치 아픈 것 / 애물단지</t>
+    <t>성가신 것, 골치 아픈 것, 애물단지</t>
   </si>
   <si>
     <t>a prelude to</t>
@@ -2667,7 +2667,7 @@
     <t>contemptuous</t>
   </si>
   <si>
-    <t>경멸적인 / 경멸하는</t>
+    <t>경멸적인, 경멸하는</t>
   </si>
   <si>
     <t>extra</t>
@@ -2679,7 +2679,7 @@
     <t>after all (= in spite off = in the end)</t>
   </si>
   <si>
-    <t>결국 / ~에도 불구하고</t>
+    <t>결국, ~에도 불구하고</t>
   </si>
   <si>
     <t>above all (things) (=more than anything else)</t>
@@ -2691,19 +2691,19 @@
     <t>all at sea</t>
   </si>
   <si>
-    <t>어찌할 바를 모르는 / 어리둥절한</t>
-  </si>
-  <si>
-    <t>agree with somebody /something</t>
-  </si>
-  <si>
-    <t>~에게 동의하다 / ~에 동의하다</t>
+    <t>어찌할 바를 모르는, 어리둥절한</t>
+  </si>
+  <si>
+    <t>agree with somebody,something</t>
+  </si>
+  <si>
+    <t>~에게 동의하다, ~에 동의하다</t>
   </si>
   <si>
     <t>all along</t>
   </si>
   <si>
-    <t>줄곧 / 내내</t>
+    <t>줄곧, 내내</t>
   </si>
   <si>
     <t>all at once(= suddenly = on a sudden)</t>
@@ -2721,7 +2721,7 @@
     <t>(be) all thumbs</t>
   </si>
   <si>
-    <t>익숙하지 못한 / 손재주가 없는</t>
+    <t>익숙하지 못한, 손재주가 없는</t>
   </si>
   <si>
     <t>disdainful</t>
@@ -2730,7 +2730,7 @@
     <t>a skeleton in the closet</t>
   </si>
   <si>
-    <t>집 내부의 사정 / 비밀 / 숨기고 싶은 수치</t>
+    <t>집 내부의 사정, 비밀, 숨기고 싶은 수치</t>
   </si>
   <si>
     <t>against all odds</t>
@@ -2760,7 +2760,7 @@
     <t>all the same</t>
   </si>
   <si>
-    <t>똑같은 / 그래도 / 여전히 / 그럼에도 불구하고</t>
+    <t>똑같은, 그래도, 여전히, 그럼에도 불구하고</t>
   </si>
   <si>
     <t>a smoke screen</t>
@@ -2781,7 +2781,7 @@
     <t>a wild card</t>
   </si>
   <si>
-    <t>만능의 패 / 예측할 수 없는 사람[일]</t>
+    <t>만능의 패, 예측할 수 없는 사람[일]</t>
   </si>
   <si>
     <t>see eye to eye</t>
@@ -2790,7 +2790,7 @@
     <t>a rip-off</t>
   </si>
   <si>
-    <t>바가지 / 모작 / 아류</t>
+    <t>바가지, 모작, 아류</t>
   </si>
   <si>
     <t>agree</t>
@@ -2799,7 +2799,7 @@
     <t>a pain in the neck</t>
   </si>
   <si>
-    <t>아주 귀찮은 사람[것] / 골칫거리</t>
+    <t>아주 귀찮은 사람[것], 골칫거리</t>
   </si>
   <si>
     <t>account for</t>
@@ -2829,7 +2829,7 @@
     <t>across the board</t>
   </si>
   <si>
-    <t>전체적으로 / 전반적으로</t>
+    <t>전체적으로, 전반적으로</t>
   </si>
   <si>
     <t>a slip of the tongue</t>
@@ -2844,13 +2844,13 @@
     <t>a poker face</t>
   </si>
   <si>
-    <t>포커페이스 / 무표정한 얼굴</t>
+    <t>포커페이스, 무표정한 얼굴</t>
   </si>
   <si>
     <t>a turkey shoot</t>
   </si>
   <si>
-    <t>상대가 안 되는 싸움 / 식은 죽 먹기</t>
+    <t>상대가 안 되는 싸움, 식은 죽 먹기</t>
   </si>
   <si>
     <t>forcible</t>
@@ -2874,7 +2874,7 @@
     <t>a pretty kettle of fish</t>
   </si>
   <si>
-    <t>아수라장 / 엉망진창</t>
+    <t>아수라장, 엉망진창</t>
   </si>
   <si>
     <t>a pipdream</t>
@@ -2895,7 +2895,7 @@
     <t>act one's age</t>
   </si>
   <si>
-    <t>나잇값을 하다 / 나이에 걸맞는 행동을 하다</t>
+    <t>나잇값을 하다, 나이에 걸맞는 행동을 하다</t>
   </si>
   <si>
     <t>take a fancy(= be fond of = take a linking to[for])</t>
@@ -2913,7 +2913,7 @@
     <t>abide by (= keep = be faithful to)</t>
   </si>
   <si>
-    <t>~을 따르다 / 지키다 / 준수하다</t>
+    <t>~을 따르다, 지키다, 준수하다</t>
   </si>
   <si>
     <t>again and again (= repeatedly)</t>
@@ -2937,13 +2937,13 @@
     <t>aquiesce to</t>
   </si>
   <si>
-    <t>~에 동의하다 / 묵인하다</t>
+    <t>~에 동의하다, 묵인하다</t>
   </si>
   <si>
     <t>agree to something</t>
   </si>
   <si>
-    <t>~을 찬성하다 / 승낙하다</t>
+    <t>~을 찬성하다, 승낙하다</t>
   </si>
   <si>
     <t>extrovert</t>
@@ -2958,7 +2958,7 @@
     <t>around the corner</t>
   </si>
   <si>
-    <t>길모퉁이에 / 임박한</t>
+    <t>길모퉁이에, 임박한</t>
   </si>
   <si>
     <t>Day13</t>
@@ -2985,7 +2985,7 @@
     <t>(as) hard as nails</t>
   </si>
   <si>
-    <t>냉혹한 / 무자비한 / 건장한</t>
+    <t>냉혹한, 무자비한, 건장한</t>
   </si>
   <si>
     <t>ask somebody out</t>
@@ -3009,7 +3009,7 @@
     <t>배회하다</t>
   </si>
   <si>
-    <t>시작하다 / 착수하다</t>
+    <t>시작하다, 착수하다</t>
   </si>
   <si>
     <t>aggravate</t>
@@ -3024,7 +3024,7 @@
     <t>as bold as brass</t>
   </si>
   <si>
-    <t>뻔뻔스러운 / 철면피의</t>
+    <t>뻔뻔스러운, 철면피의</t>
   </si>
   <si>
     <t>initiate</t>
@@ -3036,10 +3036,10 @@
     <t>commence</t>
   </si>
   <si>
-    <t>as well (=besides / into the bargain)</t>
-  </si>
-  <si>
-    <t>게다가 / 또한</t>
+    <t>as well (=besides, into the bargain)</t>
+  </si>
+  <si>
+    <t>게다가, 또한</t>
   </si>
   <si>
     <t>as a result of</t>
@@ -3051,10 +3051,10 @@
     <t>an old hand</t>
   </si>
   <si>
-    <t>노련한 사람 / 숙련자</t>
-  </si>
-  <si>
-    <t>as regards (=as to / concerning / regarding)</t>
+    <t>노련한 사람, 숙련자</t>
+  </si>
+  <si>
+    <t>as regards (=as to, concerning, regarding)</t>
   </si>
   <si>
     <t>~에 관하여</t>
@@ -3078,7 +3078,7 @@
     <t>전체로서</t>
   </si>
   <si>
-    <t>apt to (=be likely to / be liable to)</t>
+    <t>apt to (=be likely to, be liable to)</t>
   </si>
   <si>
     <t>~하기 쉬운</t>
@@ -3102,7 +3102,7 @@
     <t>curtail</t>
   </si>
   <si>
-    <t>줄이다 / 축소하다</t>
+    <t>줄이다, 축소하다</t>
   </si>
   <si>
     <t>template</t>
@@ -3114,7 +3114,7 @@
     <t>as deep as a well</t>
   </si>
   <si>
-    <t>우물만큼 깊은 / 이해하기 어려운</t>
+    <t>우물만큼 깊은, 이해하기 어려운</t>
   </si>
   <si>
     <t>cheerful</t>
@@ -3177,13 +3177,13 @@
     <t>Alpha and Omega</t>
   </si>
   <si>
-    <t>시작과 끝 / 모든 것 / 근본</t>
-  </si>
-  <si>
-    <t>and so on(=and so forth / and what not)</t>
-  </si>
-  <si>
-    <t>~등등 / 따위</t>
+    <t>시작과 끝, 모든 것, 근본</t>
+  </si>
+  <si>
+    <t>and so on(=and so forth, and what not)</t>
+  </si>
+  <si>
+    <t>~등등, 따위</t>
   </si>
   <si>
     <t>as usual (=in the usual way)</t>
@@ -3198,10 +3198,10 @@
     <t>~은 별도로 하고</t>
   </si>
   <si>
-    <t>as good as(=practically / no better than)</t>
-  </si>
-  <si>
-    <t>사실상 / ~과 같은</t>
+    <t>as good as(=practically, no better than)</t>
+  </si>
+  <si>
+    <t>사실상, ~과 같은</t>
   </si>
   <si>
     <t>as a matter of course</t>
@@ -3213,13 +3213,13 @@
     <t>act of God</t>
   </si>
   <si>
-    <t>천재지변 / 불가항력</t>
-  </si>
-  <si>
-    <t>as a rule(=usually / on the whole)</t>
-  </si>
-  <si>
-    <t>통상 / 대체로</t>
+    <t>천재지변, 불가항력</t>
+  </si>
+  <si>
+    <t>as a rule(=usually, on the whole)</t>
+  </si>
+  <si>
+    <t>통상, 대체로</t>
   </si>
   <si>
     <t>deteriorate</t>
@@ -3228,7 +3228,7 @@
     <t>delusion</t>
   </si>
   <si>
-    <t>환각 / 환상 / 망상</t>
+    <t>환각, 환상, 망상</t>
   </si>
   <si>
     <t>mistrust</t>
@@ -3237,7 +3237,7 @@
     <t>around[round] the clock</t>
   </si>
   <si>
-    <t>24시간 내내 / 밤낮으로</t>
+    <t>24시간 내내, 밤낮으로</t>
   </si>
   <si>
     <t>model</t>
@@ -3246,10 +3246,10 @@
     <t>at every turn</t>
   </si>
   <si>
-    <t>언제나 / 어디에서나</t>
-  </si>
-  <si>
-    <t>at any rates (=in any case / at all events)</t>
+    <t>언제나, 어디에서나</t>
+  </si>
+  <si>
+    <t>at any rates (=in any case, at all events)</t>
   </si>
   <si>
     <t>어쨌든</t>
@@ -3297,13 +3297,13 @@
     <t>as yet (=up to now)</t>
   </si>
   <si>
-    <t>이제껏 / 아직까지</t>
+    <t>이제껏, 아직까지</t>
   </si>
   <si>
     <t>phantom</t>
   </si>
   <si>
-    <t>at all events(=in any case / at any rate)</t>
+    <t>at all events(=in any case, at any rate)</t>
   </si>
   <si>
     <t>어떤 경우라도</t>
@@ -3315,7 +3315,7 @@
     <t>decline</t>
   </si>
   <si>
-    <t>at a loss (=perplexed / uncertain)</t>
+    <t>at a loss (=perplexed, uncertain)</t>
   </si>
   <si>
     <t>어쩔 줄을 몰라서</t>
@@ -3330,7 +3330,7 @@
     <t>reduce</t>
   </si>
   <si>
-    <t xml:space="preserve">at about (=near) </t>
+    <t>at about (=near)</t>
   </si>
   <si>
     <t>~쯤에</t>
@@ -3357,7 +3357,7 @@
     <t>assume[put on] airs</t>
   </si>
   <si>
-    <t>뽐내다 / 잘난 체하다</t>
+    <t>뽐내다, 잘난 체하다</t>
   </si>
   <si>
     <t>illusion</t>
@@ -3366,7 +3366,7 @@
     <t>worsen</t>
   </si>
   <si>
-    <t>as it were (=so to speak / so to say / as one might say)</t>
+    <t>as it were (=so to speak, so to say, as one might say)</t>
   </si>
   <si>
     <t>말하자면</t>
@@ -3375,7 +3375,7 @@
     <t>at loose ends (=at a loose ends)</t>
   </si>
   <si>
-    <t>할 일이 없는 / 뭘 해야 할지 모르는</t>
+    <t>할 일이 없는, 뭘 해야 할지 모르는</t>
   </si>
   <si>
     <t>undertake</t>
@@ -3495,7 +3495,7 @@
     <t>affirm</t>
   </si>
   <si>
-    <t>단언하다 / 확언하다</t>
+    <t>단언하다, 확언하다</t>
   </si>
   <si>
     <t>assert</t>
@@ -3513,7 +3513,7 @@
     <t>swindle</t>
   </si>
   <si>
-    <t>사기치다 / 사취하다</t>
+    <t>사기치다, 사취하다</t>
   </si>
   <si>
     <t>cheat</t>
@@ -3525,7 +3525,7 @@
     <t>defraud</t>
   </si>
   <si>
-    <t>시작하다 / 착수하다 / 가입하다</t>
+    <t>시작하다, 착수하다, 가입하다</t>
   </si>
   <si>
     <t>embark</t>
@@ -3546,7 +3546,7 @@
     <t>at first sight</t>
   </si>
   <si>
-    <t>첫눈에 / 언뜻 보기에</t>
+    <t>첫눈에, 언뜻 보기에</t>
   </si>
   <si>
     <t>at full tilt</t>
@@ -3558,7 +3558,7 @@
     <t>at hand</t>
   </si>
   <si>
-    <t>가까이에 / 머지않아</t>
+    <t>가까이에, 머지않아</t>
   </si>
   <si>
     <t>high time</t>
@@ -3570,7 +3570,7 @@
     <t>hold back (from)</t>
   </si>
   <si>
-    <t>삼가다 / 그만두다</t>
+    <t>삼가다, 그만두다</t>
   </si>
   <si>
     <t>hold over</t>
@@ -3588,7 +3588,7 @@
     <t>hold up</t>
   </si>
   <si>
-    <t>강탈하다 / 지연시키다</t>
+    <t>강탈하다, 지연시키다</t>
   </si>
   <si>
     <t>ill with</t>
@@ -3618,7 +3618,7 @@
     <t>in that</t>
   </si>
   <si>
-    <t>~라는 점에서 / ~이므로</t>
+    <t>~라는 점에서, ~이므로</t>
   </si>
   <si>
     <t>in the habit of -ing</t>
@@ -3696,7 +3696,7 @@
     <t>soften</t>
   </si>
   <si>
-    <t>부드러워지다 / 누그러뜨리다</t>
+    <t>부드러워지다, 누그러뜨리다</t>
   </si>
   <si>
     <t>mellow</t>
@@ -3708,7 +3708,7 @@
     <t>connect</t>
   </si>
   <si>
-    <t>연결하다 / 관련시키다</t>
+    <t>연결하다, 관련시키다</t>
   </si>
   <si>
     <t>interconnect</t>
@@ -3843,7 +3843,7 @@
     <t>devise</t>
   </si>
   <si>
-    <t>고안하다 / 궁리하다</t>
+    <t>고안하다, 궁리하다</t>
   </si>
   <si>
     <t>design</t>
@@ -3891,7 +3891,7 @@
     <t>at heart</t>
   </si>
   <si>
-    <t>내심으로는 / 본심으로는</t>
+    <t>내심으로는, 본심으로는</t>
   </si>
   <si>
     <t>at home (=comfortable)</t>
@@ -3903,31 +3903,31 @@
     <t>at issue with</t>
   </si>
   <si>
-    <t>~와 논쟁중인 / 의견이 안 맞는</t>
-  </si>
-  <si>
-    <t>at large (=usually / at length)</t>
-  </si>
-  <si>
-    <t>대개 / 상세히</t>
-  </si>
-  <si>
-    <t>at last (=in the end / finally)</t>
-  </si>
-  <si>
-    <t>드디어 / 마침내</t>
+    <t>~와 논쟁중인, 의견이 안 맞는</t>
+  </si>
+  <si>
+    <t>at large (=usually, at length)</t>
+  </si>
+  <si>
+    <t>대개, 상세히</t>
+  </si>
+  <si>
+    <t>at last (=in the end, finally)</t>
+  </si>
+  <si>
+    <t>드디어, 마침내</t>
   </si>
   <si>
     <t>at least (=not less than)</t>
   </si>
   <si>
-    <t>적어도 /어쨌든</t>
-  </si>
-  <si>
-    <t>at length(=at last / in detail)</t>
-  </si>
-  <si>
-    <t>드디어 / 상세히</t>
+    <t>적어도,어쨌든</t>
+  </si>
+  <si>
+    <t>at length(=at last, in detail)</t>
+  </si>
+  <si>
+    <t>드디어, 상세히</t>
   </si>
   <si>
     <t>at liberty (=free)</t>
@@ -3948,7 +3948,7 @@
     <t>~와 사이가 나쁜</t>
   </si>
   <si>
-    <t>at once (=immediately / at the same time / in no time)</t>
+    <t>at once (=immediately, at the same time, in no time)</t>
   </si>
   <si>
     <t>즉시</t>
@@ -3966,10 +3966,10 @@
     <t>~의 명령 즉시 따를 준비가 된</t>
   </si>
   <si>
-    <t>at one;s fingertips</t>
-  </si>
-  <si>
-    <t>즉시 이용가능한 / 정통한</t>
+    <t>at one's fingertips</t>
+  </si>
+  <si>
+    <t>즉시 이용가능한, 정통한</t>
   </si>
   <si>
     <t>at one's fingers' ends</t>
@@ -3981,7 +3981,7 @@
     <t>at random (=without aim)</t>
   </si>
   <si>
-    <t>함부로 / 닥치는 대로 / 무작위로</t>
+    <t>함부로, 닥치는 대로, 무작위로</t>
   </si>
   <si>
     <t>at second hand (=indirectly)</t>
@@ -3993,13 +3993,13 @@
     <t>at sixes and sevens</t>
   </si>
   <si>
-    <t>혼란스러운 / 뒤죽박죽인</t>
+    <t>혼란스러운, 뒤죽박죽인</t>
   </si>
   <si>
     <t>at stake</t>
   </si>
   <si>
-    <t>위태로운 / 성패가 달려 있는</t>
+    <t>위태로운, 성패가 달려 있는</t>
   </si>
   <si>
     <t>at one's disposal</t>
@@ -4011,13 +4011,13 @@
     <t>at the drop of a hat</t>
   </si>
   <si>
-    <t>지체없이 / 신호가 떨어지자마자. 곧바로</t>
+    <t>지체없이, 신호가 떨어지자마자. 곧바로</t>
   </si>
   <si>
     <t>at the end of one's rope</t>
   </si>
   <si>
-    <t>진퇴양난에 빠진 / 절박한 상황에 이른</t>
+    <t>진퇴양난에 빠진, 절박한 상황에 이른</t>
   </si>
   <si>
     <t>at the eleventh hour</t>
@@ -4035,7 +4035,7 @@
     <t>at the mercy of</t>
   </si>
   <si>
-    <t>~의 마음대로 / ~에 휘둘리는</t>
+    <t>~의 마음대로, ~에 휘둘리는</t>
   </si>
   <si>
     <t>at the risk of</t>
@@ -4056,7 +4056,7 @@
     <t>목소리를 높여</t>
   </si>
   <si>
-    <t>at times (=sometimes / occasionally)</t>
+    <t>at times (=sometimes, occasionally)</t>
   </si>
   <si>
     <t>가끔</t>
@@ -4074,19 +4074,19 @@
     <t>남의 마음대로 되는</t>
   </si>
   <si>
-    <t>attend on (=wait on / serve)</t>
+    <t>attend on (=wait on, serve)</t>
   </si>
   <si>
     <t>~을 시중들다</t>
   </si>
   <si>
-    <t>attribute A to B (=ascribe A to B / impute A to B)</t>
+    <t>attribute A to B (=ascribe A to B, impute A to B)</t>
   </si>
   <si>
     <t>A를 B의 탓으로 돌리다</t>
   </si>
   <si>
-    <t>avail oneself of (=talk advantage of / use)</t>
+    <t>avail oneself of (=talk advantage of, use)</t>
   </si>
   <si>
     <t>이용하다</t>
@@ -4143,7 +4143,7 @@
     <t>prelude</t>
   </si>
   <si>
-    <t>서막 / 전조</t>
+    <t>서막, 전조</t>
   </si>
   <si>
     <t>prologue</t>
@@ -4161,7 +4161,7 @@
     <t>malefactor</t>
   </si>
   <si>
-    <t>범인 / 범죄자</t>
+    <t>범인, 범죄자</t>
   </si>
   <si>
     <t>culprit</t>
@@ -4179,7 +4179,7 @@
     <t>dilettante</t>
   </si>
   <si>
-    <t>예술 애호가 / 아마추어의</t>
+    <t>예술 애호가, 아마추어의</t>
   </si>
   <si>
     <t>aesthete</t>
@@ -4236,7 +4236,7 @@
     <t>in no time</t>
   </si>
   <si>
-    <t>당장 / 즉시</t>
+    <t>당장, 즉시</t>
   </si>
   <si>
     <t>at once</t>
@@ -4260,7 +4260,7 @@
     <t>be inclined to R</t>
   </si>
   <si>
-    <t>~하고 싶다 / ~하는 경향이 있다</t>
+    <t>~하고 싶다, ~하는 경향이 있다</t>
   </si>
   <si>
     <t>be liable to R</t>
@@ -4272,7 +4272,7 @@
     <t>be obliged to R (=be compelled to, be bound to, be forced to)</t>
   </si>
   <si>
-    <t>~하도록 의무를 받다 / ~하지 않을 수 없다</t>
+    <t>~하도록 의무를 받다, ~하지 않을 수 없다</t>
   </si>
   <si>
     <t>be on good[friendly] terms with(=be friendly with)</t>
@@ -4290,7 +4290,7 @@
     <t>be on pins and needles</t>
   </si>
   <si>
-    <t>매우 불안하다 / 가시방석에 앉다</t>
+    <t>매우 불안하다, 가시방석에 앉다</t>
   </si>
   <si>
     <t>be on the fence</t>
@@ -4302,13 +4302,13 @@
     <t>be on the safe side</t>
   </si>
   <si>
-    <t>조심하다 / 신중을 기하다</t>
+    <t>조심하다, 신중을 기하다</t>
   </si>
   <si>
     <t>be out of order</t>
   </si>
   <si>
-    <t>고장나다 / 정리가 안 되다</t>
+    <t>고장나다, 정리가 안 되다</t>
   </si>
   <si>
     <t>be over</t>
@@ -4320,7 +4320,7 @@
     <t>be poles apart</t>
   </si>
   <si>
-    <t>정반대이다 / 전혀 다르다</t>
+    <t>정반대이다, 전혀 다르다</t>
   </si>
   <si>
     <t>be possessed with</t>
@@ -4341,7 +4341,7 @@
     <t>be snowed under</t>
   </si>
   <si>
-    <t>크게 밀리다 / 압도되다</t>
+    <t>크게 밀리다, 압도되다</t>
   </si>
   <si>
     <t>be subject to (=be liable to, be going to)</t>
@@ -4413,7 +4413,7 @@
     <t>be through (with)</t>
   </si>
   <si>
-    <t>(~을) 끝내다 / (~와) 인연을 끊다</t>
+    <t>(~을) 끝내다, (~와) 인연을 끊다</t>
   </si>
   <si>
     <t>true to (=faithful to)</t>
@@ -4428,25 +4428,25 @@
     <t>미정이다</t>
   </si>
   <si>
-    <t>~에 달려있다 / ~가 할 일이다</t>
+    <t>~에 달려있다, ~가 할 일이다</t>
   </si>
   <si>
     <t>be up for grabs</t>
   </si>
   <si>
-    <t>누구나 차지할 수 있다 / 누구나 구할 수 있다</t>
+    <t>누구나 차지할 수 있다, 누구나 구할 수 있다</t>
   </si>
   <si>
     <t>be up to one's ears[neck] in</t>
   </si>
   <si>
-    <t>~으로 정신이 없다 / 바쁘다 / 할 일이 너무 많다</t>
+    <t>~으로 정신이 없다, 바쁘다, 할 일이 너무 많다</t>
   </si>
   <si>
     <t>be well[better] off</t>
   </si>
   <si>
-    <t>잘 살다 / 부유하다</t>
+    <t>잘 살다, 부유하다</t>
   </si>
   <si>
     <t>grin and bear it</t>
@@ -4464,7 +4464,7 @@
     <t>bear the bell</t>
   </si>
   <si>
-    <t>선두에 서다 / 우승하다</t>
+    <t>선두에 서다, 우승하다</t>
   </si>
   <si>
     <t>beat a dead horse</t>
@@ -4476,13 +4476,13 @@
     <t>beat one's head against the wall</t>
   </si>
   <si>
-    <t>헛된 노력을 하다 / 헛수고하다</t>
+    <t>헛된 노력을 하다, 헛수고하다</t>
   </si>
   <si>
     <t>beat around[about] the bush</t>
   </si>
   <si>
-    <t>돌려 말하다 / 변죽을 울리다</t>
+    <t>돌려 말하다, 변죽을 울리다</t>
   </si>
   <si>
     <t>beat oneself up</t>
@@ -4545,19 +4545,19 @@
     <t>behind the eight ball</t>
   </si>
   <si>
-    <t>불리한 입장에서[인] / 궁지에 빠져[빠진]</t>
+    <t>불리한 입장에서[인], 궁지에 빠져[빠진]</t>
   </si>
   <si>
     <t>behind the scenes</t>
   </si>
   <si>
-    <t>막의 뒤에서 / 은밀히</t>
+    <t>막의 뒤에서, 은밀히</t>
   </si>
   <si>
     <t>behind the times (=out of date, old-fashioned)</t>
   </si>
   <si>
-    <t>시대에 뒤떨어진 / 구식의</t>
+    <t>시대에 뒤떨어진, 구식의</t>
   </si>
   <si>
     <t>behind the whell</t>
@@ -4573,62 +4573,521 @@
   </si>
   <si>
     <t>every so often</t>
+  </si>
+  <si>
+    <t>때때로</t>
+  </si>
+  <si>
+    <t>Day18</t>
+  </si>
+  <si>
+    <t>on occasion</t>
+  </si>
+  <si>
+    <t>pleasant</t>
+  </si>
+  <si>
+    <t>즐거운</t>
+  </si>
+  <si>
+    <t>joyful</t>
+  </si>
+  <si>
+    <t>enjoyable</t>
+  </si>
+  <si>
+    <t>delightful</t>
+  </si>
+  <si>
+    <t>blithe</t>
+  </si>
+  <si>
+    <t>festive</t>
+  </si>
+  <si>
+    <t>elated</t>
+  </si>
+  <si>
+    <t>jubilant</t>
+  </si>
+  <si>
+    <t>paramount</t>
+  </si>
+  <si>
+    <t>가장 중요한, 최고의</t>
+  </si>
+  <si>
+    <t>cheief</t>
+  </si>
+  <si>
+    <t>capital</t>
+  </si>
+  <si>
+    <t>foremost</t>
+  </si>
+  <si>
+    <t>cardinal</t>
+  </si>
+  <si>
+    <t>stellar</t>
+  </si>
+  <si>
+    <t>principal</t>
+  </si>
+  <si>
+    <t>prime</t>
+  </si>
+  <si>
+    <t>supreme</t>
+  </si>
+  <si>
+    <t>superlative</t>
+  </si>
+  <si>
+    <t>top-notch</t>
+  </si>
+  <si>
+    <t>superb</t>
+  </si>
+  <si>
+    <t>premier</t>
+  </si>
+  <si>
+    <t>optimal</t>
+  </si>
+  <si>
+    <t>swear</t>
+  </si>
+  <si>
+    <t>맹세하다, 선서하다</t>
+  </si>
+  <si>
+    <t>vow</t>
+  </si>
+  <si>
+    <t>pledge</t>
+  </si>
+  <si>
+    <t>take an oath</t>
+  </si>
+  <si>
+    <t>successful</t>
+  </si>
+  <si>
+    <t>성공한</t>
+  </si>
+  <si>
+    <t>prosperous</t>
+  </si>
+  <si>
+    <t>triumphant</t>
+  </si>
+  <si>
+    <t>getting ahead</t>
+  </si>
+  <si>
+    <t>mysterious</t>
+  </si>
+  <si>
+    <t>불가사의한, 이해하기 힘든</t>
+  </si>
+  <si>
+    <t>enigmatic</t>
+  </si>
+  <si>
+    <t>occult</t>
+  </si>
+  <si>
+    <t>inscrutable</t>
+  </si>
+  <si>
+    <t>arcane</t>
+  </si>
+  <si>
+    <t>incomprehensible</t>
+  </si>
+  <si>
+    <t>unfathomable</t>
+  </si>
+  <si>
+    <t>impenetrable</t>
+  </si>
+  <si>
+    <t>inexplicable</t>
+  </si>
+  <si>
+    <t>unaccountable</t>
+  </si>
+  <si>
+    <t>get cold feet</t>
+  </si>
+  <si>
+    <t>겁이 나다, 겁내는, 겁이 난</t>
+  </si>
+  <si>
+    <t>afraid</t>
+  </si>
+  <si>
+    <t>terrified</t>
+  </si>
+  <si>
+    <t>fearful</t>
+  </si>
+  <si>
+    <t>frightened</t>
+  </si>
+  <si>
+    <t>ambitious</t>
+  </si>
+  <si>
+    <t>열망하는</t>
+  </si>
+  <si>
+    <t>anxious</t>
+  </si>
+  <si>
+    <t>longing</t>
+  </si>
+  <si>
+    <t>keen</t>
+  </si>
+  <si>
+    <t>avid</t>
+  </si>
+  <si>
+    <t>exhausted</t>
+  </si>
+  <si>
+    <t>지친</t>
+  </si>
+  <si>
+    <t>tired</t>
+  </si>
+  <si>
+    <t>weary</t>
+  </si>
+  <si>
+    <t>fatigued</t>
+  </si>
+  <si>
+    <t>drained</t>
+  </si>
+  <si>
+    <t>sadden</t>
+  </si>
+  <si>
+    <t>슬프게 하다, 우울하게 하다</t>
+  </si>
+  <si>
+    <t>grieve</t>
+  </si>
+  <si>
+    <t>oppress</t>
+  </si>
+  <si>
+    <t>bell the cat</t>
+  </si>
+  <si>
+    <t>고양이 목에 방울을 달다, 위험한 일을 떠맡다</t>
+  </si>
+  <si>
+    <t>bend over backwards</t>
+  </si>
+  <si>
+    <t>안간힘을 쓰다</t>
+  </si>
+  <si>
+    <t>beside oneself</t>
+  </si>
+  <si>
+    <t>이성을 잃고, 어찌할 바를 모르고</t>
+  </si>
+  <si>
+    <t>bet one's bottom dollar</t>
+  </si>
+  <si>
+    <t>전 재산을 걸다, 확신하다</t>
+  </si>
+  <si>
+    <t>between jobs</t>
+  </si>
+  <si>
+    <t>실직 상태의</t>
+  </si>
+  <si>
+    <t>bite off more than one can chew</t>
+  </si>
+  <si>
+    <t>분에 넘치는 일을 하려고 하다, 너무 욕심을 부리다</t>
+  </si>
+  <si>
+    <t>bite one's lips</t>
+  </si>
+  <si>
+    <t>꾹 참다, 입술을 깨물다</t>
+  </si>
+  <si>
+    <t>bite one's nails</t>
+  </si>
+  <si>
+    <t>분개하다</t>
+  </si>
+  <si>
+    <t>bite the bullet</t>
+  </si>
+  <si>
+    <t>어떻게든 견뎌내다</t>
+  </si>
+  <si>
+    <t>bite the dust</t>
+  </si>
+  <si>
+    <t>죽다, 패배하다</t>
+  </si>
+  <si>
+    <t>bite the hand that feeds one</t>
+  </si>
+  <si>
+    <t>은혜를 원수로 갚다</t>
+  </si>
+  <si>
+    <t>black and blue</t>
+  </si>
+  <si>
+    <t>멍든</t>
+  </si>
+  <si>
+    <t>black out</t>
+  </si>
+  <si>
+    <t>(잠시) 의식을 잃다</t>
+  </si>
+  <si>
+    <t>black sheep</t>
+  </si>
+  <si>
+    <t>골칫거리, 애물단지</t>
+  </si>
+  <si>
+    <t>blow hot and cold</t>
+  </si>
+  <si>
+    <t>변덕을 부리다, 생각을 자주 바꾸다</t>
+  </si>
+  <si>
+    <t>blow it</t>
+  </si>
+  <si>
+    <t>실수하다, 기회를 날려버리다</t>
+  </si>
+  <si>
+    <t>blow one's cool</t>
+  </si>
+  <si>
+    <t>냉정을 잃다, 흥분하다</t>
+  </si>
+  <si>
+    <t>blow one's own trumpet[horn]</t>
+  </si>
+  <si>
+    <t>허풍을 떨다, 자화자찬하다</t>
+  </si>
+  <si>
+    <t>blow one's top</t>
+  </si>
+  <si>
+    <t>격분하다</t>
+  </si>
+  <si>
+    <t>blue in the face</t>
+  </si>
+  <si>
+    <t>격분하여 새파래진, 지쳐서 창백한</t>
+  </si>
+  <si>
+    <t>blow up</t>
+  </si>
+  <si>
+    <t>~을 폭파하다, 화내다(자동사)</t>
+  </si>
+  <si>
+    <t>blow[lose] one's cool</t>
+  </si>
+  <si>
+    <t>이성을 잃다, 흥분하다</t>
+  </si>
+  <si>
+    <t>blue blood</t>
+  </si>
+  <si>
+    <t>명문, 귀족 가문</t>
+  </si>
+  <si>
+    <t>boil down to</t>
+  </si>
+  <si>
+    <t>~로 요약되다, 결국 ~이다, ~이 핵심이다</t>
+  </si>
+  <si>
+    <t>born and bred</t>
+  </si>
+  <si>
+    <t>토박이, 진짜배기</t>
+  </si>
+  <si>
+    <t>born in the purple</t>
+  </si>
+  <si>
+    <t>고귀한 태생이다</t>
+  </si>
+  <si>
+    <t>born out-of-wedlock(=born out of wedlock)</t>
+  </si>
+  <si>
+    <t>사생아의</t>
+  </si>
+  <si>
+    <t>born with a silver spoon in one's mouth</t>
+  </si>
+  <si>
+    <t>부잣집에서 태어난</t>
+  </si>
+  <si>
+    <t>boss a person around</t>
+  </si>
+  <si>
+    <t>남을 좌지우지하다, 남에게 명령하다</t>
+  </si>
+  <si>
+    <t>bottom out</t>
+  </si>
+  <si>
+    <t>(시세가) 바닥을 치다, (시세가) 바닥을 치고 다시 상승세를 타다</t>
+  </si>
+  <si>
+    <t>bread and butter</t>
+  </si>
+  <si>
+    <t>버터를 바른 빵, 중요한</t>
+  </si>
+  <si>
+    <t>break a habit</t>
+  </si>
+  <si>
+    <t>버릇을 고치다</t>
+  </si>
+  <si>
+    <t>break a leg</t>
+  </si>
+  <si>
+    <t>행운을 빌다, 건승을 바라다</t>
+  </si>
+  <si>
+    <t>Be my guest</t>
+  </si>
+  <si>
+    <t>편할 대로 하세요, 제가 살게요</t>
+  </si>
+  <si>
+    <t>break down</t>
+  </si>
+  <si>
+    <t>고장다나(자동사), ~을 분류하다</t>
+  </si>
+  <si>
+    <t>break even</t>
+  </si>
+  <si>
+    <t>본전치기를 하다 [이익도 손해도 안 보다]</t>
+  </si>
+  <si>
+    <t>break ground</t>
+  </si>
+  <si>
+    <t>공사를 시작하다, 착공하다</t>
+  </si>
+  <si>
+    <t>break in (enter bt force)</t>
+  </si>
+  <si>
+    <t>침입하다</t>
+  </si>
+  <si>
+    <t>break loose (=break away)</t>
+  </si>
+  <si>
+    <t>자유의 몸이 되다, 도망치다</t>
+  </si>
+  <si>
+    <t>break something off</t>
+  </si>
+  <si>
+    <t>~을 분리시키다, ~을 중단하다</t>
+  </si>
+  <si>
+    <t>break out (=occur suddenly)</t>
+  </si>
+  <si>
+    <t>갑자기 발생하다</t>
+  </si>
+  <si>
+    <t>break the back of</t>
+  </si>
+  <si>
+    <t>고비를 넘다</t>
+  </si>
+  <si>
+    <t>break the news</t>
+  </si>
+  <si>
+    <t>소식을 전하다</t>
+  </si>
+  <si>
+    <t>break the ice</t>
+  </si>
+  <si>
+    <t>어색한 분위기를 깨다</t>
+  </si>
+  <si>
+    <t>break up with</t>
+  </si>
+  <si>
+    <t>~와 결별하다</t>
+  </si>
+  <si>
+    <t>break up</t>
+  </si>
+  <si>
+    <t>부서지다, 끝이 나다</t>
+  </si>
+  <si>
+    <t>break through</t>
+  </si>
+  <si>
+    <t>~을 돌파하다, 나타나다(자동사)</t>
+  </si>
+  <si>
+    <t>intimidating</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>on occasion</t>
+    <t>frightening</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>때때로</t>
+    <t>겁을 주는, 겁나는, 위협적인</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>부사</t>
+    <t>terrifying</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Day18</t>
+    <t>threatening</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>pleasant</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>merry</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>joyful</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>enjoyable</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>delightful</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>blithe</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>festive</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>elated</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>jubilant</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>즐거운</t>
+    <t>menacing</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4636,83 +5095,111 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>paramount</t>
+    <t>Day19</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>cheief</t>
+    <t>humorous</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>capital</t>
+    <t>funny</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>foremost</t>
+    <t>amusing</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>cardinal</t>
+    <t>entertaining</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>stellar</t>
+    <t>interesting</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>principal</t>
+    <t>intriguing</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>prime</t>
+    <t>facetious</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>supreme</t>
+    <t>재미있는</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>superlative</t>
+    <t>friendly</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>top-notch</t>
+    <t>kind</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>superb</t>
+    <t>tender</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>premier</t>
+    <t>affectionate</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>optimal</t>
+    <t>genial</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 가장 중요한 / 최고의</t>
+    <t>친절한, 다정한</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>swear</t>
+    <t>convenient</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>vow</t>
+    <t>handy</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>pledge</t>
+    <t>advantageous</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>take an oath</t>
+    <t>expedient</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>맹세하다 / 선서하다</t>
+    <t>편리한</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get rid of</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>remove</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>strip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eliminate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>subduct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cleanse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제거하다</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4720,23 +5207,195 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>successful</t>
+    <t>let go of</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>prosperous</t>
+    <t>release</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>triumphant</t>
+    <t>slip</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>getting ahead</t>
+    <t>놓아주다</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>성공한</t>
+    <t>make do with</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>make ~ do</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>make shift with</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>extemporize</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>임시 변통하다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>break up with</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>part from</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>split up</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>separate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>renounce</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤어지다, 관계를 끊다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>muzzle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>suppress</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repress</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>coerce</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stifle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>억압하다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>express</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>represent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>indicate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>articulate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>manifest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>표현하다, 나타내다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assert</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>claim</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>insist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>plead</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>profess</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>protest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>persist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주장하다, 단언하다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spread</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>diffuse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pervade</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>radiate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>disperse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>퍼지다, 확산되다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pompous</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>presumptuous</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrogant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>haughty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>supercilious</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거만한, 건방진</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4744,47 +5403,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>mysterious</t>
+    <t>casual</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>enigmatic</t>
+    <t>accidental</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>occult</t>
+    <t>incidental</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>inscrutable</t>
+    <t>inadvertent</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>arcane</t>
+    <t>fortuitous</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>incomprehensible</t>
+    <t>haphazard</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>unfathomable</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>impenetrable</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>inexplicable</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>unaccountable</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>불가사의한 / 이해하기 힘든</t>
+    <t>우연한</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4792,103 +5435,67 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>get cold feet</t>
+    <t>formal</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>afraid</t>
+    <t>official</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>terrified</t>
+    <t>perfunctory</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fearful</t>
+    <t>공식적인, 형식적인</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>frightened</t>
+    <t>genuine</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>겁이 나다 / 겁내는 / 겁이 난</t>
+    <t>truthful</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ambitious</t>
+    <t>sincere</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>anxious</t>
+    <t>cordial</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>longing</t>
+    <t>authentic</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>keen</t>
+    <t>진실한, 진심의, 진짜의</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>avid</t>
+    <t>call it a day</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>열망하는</t>
+    <t>finish</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>exhausted</t>
+    <t>complete</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>tired</t>
+    <t>conclude</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>weary</t>
+    <t>terminate</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fatigued</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>drained</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>지친</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sadden</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>grieve</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>depress</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>oppress</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>슬프게 하다 / 우울하게 하다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bell the cat</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고양이 목에 방울을 달다, 위험한 일을 떠맡다</t>
+    <t>끝내다</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4896,371 +5503,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>bend over backwards</t>
+    <t>initiate</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>안간힘을 쓰다</t>
+    <t>cummence</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>beside oneself</t>
+    <t>undertake</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>이성을 잃고, 어찌할 바를 모르고</t>
+    <t>embark</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>bet one;s bottom dollar</t>
+    <t>launch</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>전 재산을 걸다, 확신하다</t>
+    <t>시작하다, 착수하다</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>between jobs</t>
+    <t>wait</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>실직 상태의</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bite off more than one can chew</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>분에 넘치는 일을 하려고 하다, 너무 욕심을 부리다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bite one's lips</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>꾹 참다, 입술을 깨물다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bite one's nails</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>분개하다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bite the bullet</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>어떻게든 견뎌내다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bite the dust</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>죽다, 패배하다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bite the hand that feeds one</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>black and blue</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>멍든</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>black out</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(잠시) 의식을 잃다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>black sheep</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>골칫거리, 애물단지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>blow hot and cold</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>변덕을 부리다, 생각을 자주 바꾸다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>blow it</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>실수하다, 기회를 날려버리다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>blow one's cool</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>냉정을 잃다, 흥분하다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>blow one's own trumpet[horn]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>허풍을 떨다, 자화자찬하다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>blow one's top</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>격분하다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>blue in the face</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>격분하여 새파래진, 지쳐서 창백한</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>blow up</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>~을 폭파하다, 화내다(자동사)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>blow[lose] one's cool</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이성을 잃다, 흥분하다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>blue blood</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>명문, 귀족 가문</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>boil down to</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>~로 요약되다, 결국 ~이다, ~이 핵심이다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>born and bred</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>토박이, 진짜배기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고귀한 태생이다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>born in the purple</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>born out-of-wedlock(=born out of wedlock)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사생아의</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>born with a silver spoon in one's mouth</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>부잣집에서 태어난</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss a person around</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>남을 좌지우지하다, 남에게 명령하다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bottom out</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(시세가) 바닥을 치다, (시세가) 바닥을 치고 다시 상승세를 타다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bread and butter</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>버터를 바른 빵, 중요한</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>break a habit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>버릇을 고치다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>break a leg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>행운을 빌다, 건승을 바라다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Be my guest</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>편할 대로 하세요, 제가 살게요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>break down</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고장다나(자동사), ~을 분류하다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>break even</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>본전치기를 하다 [이익도 손해도 안 보다]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>break ground</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공사를 시작하다, 착공하다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>break in (enter bt force)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>침입하다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>break loose (=break away)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자유의 몸이 되다, 도망치다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>break something off</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>~을 분리시키다, ~을 중단하다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>break out (=occur suddenly)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>갑자기 발생하다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>break the back of</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고비를 넘다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>break the news</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>소식을 전하다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>break the ice</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>어색한 분위기를 깨다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>break up with</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>~와 결별하다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>break up</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>부서지다, 끝이 나다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>break through</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>~을 돌파하다, 나타나다(자동사)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>부사</t>
+    <t>기다리다</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -5268,51 +5539,47 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>동사</t>
+    <t>await</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>동사</t>
+    <t>hang on</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>은혜를 원수로 갚다</t>
+    <t>hold on</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>동사</t>
+    <t>cancel</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>명사</t>
+    <t>annul</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>동사</t>
+    <t>retract</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>동사</t>
+    <t>scrub</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>명사</t>
+    <t>call off</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>동사</t>
+    <t>negate</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>명사</t>
+    <t>defeat</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>동사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>동사</t>
+    <t>취소하다, 무효화하다</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5685,16 +5952,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1209"/>
+  <dimension ref="A1:E1310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1119" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D1129" sqref="D1129:D1209"/>
+    <sheetView tabSelected="1" topLeftCell="A1291" workbookViewId="0">
+      <selection activeCell="D1310" sqref="D1259:D1310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="27.125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -7784,7 +8048,7 @@
         <v>138</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
@@ -10011,7 +10275,7 @@
         <v>282</v>
       </c>
       <c r="E254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
@@ -10181,7 +10445,7 @@
         <v>282</v>
       </c>
       <c r="E264">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
@@ -12153,7 +12417,7 @@
         <v>407</v>
       </c>
       <c r="E380">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.3">
@@ -12867,7 +13131,7 @@
         <v>473</v>
       </c>
       <c r="E422">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.3">
@@ -13003,7 +13267,7 @@
         <v>473</v>
       </c>
       <c r="E430">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.3">
@@ -14431,7 +14695,7 @@
         <v>590</v>
       </c>
       <c r="E514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.3">
@@ -16216,7 +16480,7 @@
         <v>738</v>
       </c>
       <c r="E619">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.3">
@@ -20313,7 +20577,7 @@
         <v>1122</v>
       </c>
       <c r="E860">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="861" spans="1:5" x14ac:dyDescent="0.3">
@@ -20857,7 +21121,7 @@
         <v>1122</v>
       </c>
       <c r="E892">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893" spans="1:5" x14ac:dyDescent="0.3">
@@ -21707,7 +21971,7 @@
         <v>1217</v>
       </c>
       <c r="E942">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="943" spans="1:5" x14ac:dyDescent="0.3">
@@ -22863,7 +23127,7 @@
         <v>1359</v>
       </c>
       <c r="E1010">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1011" spans="1:5" x14ac:dyDescent="0.3">
@@ -23118,7 +23382,7 @@
         <v>1359</v>
       </c>
       <c r="E1025">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1026" spans="1:5" x14ac:dyDescent="0.3">
@@ -23237,7 +23501,7 @@
         <v>1359</v>
       </c>
       <c r="E1032">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1033" spans="1:5" x14ac:dyDescent="0.3">
@@ -23424,7 +23688,7 @@
         <v>1359</v>
       </c>
       <c r="E1043">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1044" spans="1:5" x14ac:dyDescent="0.3">
@@ -23696,7 +23960,7 @@
         <v>1359</v>
       </c>
       <c r="E1059">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1060" spans="1:5" x14ac:dyDescent="0.3">
@@ -23832,7 +24096,7 @@
         <v>1359</v>
       </c>
       <c r="E1067">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1068" spans="1:5" x14ac:dyDescent="0.3">
@@ -24002,7 +24266,7 @@
         <v>1359</v>
       </c>
       <c r="E1077">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1078" spans="1:5" x14ac:dyDescent="0.3">
@@ -24121,7 +24385,7 @@
         <v>1359</v>
       </c>
       <c r="E1084">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1085" spans="1:5" x14ac:dyDescent="0.3">
@@ -24291,7 +24555,7 @@
         <v>1359</v>
       </c>
       <c r="E1094">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1095" spans="1:5" x14ac:dyDescent="0.3">
@@ -24376,7 +24640,7 @@
         <v>1359</v>
       </c>
       <c r="E1099">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1100" spans="1:5" x14ac:dyDescent="0.3">
@@ -24401,1525 +24665,3266 @@
         <v>1517</v>
       </c>
       <c r="B1101" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C1101" t="s">
+        <v>289</v>
+      </c>
+      <c r="D1101" t="s">
         <v>1519</v>
       </c>
-      <c r="C1101" t="s">
-        <v>1520</v>
-      </c>
-      <c r="D1101" t="s">
-        <v>1521</v>
+      <c r="E1101">
+        <v>3</v>
       </c>
     </row>
     <row r="1102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1102" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B1102" t="s">
         <v>1518</v>
       </c>
-      <c r="B1102" t="s">
+      <c r="C1102" t="s">
+        <v>289</v>
+      </c>
+      <c r="D1102" t="s">
         <v>1519</v>
       </c>
-      <c r="C1102" t="s">
-        <v>1520</v>
-      </c>
-      <c r="D1102" t="s">
-        <v>1521</v>
+      <c r="E1102">
+        <v>0</v>
       </c>
     </row>
     <row r="1103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1103" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B1103" t="s">
         <v>1522</v>
       </c>
-      <c r="B1103" t="s">
-        <v>1531</v>
-      </c>
       <c r="C1103" t="s">
-        <v>1532</v>
+        <v>7</v>
       </c>
       <c r="D1103" t="s">
-        <v>1521</v>
+        <v>1519</v>
+      </c>
+      <c r="E1103">
+        <v>0</v>
       </c>
     </row>
     <row r="1104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1104" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1104" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1105" t="s">
         <v>1523</v>
       </c>
-      <c r="B1104" t="s">
+      <c r="B1105" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C1105" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1105" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1106" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1106" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1107" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1107" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1108" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1108" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1109" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1109" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1110" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1110" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1111" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1111" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1112" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B1112" t="s">
         <v>1531</v>
       </c>
-      <c r="C1104" t="s">
+      <c r="C1112" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1112" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1113" t="s">
         <v>1532</v>
       </c>
-      <c r="D1104" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1105" t="s">
-        <v>1524</v>
-      </c>
-      <c r="B1105" t="s">
+      <c r="B1113" t="s">
         <v>1531</v>
       </c>
-      <c r="C1105" t="s">
-        <v>1532</v>
-      </c>
-      <c r="D1105" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1106" t="s">
-        <v>1525</v>
-      </c>
-      <c r="B1106" t="s">
+      <c r="C1113" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1113" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1114" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B1114" t="s">
         <v>1531</v>
       </c>
-      <c r="C1106" t="s">
-        <v>1532</v>
-      </c>
-      <c r="D1106" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1107" t="s">
-        <v>1526</v>
-      </c>
-      <c r="B1107" t="s">
+      <c r="C1114" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1114" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1115" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B1115" t="s">
         <v>1531</v>
       </c>
-      <c r="C1107" t="s">
-        <v>1532</v>
-      </c>
-      <c r="D1107" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1108" t="s">
-        <v>1527</v>
-      </c>
-      <c r="B1108" t="s">
+      <c r="C1115" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1115" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1116" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B1116" t="s">
         <v>1531</v>
       </c>
-      <c r="C1108" t="s">
-        <v>1532</v>
-      </c>
-      <c r="D1108" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1109" t="s">
-        <v>1528</v>
-      </c>
-      <c r="B1109" t="s">
+      <c r="C1116" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1116" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1117" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B1117" t="s">
         <v>1531</v>
       </c>
-      <c r="C1109" t="s">
-        <v>1532</v>
-      </c>
-      <c r="D1109" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1110" t="s">
-        <v>1529</v>
-      </c>
-      <c r="B1110" t="s">
+      <c r="C1117" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1117" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1118" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B1118" t="s">
         <v>1531</v>
       </c>
-      <c r="C1110" t="s">
-        <v>1532</v>
-      </c>
-      <c r="D1110" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1111" t="s">
-        <v>1530</v>
-      </c>
-      <c r="B1111" t="s">
+      <c r="C1118" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1118" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1119" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B1119" t="s">
         <v>1531</v>
       </c>
-      <c r="C1111" t="s">
-        <v>1532</v>
-      </c>
-      <c r="D1111" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1112" t="s">
-        <v>1533</v>
-      </c>
-      <c r="B1112" t="s">
+      <c r="C1119" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1119" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1120" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C1120" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1120" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1121" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C1121" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1121" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1122" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C1122" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1122" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1123" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C1123" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1123" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1124" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C1124" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1124" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1125" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C1125" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1125" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1126" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C1126" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1126" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1127" t="s">
         <v>1547</v>
       </c>
-      <c r="C1112" t="s">
-        <v>1532</v>
-      </c>
-      <c r="D1112" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1113" t="s">
-        <v>1534</v>
-      </c>
-      <c r="B1113" t="s">
-        <v>1547</v>
-      </c>
-      <c r="C1113" t="s">
-        <v>1532</v>
-      </c>
-      <c r="D1113" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1114" t="s">
-        <v>1535</v>
-      </c>
-      <c r="B1114" t="s">
-        <v>1547</v>
-      </c>
-      <c r="C1114" t="s">
-        <v>1532</v>
-      </c>
-      <c r="D1114" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1115" t="s">
-        <v>1536</v>
-      </c>
-      <c r="B1115" t="s">
-        <v>1547</v>
-      </c>
-      <c r="C1115" t="s">
-        <v>1532</v>
-      </c>
-      <c r="D1115" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1116" t="s">
-        <v>1537</v>
-      </c>
-      <c r="B1116" t="s">
-        <v>1547</v>
-      </c>
-      <c r="C1116" t="s">
-        <v>1532</v>
-      </c>
-      <c r="D1116" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1117" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B1117" t="s">
-        <v>1547</v>
-      </c>
-      <c r="C1117" t="s">
-        <v>1532</v>
-      </c>
-      <c r="D1117" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1118" t="s">
-        <v>1539</v>
-      </c>
-      <c r="B1118" t="s">
-        <v>1547</v>
-      </c>
-      <c r="C1118" t="s">
-        <v>1532</v>
-      </c>
-      <c r="D1118" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1119" t="s">
-        <v>1540</v>
-      </c>
-      <c r="B1119" t="s">
-        <v>1547</v>
-      </c>
-      <c r="C1119" t="s">
-        <v>1532</v>
-      </c>
-      <c r="D1119" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1120" t="s">
-        <v>1541</v>
-      </c>
-      <c r="B1120" t="s">
-        <v>1547</v>
-      </c>
-      <c r="C1120" t="s">
-        <v>1532</v>
-      </c>
-      <c r="D1120" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1121" t="s">
-        <v>1542</v>
-      </c>
-      <c r="B1121" t="s">
-        <v>1547</v>
-      </c>
-      <c r="C1121" t="s">
-        <v>1532</v>
-      </c>
-      <c r="D1121" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1122" t="s">
-        <v>1543</v>
-      </c>
-      <c r="B1122" t="s">
-        <v>1547</v>
-      </c>
-      <c r="C1122" t="s">
-        <v>1532</v>
-      </c>
-      <c r="D1122" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1123" t="s">
-        <v>1544</v>
-      </c>
-      <c r="B1123" t="s">
-        <v>1547</v>
-      </c>
-      <c r="C1123" t="s">
-        <v>1532</v>
-      </c>
-      <c r="D1123" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1124" t="s">
-        <v>1545</v>
-      </c>
-      <c r="B1124" t="s">
-        <v>1547</v>
-      </c>
-      <c r="C1124" t="s">
-        <v>1532</v>
-      </c>
-      <c r="D1124" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1125" t="s">
+      <c r="B1127" t="s">
         <v>1546</v>
       </c>
-      <c r="B1125" t="s">
-        <v>1547</v>
-      </c>
-      <c r="C1125" t="s">
-        <v>1532</v>
-      </c>
-      <c r="D1125" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1126" t="s">
+      <c r="C1127" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1127" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1128" t="s">
         <v>1548</v>
       </c>
-      <c r="B1126" t="s">
+      <c r="B1128" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C1128" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1128" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1129" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B1129" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C1129" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1129" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1130" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C1130" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1130" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1131" t="s">
         <v>1552</v>
       </c>
-      <c r="C1126" t="s">
+      <c r="B1131" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C1131" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1131" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1132" t="s">
         <v>1553</v>
       </c>
-      <c r="D1126" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1127" t="s">
-        <v>1549</v>
-      </c>
-      <c r="B1127" t="s">
-        <v>1552</v>
-      </c>
-      <c r="C1127" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D1127" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1128" t="s">
-        <v>1550</v>
-      </c>
-      <c r="B1128" t="s">
-        <v>1552</v>
-      </c>
-      <c r="C1128" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D1128" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1129" t="s">
+      <c r="B1132" t="s">
         <v>1551</v>
       </c>
-      <c r="B1129" t="s">
-        <v>1552</v>
-      </c>
-      <c r="C1129" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D1129" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1130" t="s">
+      <c r="C1132" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1132" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1133" t="s">
         <v>1554</v>
       </c>
-      <c r="B1130" t="s">
+      <c r="B1133" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C1133" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1133" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1134" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C1134" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1134" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1135" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C1135" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1135" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1136" t="s">
         <v>1558</v>
       </c>
-      <c r="C1130" t="s">
+      <c r="B1136" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C1136" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1136" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1137" t="s">
         <v>1559</v>
       </c>
-      <c r="D1130" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1131" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1131" t="s">
-        <v>1555</v>
-      </c>
-      <c r="B1131" t="s">
-        <v>1558</v>
-      </c>
-      <c r="C1131" t="s">
-        <v>1559</v>
-      </c>
-      <c r="D1131" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1132" t="s">
+      <c r="B1137" t="s">
         <v>1556</v>
       </c>
-      <c r="B1132" t="s">
-        <v>1558</v>
-      </c>
-      <c r="C1132" t="s">
-        <v>1559</v>
-      </c>
-      <c r="D1132" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1133" t="s">
-        <v>1557</v>
-      </c>
-      <c r="B1133" t="s">
-        <v>1558</v>
-      </c>
-      <c r="C1133" t="s">
-        <v>1559</v>
-      </c>
-      <c r="D1133" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1134" t="s">
+      <c r="C1137" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1137" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1138" t="s">
         <v>1560</v>
       </c>
-      <c r="B1134" t="s">
+      <c r="B1138" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C1138" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1138" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1139" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B1139" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C1139" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1139" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1140" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B1140" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C1140" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1140" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1141" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B1141" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C1141" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1141" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1142" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B1142" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C1142" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1142" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1143" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C1143" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1143" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1144" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B1144" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C1144" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1144" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1145" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C1145" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1145" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1146" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B1146" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C1146" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1146" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1147" t="s">
         <v>1570</v>
       </c>
-      <c r="C1134" t="s">
+      <c r="B1147" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C1147" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1147" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1148" t="s">
         <v>1571</v>
       </c>
-      <c r="D1134" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1135" t="s">
-        <v>1561</v>
-      </c>
-      <c r="B1135" t="s">
-        <v>1570</v>
-      </c>
-      <c r="C1135" t="s">
-        <v>1571</v>
-      </c>
-      <c r="D1135" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1136" t="s">
-        <v>1562</v>
-      </c>
-      <c r="B1136" t="s">
-        <v>1570</v>
-      </c>
-      <c r="C1136" t="s">
-        <v>1571</v>
-      </c>
-      <c r="D1136" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1137" t="s">
-        <v>1563</v>
-      </c>
-      <c r="B1137" t="s">
-        <v>1570</v>
-      </c>
-      <c r="C1137" t="s">
-        <v>1571</v>
-      </c>
-      <c r="D1137" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1138" t="s">
-        <v>1564</v>
-      </c>
-      <c r="B1138" t="s">
-        <v>1570</v>
-      </c>
-      <c r="C1138" t="s">
-        <v>1571</v>
-      </c>
-      <c r="D1138" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1139" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1139" t="s">
-        <v>1565</v>
-      </c>
-      <c r="B1139" t="s">
-        <v>1570</v>
-      </c>
-      <c r="C1139" t="s">
-        <v>1571</v>
-      </c>
-      <c r="D1139" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1140" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1140" t="s">
-        <v>1566</v>
-      </c>
-      <c r="B1140" t="s">
-        <v>1570</v>
-      </c>
-      <c r="C1140" t="s">
-        <v>1571</v>
-      </c>
-      <c r="D1140" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1141" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1141" t="s">
+      <c r="B1148" t="s">
         <v>1567</v>
       </c>
-      <c r="B1141" t="s">
-        <v>1570</v>
-      </c>
-      <c r="C1141" t="s">
-        <v>1571</v>
-      </c>
-      <c r="D1141" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1142" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1142" t="s">
-        <v>1568</v>
-      </c>
-      <c r="B1142" t="s">
-        <v>1570</v>
-      </c>
-      <c r="C1142" t="s">
-        <v>1571</v>
-      </c>
-      <c r="D1142" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1143" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1143" t="s">
-        <v>1569</v>
-      </c>
-      <c r="B1143" t="s">
-        <v>1570</v>
-      </c>
-      <c r="C1143" t="s">
-        <v>1571</v>
-      </c>
-      <c r="D1143" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1144" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1144" t="s">
+      <c r="C1148" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1148" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1149" t="s">
         <v>1572</v>
       </c>
-      <c r="B1144" t="s">
+      <c r="B1149" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C1149" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1149" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1150" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B1150" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C1150" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1150" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1151" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B1151" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C1151" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1151" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1152" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B1152" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C1152" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1152" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1153" t="s">
         <v>1577</v>
       </c>
-      <c r="C1144" t="s">
-        <v>1559</v>
-      </c>
-      <c r="D1144" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1145" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1145" t="s">
+      <c r="B1153" t="s">
         <v>1573</v>
       </c>
-      <c r="B1145" t="s">
-        <v>1577</v>
-      </c>
-      <c r="C1145" t="s">
-        <v>1559</v>
-      </c>
-      <c r="D1145" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1146" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1146" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B1146" t="s">
-        <v>1577</v>
-      </c>
-      <c r="C1146" t="s">
-        <v>1559</v>
-      </c>
-      <c r="D1146" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1147" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1147" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B1147" t="s">
-        <v>1577</v>
-      </c>
-      <c r="C1147" t="s">
-        <v>1559</v>
-      </c>
-      <c r="D1147" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1148" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1148" t="s">
-        <v>1576</v>
-      </c>
-      <c r="B1148" t="s">
-        <v>1577</v>
-      </c>
-      <c r="C1148" t="s">
-        <v>1559</v>
-      </c>
-      <c r="D1148" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1149" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1149" t="s">
+      <c r="C1153" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1153" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1154" t="s">
         <v>1578</v>
       </c>
-      <c r="B1149" t="s">
+      <c r="B1154" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C1154" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1154" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1155" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C1155" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1155" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1156" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B1156" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C1156" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1156" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1157" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B1157" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C1157" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1157" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1158" t="s">
         <v>1583</v>
       </c>
-      <c r="C1149" t="s">
-        <v>1559</v>
-      </c>
-      <c r="D1149" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1150" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1150" t="s">
+      <c r="B1158" t="s">
         <v>1579</v>
       </c>
-      <c r="B1150" t="s">
-        <v>1583</v>
-      </c>
-      <c r="C1150" t="s">
-        <v>1559</v>
-      </c>
-      <c r="D1150" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1151" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1151" t="s">
-        <v>1580</v>
-      </c>
-      <c r="B1151" t="s">
-        <v>1583</v>
-      </c>
-      <c r="C1151" t="s">
-        <v>1559</v>
-      </c>
-      <c r="D1151" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1152" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1152" t="s">
-        <v>1581</v>
-      </c>
-      <c r="B1152" t="s">
-        <v>1583</v>
-      </c>
-      <c r="C1152" t="s">
-        <v>1559</v>
-      </c>
-      <c r="D1152" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1153" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1153" t="s">
-        <v>1582</v>
-      </c>
-      <c r="B1153" t="s">
-        <v>1583</v>
-      </c>
-      <c r="C1153" t="s">
-        <v>1559</v>
-      </c>
-      <c r="D1153" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1154" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1154" t="s">
+      <c r="C1158" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1158" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1159" t="s">
         <v>1584</v>
       </c>
-      <c r="B1154" t="s">
+      <c r="B1159" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C1159" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1159" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1160" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B1160" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C1160" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1160" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1161" t="s">
+        <v>569</v>
+      </c>
+      <c r="B1161" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C1161" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1161" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1162" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C1162" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1162" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1163" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B1163" t="s">
         <v>1589</v>
       </c>
-      <c r="C1154" t="s">
-        <v>1559</v>
-      </c>
-      <c r="D1154" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1155" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1155" t="s">
-        <v>1585</v>
-      </c>
-      <c r="B1155" t="s">
-        <v>1589</v>
-      </c>
-      <c r="C1155" t="s">
-        <v>1559</v>
-      </c>
-      <c r="D1155" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1156" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1156" t="s">
-        <v>1586</v>
-      </c>
-      <c r="B1156" t="s">
-        <v>1589</v>
-      </c>
-      <c r="C1156" t="s">
-        <v>1559</v>
-      </c>
-      <c r="D1156" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1157" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1157" t="s">
-        <v>1587</v>
-      </c>
-      <c r="B1157" t="s">
-        <v>1589</v>
-      </c>
-      <c r="C1157" t="s">
-        <v>1559</v>
-      </c>
-      <c r="D1157" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1158" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1158" t="s">
-        <v>1588</v>
-      </c>
-      <c r="B1158" t="s">
-        <v>1589</v>
-      </c>
-      <c r="C1158" t="s">
-        <v>1559</v>
-      </c>
-      <c r="D1158" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1159" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1159" t="s">
+      <c r="C1163" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1163" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1164" t="s">
         <v>1590</v>
       </c>
-      <c r="B1159" t="s">
+      <c r="B1164" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C1164" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1164" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1165" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C1165" t="s">
+        <v>289</v>
+      </c>
+      <c r="D1165" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1166" t="s">
         <v>1594</v>
       </c>
-      <c r="C1159" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D1159" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1160" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1160" t="s">
-        <v>1591</v>
-      </c>
-      <c r="B1160" t="s">
-        <v>1594</v>
-      </c>
-      <c r="C1160" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D1160" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1161" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1161" t="s">
-        <v>1592</v>
-      </c>
-      <c r="B1161" t="s">
-        <v>1594</v>
-      </c>
-      <c r="C1161" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D1161" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1162" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1162" t="s">
-        <v>1593</v>
-      </c>
-      <c r="B1162" t="s">
-        <v>1594</v>
-      </c>
-      <c r="C1162" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D1162" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1163" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1163" t="s">
+      <c r="B1166" t="s">
         <v>1595</v>
       </c>
-      <c r="B1163" t="s">
+      <c r="C1166" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1166" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1167" t="s">
         <v>1596</v>
       </c>
-      <c r="C1163" t="s">
+      <c r="B1167" t="s">
         <v>1597</v>
       </c>
-      <c r="D1163" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1164" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1164" t="s">
+      <c r="C1167" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1167" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1168" t="s">
         <v>1598</v>
       </c>
-      <c r="B1164" t="s">
+      <c r="B1168" t="s">
         <v>1599</v>
       </c>
-      <c r="C1164" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D1164" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1165" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1165" t="s">
+      <c r="C1168" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1168" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1169" t="s">
         <v>1600</v>
       </c>
-      <c r="B1165" t="s">
+      <c r="B1169" t="s">
         <v>1601</v>
       </c>
-      <c r="C1165" t="s">
+      <c r="C1169" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1169" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1170" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1170" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1171" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C1171" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1171" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1172" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1172" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1173" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C1173" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1173" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1174" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C1174" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1174" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1175" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C1175" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1175" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1176" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C1176" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1176" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1177" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C1177" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1177" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1178" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C1178" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1178" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1179" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C1179" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1179" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1180" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C1180" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1180" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1181" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C1181" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1181" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1182" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C1182" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1182" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1183" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C1183" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1183" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1184" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C1184" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1184" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1185" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C1185" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1185" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1186" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C1186" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1186" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1187" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C1187" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1187" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1188" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1188" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1189" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C1189" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1189" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1190" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C1190" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1190" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1191" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C1191" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1191" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1192" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C1192" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1192" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1193" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C1193" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1193" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1194" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1194" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1194" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1195" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C1195" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1195" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1196" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C1196" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1196" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1197" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C1197" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1197" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1198" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C1198" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1198" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1199" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B1199" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C1199" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1199" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1200" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C1200" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1200" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1201" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B1201" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C1201" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1201" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1202" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B1202" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C1202" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1202" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1203" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B1203" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C1203" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1203" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1204" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B1204" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C1204" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1204" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1205" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B1205" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C1205" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1205" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1206" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B1206" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C1206" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1206" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1207" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B1207" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1207" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1207" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1208" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B1208" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C1208" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1208" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1209" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B1209" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C1209" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1209" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1210" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B1210" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C1210" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D1210" t="s">
         <v>1689</v>
       </c>
-      <c r="D1165" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1166" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1166" t="s">
-        <v>1602</v>
-      </c>
-      <c r="B1166" t="s">
-        <v>1603</v>
-      </c>
-      <c r="C1166" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D1166" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1167" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1167" t="s">
-        <v>1604</v>
-      </c>
-      <c r="B1167" t="s">
-        <v>1605</v>
-      </c>
-      <c r="C1167" t="s">
-        <v>1559</v>
-      </c>
-      <c r="D1167" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1168" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1168" t="s">
-        <v>1606</v>
-      </c>
-      <c r="B1168" t="s">
-        <v>1607</v>
-      </c>
-      <c r="C1168" t="s">
+    </row>
+    <row r="1211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1211" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B1211" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C1211" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D1211" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1212" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B1212" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C1212" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D1212" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1213" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B1213" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C1213" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D1213" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1214" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B1214" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C1214" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D1214" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1215" t="s">
         <v>1690</v>
       </c>
-      <c r="D1168" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1169" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1169" t="s">
-        <v>1608</v>
-      </c>
-      <c r="B1169" t="s">
-        <v>1609</v>
-      </c>
-      <c r="C1169" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D1169" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1170" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1170" t="s">
-        <v>1610</v>
-      </c>
-      <c r="B1170" t="s">
-        <v>1611</v>
-      </c>
-      <c r="C1170" t="s">
+      <c r="B1215" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C1215" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D1215" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1216" t="s">
         <v>1691</v>
       </c>
-      <c r="D1170" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1171" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1171" t="s">
-        <v>1612</v>
-      </c>
-      <c r="B1171" t="s">
-        <v>1613</v>
-      </c>
-      <c r="C1171" t="s">
+      <c r="B1216" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C1216" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D1216" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1217" t="s">
         <v>1692</v>
       </c>
-      <c r="D1171" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1172" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1172" t="s">
-        <v>1614</v>
-      </c>
-      <c r="B1172" t="s">
-        <v>1615</v>
-      </c>
-      <c r="C1172" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D1172" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1173" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1173" t="s">
-        <v>1616</v>
-      </c>
-      <c r="B1173" t="s">
+      <c r="B1217" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C1217" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D1217" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1218" t="s">
         <v>1693</v>
       </c>
-      <c r="C1173" t="s">
-        <v>1692</v>
-      </c>
-      <c r="D1173" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1174" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1174" t="s">
-        <v>1617</v>
-      </c>
-      <c r="B1174" t="s">
-        <v>1618</v>
-      </c>
-      <c r="C1174" t="s">
-        <v>1571</v>
-      </c>
-      <c r="D1174" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1175" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1175" t="s">
-        <v>1619</v>
-      </c>
-      <c r="B1175" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C1175" t="s">
+      <c r="B1218" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C1218" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D1218" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1219" t="s">
         <v>1694</v>
       </c>
-      <c r="D1175" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1176" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1176" t="s">
-        <v>1621</v>
-      </c>
-      <c r="B1176" t="s">
-        <v>1622</v>
-      </c>
-      <c r="C1176" t="s">
+      <c r="B1219" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C1219" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D1219" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1220" t="s">
         <v>1695</v>
       </c>
-      <c r="D1176" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1177" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1177" t="s">
-        <v>1623</v>
-      </c>
-      <c r="B1177" t="s">
-        <v>1624</v>
-      </c>
-      <c r="C1177" t="s">
+      <c r="B1220" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C1220" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D1220" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1221" t="s">
         <v>1696</v>
       </c>
-      <c r="D1177" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1178" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1178" t="s">
-        <v>1625</v>
-      </c>
-      <c r="B1178" t="s">
-        <v>1626</v>
-      </c>
-      <c r="C1178" t="s">
-        <v>1696</v>
-      </c>
-      <c r="D1178" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1179" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1179" t="s">
-        <v>1627</v>
-      </c>
-      <c r="B1179" t="s">
-        <v>1628</v>
-      </c>
-      <c r="C1179" t="s">
-        <v>1696</v>
-      </c>
-      <c r="D1179" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1180" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1180" t="s">
-        <v>1629</v>
-      </c>
-      <c r="B1180" t="s">
-        <v>1630</v>
-      </c>
-      <c r="C1180" t="s">
-        <v>1692</v>
-      </c>
-      <c r="D1180" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1181" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1181" t="s">
-        <v>1631</v>
-      </c>
-      <c r="B1181" t="s">
-        <v>1632</v>
-      </c>
-      <c r="C1181" t="s">
-        <v>1692</v>
-      </c>
-      <c r="D1181" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1182" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1182" t="s">
-        <v>1633</v>
-      </c>
-      <c r="B1182" t="s">
-        <v>1634</v>
-      </c>
-      <c r="C1182" t="s">
-        <v>1571</v>
-      </c>
-      <c r="D1182" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1183" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1183" t="s">
-        <v>1635</v>
-      </c>
-      <c r="B1183" t="s">
-        <v>1636</v>
-      </c>
-      <c r="C1183" t="s">
+      <c r="B1221" t="s">
         <v>1697</v>
       </c>
-      <c r="D1183" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1184" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1184" t="s">
-        <v>1637</v>
-      </c>
-      <c r="B1184" t="s">
-        <v>1638</v>
-      </c>
-      <c r="C1184" t="s">
-        <v>1692</v>
-      </c>
-      <c r="D1184" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1185" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1185" t="s">
-        <v>1639</v>
-      </c>
-      <c r="B1185" t="s">
-        <v>1640</v>
-      </c>
-      <c r="C1185" t="s">
+      <c r="C1221" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D1221" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1222" t="s">
         <v>1698</v>
       </c>
-      <c r="D1185" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1186" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1186" t="s">
-        <v>1641</v>
-      </c>
-      <c r="B1186" t="s">
-        <v>1642</v>
-      </c>
-      <c r="C1186" t="s">
+      <c r="B1222" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C1222" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D1222" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1223" t="s">
         <v>1699</v>
       </c>
-      <c r="D1186" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1187" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1187" t="s">
-        <v>1643</v>
-      </c>
-      <c r="B1187" t="s">
-        <v>1644</v>
-      </c>
-      <c r="C1187" t="s">
+      <c r="B1223" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C1223" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D1223" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1224" t="s">
         <v>1700</v>
       </c>
-      <c r="D1187" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1188" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1188" t="s">
-        <v>1646</v>
-      </c>
-      <c r="B1188" t="s">
-        <v>1645</v>
-      </c>
-      <c r="C1188" t="s">
-        <v>1692</v>
-      </c>
-      <c r="D1188" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1189" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1189" t="s">
-        <v>1647</v>
-      </c>
-      <c r="B1189" t="s">
-        <v>1648</v>
-      </c>
-      <c r="C1189" t="s">
-        <v>1571</v>
-      </c>
-      <c r="D1189" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1190" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1190" t="s">
-        <v>1649</v>
-      </c>
-      <c r="B1190" t="s">
-        <v>1650</v>
-      </c>
-      <c r="C1190" t="s">
-        <v>1571</v>
-      </c>
-      <c r="D1190" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1191" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1191" t="s">
-        <v>1651</v>
-      </c>
-      <c r="B1191" t="s">
-        <v>1652</v>
-      </c>
-      <c r="C1191" t="s">
-        <v>1692</v>
-      </c>
-      <c r="D1191" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1192" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1192" t="s">
-        <v>1653</v>
-      </c>
-      <c r="B1192" t="s">
-        <v>1654</v>
-      </c>
-      <c r="C1192" t="s">
-        <v>1692</v>
-      </c>
-      <c r="D1192" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1193" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1193" t="s">
-        <v>1655</v>
-      </c>
-      <c r="B1193" t="s">
-        <v>1656</v>
-      </c>
-      <c r="C1193" t="s">
-        <v>1698</v>
-      </c>
-      <c r="D1193" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1194" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1194" t="s">
-        <v>1657</v>
-      </c>
-      <c r="B1194" t="s">
-        <v>1658</v>
-      </c>
-      <c r="C1194" t="s">
-        <v>1692</v>
-      </c>
-      <c r="D1194" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1195" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1195" t="s">
-        <v>1659</v>
-      </c>
-      <c r="B1195" t="s">
-        <v>1660</v>
-      </c>
-      <c r="C1195" t="s">
-        <v>1691</v>
-      </c>
-      <c r="D1195" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1196" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1196" t="s">
-        <v>1661</v>
-      </c>
-      <c r="B1196" t="s">
-        <v>1662</v>
-      </c>
-      <c r="C1196" t="s">
-        <v>1691</v>
-      </c>
-      <c r="D1196" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1197" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1197" t="s">
-        <v>1663</v>
-      </c>
-      <c r="B1197" t="s">
-        <v>1664</v>
-      </c>
-      <c r="C1197" t="s">
-        <v>1690</v>
-      </c>
-      <c r="D1197" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1198" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1198" t="s">
-        <v>1665</v>
-      </c>
-      <c r="B1198" t="s">
-        <v>1666</v>
-      </c>
-      <c r="C1198" t="s">
-        <v>1692</v>
-      </c>
-      <c r="D1198" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1199" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1199" t="s">
-        <v>1667</v>
-      </c>
-      <c r="B1199" t="s">
-        <v>1668</v>
-      </c>
-      <c r="C1199" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D1199" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1200" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1200" t="s">
-        <v>1669</v>
-      </c>
-      <c r="B1200" t="s">
-        <v>1670</v>
-      </c>
-      <c r="C1200" t="s">
-        <v>1692</v>
-      </c>
-      <c r="D1200" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1201" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1201" t="s">
-        <v>1671</v>
-      </c>
-      <c r="B1201" t="s">
-        <v>1672</v>
-      </c>
-      <c r="C1201" t="s">
-        <v>1692</v>
-      </c>
-      <c r="D1201" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1202" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1202" t="s">
-        <v>1673</v>
-      </c>
-      <c r="B1202" t="s">
-        <v>1674</v>
-      </c>
-      <c r="C1202" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D1202" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1203" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1203" t="s">
-        <v>1675</v>
-      </c>
-      <c r="B1203" t="s">
-        <v>1676</v>
-      </c>
-      <c r="C1203" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D1203" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1204" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1204" t="s">
-        <v>1677</v>
-      </c>
-      <c r="B1204" t="s">
-        <v>1678</v>
-      </c>
-      <c r="C1204" t="s">
+      <c r="B1224" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C1224" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D1224" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1225" t="s">
         <v>1701</v>
       </c>
-      <c r="D1204" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1205" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1205" t="s">
-        <v>1679</v>
-      </c>
-      <c r="B1205" t="s">
-        <v>1680</v>
-      </c>
-      <c r="C1205" t="s">
-        <v>1701</v>
-      </c>
-      <c r="D1205" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1206" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1206" t="s">
-        <v>1681</v>
-      </c>
-      <c r="B1206" t="s">
-        <v>1682</v>
-      </c>
-      <c r="C1206" t="s">
+      <c r="B1225" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C1225" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D1225" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1226" t="s">
         <v>1702</v>
       </c>
-      <c r="D1206" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1207" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1207" t="s">
-        <v>1683</v>
-      </c>
-      <c r="B1207" t="s">
-        <v>1684</v>
-      </c>
-      <c r="C1207" t="s">
-        <v>1692</v>
-      </c>
-      <c r="D1207" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1208" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1208" t="s">
-        <v>1685</v>
-      </c>
-      <c r="B1208" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C1208" t="s">
-        <v>1692</v>
-      </c>
-      <c r="D1208" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1209" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1209" t="s">
-        <v>1687</v>
-      </c>
-      <c r="B1209" t="s">
+      <c r="B1226" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C1226" t="s">
         <v>1688</v>
       </c>
-      <c r="C1209" t="s">
-        <v>1692</v>
-      </c>
-      <c r="D1209" t="s">
-        <v>1521</v>
+      <c r="D1226" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1227" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B1227" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C1227" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D1227" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1228" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B1228" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C1228" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D1228" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1229" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B1229" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C1229" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D1229" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1230" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C1230" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D1230" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1231" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B1231" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C1231" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D1231" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1232" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B1232" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C1232" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D1232" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1233" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B1233" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C1233" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D1233" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1234" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B1234" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C1234" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D1234" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1235" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B1235" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C1235" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D1235" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1236" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B1236" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C1236" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D1236" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1237" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B1237" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C1237" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D1237" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1238" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B1238" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C1238" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D1238" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1239" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B1239" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C1239" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D1239" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1240" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B1240" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C1240" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D1240" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1241" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B1241" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C1241" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D1241" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1242" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B1242" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C1242" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D1242" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1243" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B1243" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C1243" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D1243" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1244" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B1244" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C1244" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D1244" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1245" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B1245" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C1245" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D1245" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1246" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B1246" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C1246" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D1246" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1247" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B1247" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C1247" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D1247" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1248" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C1248" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D1248" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1249" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B1249" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C1249" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D1249" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1250" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B1250" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C1250" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D1250" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1251" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B1251" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C1251" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D1251" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1252" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B1252" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C1252" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D1252" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1253" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B1253" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C1253" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D1253" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1254" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1254" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C1254" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D1254" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1255" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B1255" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C1255" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D1255" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1256" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C1256" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D1256" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1257" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B1257" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C1257" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D1257" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1258" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C1258" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D1258" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1259" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B1259" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C1259" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D1259" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1260" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B1260" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C1260" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D1260" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1261" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C1261" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D1261" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1262" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C1262" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D1262" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1263" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B1263" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C1263" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D1263" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1264" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B1264" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C1264" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D1264" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1265" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C1265" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D1265" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1266" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C1266" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D1266" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1267" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C1267" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D1267" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1268" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B1268" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C1268" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D1268" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1269" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B1269" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C1269" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D1269" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1270" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B1270" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C1270" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D1270" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1271" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B1271" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C1271" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D1271" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1272" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B1272" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C1272" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D1272" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1273" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B1273" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C1273" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D1273" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1274" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C1274" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D1274" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1275" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C1275" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D1275" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1276" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C1276" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D1276" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1277" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C1277" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D1277" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1278" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C1278" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D1278" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1279" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C1279" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D1279" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1280" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C1280" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D1280" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1281" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B1281" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C1281" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D1281" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1282" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B1282" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C1282" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D1282" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1283" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B1283" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C1283" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D1283" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1284" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B1284" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C1284" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D1284" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1285" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1285" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C1285" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D1285" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1286" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B1286" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C1286" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D1286" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1287" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B1287" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C1287" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D1287" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1288" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B1288" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C1288" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D1288" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1289" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B1289" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C1289" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D1289" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1290" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B1290" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C1290" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D1290" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1291" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B1291" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C1291" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D1291" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1292" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B1292" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C1292" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D1292" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1293" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B1293" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C1293" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D1293" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1294" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B1294" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C1294" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D1294" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1295" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1295" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C1295" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D1295" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1296" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B1296" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C1296" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D1296" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1297" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B1297" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C1297" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D1297" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1298" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B1298" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C1298" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D1298" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1299" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B1299" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C1299" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D1299" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1300" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B1300" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C1300" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D1300" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1301" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1301" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C1301" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D1301" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1302" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B1302" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C1302" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D1302" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1303" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B1303" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C1303" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D1303" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1304" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B1304" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C1304" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D1304" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1305" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B1305" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C1305" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D1305" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1306" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B1306" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C1306" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D1306" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1307" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B1307" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C1307" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D1307" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1308" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B1308" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C1308" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D1308" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1309" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B1309" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C1309" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D1309" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1310" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B1310" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C1310" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D1310" t="s">
+        <v>1752</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/영어_단어.xlsx
+++ b/학습자료/단답형/영어_단어.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -6182,7 +6182,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="231">
@@ -6582,7 +6582,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="247">
@@ -7032,7 +7032,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
@@ -7107,7 +7107,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="268">
@@ -7457,7 +7457,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="282">
@@ -11082,7 +11082,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="427">
@@ -11682,7 +11682,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="451">
@@ -15907,7 +15907,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620">
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="640">
@@ -17282,7 +17282,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="675">
@@ -19257,7 +19257,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="754">
@@ -21932,7 +21932,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861">
@@ -25682,7 +25682,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1011">
@@ -26057,7 +26057,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1026">
@@ -26157,7 +26157,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1030">
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1040">
@@ -26907,7 +26907,7 @@
         </is>
       </c>
       <c r="E1059" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1060">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="E1061" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1062">
@@ -27357,7 +27357,7 @@
         </is>
       </c>
       <c r="E1077" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1078">
@@ -27382,7 +27382,7 @@
         </is>
       </c>
       <c r="E1078" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1079">
@@ -27532,7 +27532,7 @@
         </is>
       </c>
       <c r="E1084" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1085">
@@ -27707,7 +27707,7 @@
         </is>
       </c>
       <c r="E1091" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1092">
@@ -27732,7 +27732,7 @@
         </is>
       </c>
       <c r="E1092" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1093">
@@ -27957,7 +27957,7 @@
         </is>
       </c>
       <c r="E1101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1102">
@@ -28057,7 +28057,7 @@
         </is>
       </c>
       <c r="E1105" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1106">
@@ -28182,7 +28182,7 @@
         </is>
       </c>
       <c r="E1110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1111">
@@ -28207,7 +28207,7 @@
         </is>
       </c>
       <c r="E1111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1112">
@@ -28357,7 +28357,7 @@
         </is>
       </c>
       <c r="E1117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1118">
@@ -28757,7 +28757,7 @@
         </is>
       </c>
       <c r="E1133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1134">
@@ -28832,7 +28832,7 @@
         </is>
       </c>
       <c r="E1136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1137">
@@ -29032,7 +29032,7 @@
         </is>
       </c>
       <c r="E1144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1145">
@@ -29332,7 +29332,7 @@
         </is>
       </c>
       <c r="E1156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1157">
@@ -29482,7 +29482,7 @@
         </is>
       </c>
       <c r="E1162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1163">
@@ -29557,7 +29557,7 @@
         </is>
       </c>
       <c r="E1165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1166">
@@ -29682,7 +29682,7 @@
         </is>
       </c>
       <c r="E1170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1171">
@@ -29982,7 +29982,7 @@
         </is>
       </c>
       <c r="E1182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1183">
@@ -30082,7 +30082,7 @@
         </is>
       </c>
       <c r="E1186" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1187">
@@ -30207,7 +30207,7 @@
         </is>
       </c>
       <c r="E1191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1192">
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="E1197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1198">
@@ -30732,7 +30732,7 @@
         </is>
       </c>
       <c r="E1212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1213">
@@ -30757,7 +30757,7 @@
         </is>
       </c>
       <c r="E1213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1214">
@@ -30882,7 +30882,7 @@
         </is>
       </c>
       <c r="E1218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1219">
@@ -30907,7 +30907,7 @@
         </is>
       </c>
       <c r="E1219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1220">
@@ -30932,7 +30932,7 @@
         </is>
       </c>
       <c r="E1220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1221">
@@ -30957,7 +30957,7 @@
         </is>
       </c>
       <c r="E1221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1222">
@@ -30982,7 +30982,7 @@
         </is>
       </c>
       <c r="E1222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1223">
@@ -31007,7 +31007,7 @@
         </is>
       </c>
       <c r="E1223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1224">
@@ -31032,7 +31032,7 @@
         </is>
       </c>
       <c r="E1224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1225">
@@ -31057,7 +31057,7 @@
         </is>
       </c>
       <c r="E1225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1226">
@@ -31082,7 +31082,7 @@
         </is>
       </c>
       <c r="E1226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1227">
@@ -31132,7 +31132,7 @@
         </is>
       </c>
       <c r="E1228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1229">
@@ -31182,7 +31182,7 @@
         </is>
       </c>
       <c r="E1230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1231">
@@ -31232,7 +31232,7 @@
         </is>
       </c>
       <c r="E1232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1233">
@@ -31257,7 +31257,7 @@
         </is>
       </c>
       <c r="E1233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1234">
@@ -31332,7 +31332,7 @@
         </is>
       </c>
       <c r="E1236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1237">
@@ -31357,7 +31357,7 @@
         </is>
       </c>
       <c r="E1237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1238">
@@ -31382,7 +31382,7 @@
         </is>
       </c>
       <c r="E1238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1239">
@@ -31407,7 +31407,7 @@
         </is>
       </c>
       <c r="E1239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1240">
@@ -31432,7 +31432,7 @@
         </is>
       </c>
       <c r="E1240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1241">
@@ -31457,7 +31457,7 @@
         </is>
       </c>
       <c r="E1241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1242">
@@ -31482,7 +31482,7 @@
         </is>
       </c>
       <c r="E1242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1243">
@@ -31507,7 +31507,7 @@
         </is>
       </c>
       <c r="E1243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1244">
@@ -31557,7 +31557,7 @@
         </is>
       </c>
       <c r="E1245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1246">
@@ -31582,7 +31582,7 @@
         </is>
       </c>
       <c r="E1246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1247">
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="E1247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1248">
@@ -31632,7 +31632,7 @@
         </is>
       </c>
       <c r="E1248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1249">
@@ -31682,7 +31682,7 @@
         </is>
       </c>
       <c r="E1250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1251">
@@ -31757,7 +31757,7 @@
         </is>
       </c>
       <c r="E1253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1254">
@@ -31807,7 +31807,7 @@
         </is>
       </c>
       <c r="E1255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1256">
@@ -31832,7 +31832,7 @@
         </is>
       </c>
       <c r="E1256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1257">
@@ -31882,7 +31882,7 @@
         </is>
       </c>
       <c r="E1258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1259">
@@ -31932,7 +31932,7 @@
         </is>
       </c>
       <c r="E1260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1261">
@@ -31957,7 +31957,7 @@
         </is>
       </c>
       <c r="E1261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1262">
@@ -31982,7 +31982,7 @@
         </is>
       </c>
       <c r="E1262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1263">
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="E1263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1264">
@@ -32032,7 +32032,7 @@
         </is>
       </c>
       <c r="E1264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1265">
@@ -32057,7 +32057,7 @@
         </is>
       </c>
       <c r="E1265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1266">
@@ -32082,7 +32082,7 @@
         </is>
       </c>
       <c r="E1266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1267">
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="E1269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1270">
@@ -32232,7 +32232,7 @@
         </is>
       </c>
       <c r="E1272" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1273">
@@ -32282,7 +32282,7 @@
         </is>
       </c>
       <c r="E1274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1275">
@@ -32307,7 +32307,7 @@
         </is>
       </c>
       <c r="E1275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1276">
@@ -32332,7 +32332,7 @@
         </is>
       </c>
       <c r="E1276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1277">
@@ -32357,7 +32357,7 @@
         </is>
       </c>
       <c r="E1277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1278">
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="E1279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1280">
@@ -32432,7 +32432,7 @@
         </is>
       </c>
       <c r="E1280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1281">
@@ -32457,7 +32457,7 @@
         </is>
       </c>
       <c r="E1281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1282">
@@ -32507,7 +32507,7 @@
         </is>
       </c>
       <c r="E1283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1284">
@@ -32557,7 +32557,7 @@
         </is>
       </c>
       <c r="E1285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1286">
@@ -32607,7 +32607,7 @@
         </is>
       </c>
       <c r="E1287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1288">
@@ -32632,7 +32632,7 @@
         </is>
       </c>
       <c r="E1288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1289">
@@ -32682,7 +32682,7 @@
         </is>
       </c>
       <c r="E1290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1291">
@@ -32732,7 +32732,7 @@
         </is>
       </c>
       <c r="E1292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1293">
@@ -32832,7 +32832,7 @@
         </is>
       </c>
       <c r="E1296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1297">
@@ -32882,7 +32882,7 @@
         </is>
       </c>
       <c r="E1298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1299">
@@ -32907,7 +32907,7 @@
         </is>
       </c>
       <c r="E1299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1300">
@@ -32957,7 +32957,7 @@
         </is>
       </c>
       <c r="E1301" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1302">
@@ -33032,7 +33032,7 @@
         </is>
       </c>
       <c r="E1304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1305">
@@ -33057,7 +33057,7 @@
         </is>
       </c>
       <c r="E1305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1306">
@@ -33082,7 +33082,7 @@
         </is>
       </c>
       <c r="E1306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1307">
@@ -33107,7 +33107,7 @@
         </is>
       </c>
       <c r="E1307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1308">
@@ -33132,7 +33132,7 @@
         </is>
       </c>
       <c r="E1308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1309">
@@ -33157,7 +33157,7 @@
         </is>
       </c>
       <c r="E1309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1310">

--- a/학습자료/단답형/영어_단어.xlsx
+++ b/학습자료/단답형/영어_단어.xlsx
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -857,7 +857,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70">
@@ -2707,7 +2707,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2907,7 +2907,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100">
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147">
@@ -4732,7 +4732,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173">
@@ -4832,7 +4832,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177">
@@ -5507,7 +5507,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="204">
@@ -8057,7 +8057,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="306">
@@ -9582,7 +9582,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367">
@@ -10257,7 +10257,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="394">
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="416">
@@ -10982,7 +10982,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="423">
@@ -12257,7 +12257,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="474">
@@ -13807,7 +13807,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="536">
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550">
@@ -16782,7 +16782,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655">
@@ -18382,7 +18382,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="719">
@@ -18907,7 +18907,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="740">
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="832">
@@ -23732,7 +23732,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="933">
@@ -24757,7 +24757,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="974">
@@ -25857,7 +25857,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1018">
@@ -26082,7 +26082,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1027">
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1054">
@@ -27107,7 +27107,7 @@
         </is>
       </c>
       <c r="E1067" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1068">
@@ -28432,7 +28432,7 @@
         </is>
       </c>
       <c r="E1120" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1121">
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="E1151" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1152">
@@ -29232,7 +29232,7 @@
         </is>
       </c>
       <c r="E1152" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1153">
@@ -29482,7 +29482,7 @@
         </is>
       </c>
       <c r="E1162" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1163">
@@ -29632,7 +29632,7 @@
         </is>
       </c>
       <c r="E1168" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1169">
@@ -30107,7 +30107,7 @@
         </is>
       </c>
       <c r="E1187" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1188">
@@ -30432,7 +30432,7 @@
         </is>
       </c>
       <c r="E1200" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1201">
@@ -30757,7 +30757,7 @@
         </is>
       </c>
       <c r="E1213" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1214">
@@ -31182,7 +31182,7 @@
         </is>
       </c>
       <c r="E1230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1231">
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="E1263" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1264">
@@ -32207,7 +32207,7 @@
         </is>
       </c>
       <c r="E1271" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1272">
@@ -32232,7 +32232,7 @@
         </is>
       </c>
       <c r="E1272" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1273">
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="E1295" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1296">
@@ -32857,7 +32857,7 @@
         </is>
       </c>
       <c r="E1297" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1298">
@@ -33282,7 +33282,7 @@
         </is>
       </c>
       <c r="E1314" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1315">
@@ -33332,7 +33332,7 @@
         </is>
       </c>
       <c r="E1316" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1317">
@@ -33507,7 +33507,7 @@
         </is>
       </c>
       <c r="E1323" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1324">
@@ -33582,7 +33582,7 @@
         </is>
       </c>
       <c r="E1326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1327">
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="E1327" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1328">
@@ -33632,7 +33632,7 @@
         </is>
       </c>
       <c r="E1328" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1329">
@@ -33682,7 +33682,7 @@
         </is>
       </c>
       <c r="E1330" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1331">
@@ -33807,7 +33807,7 @@
         </is>
       </c>
       <c r="E1335" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1336">
@@ -33857,7 +33857,7 @@
         </is>
       </c>
       <c r="E1337" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1338">
@@ -33907,7 +33907,7 @@
         </is>
       </c>
       <c r="E1339" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1340">
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="E1341" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1342">
@@ -34182,7 +34182,7 @@
         </is>
       </c>
       <c r="E1350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1351">
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="E1359" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1360">
@@ -34557,7 +34557,7 @@
         </is>
       </c>
       <c r="E1365" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1366">
@@ -34657,7 +34657,7 @@
         </is>
       </c>
       <c r="E1369" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1370">
@@ -34682,7 +34682,7 @@
         </is>
       </c>
       <c r="E1370" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1371">
@@ -34732,7 +34732,7 @@
         </is>
       </c>
       <c r="E1372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1373">
@@ -34904,7 +34904,7 @@
       </c>
       <c r="D1380" t="inlineStr"/>
       <c r="E1380" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1381">
@@ -34967,7 +34967,7 @@
       </c>
       <c r="D1383" t="inlineStr"/>
       <c r="E1383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1384">
@@ -34988,7 +34988,7 @@
       </c>
       <c r="D1384" t="inlineStr"/>
       <c r="E1384" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1385">
@@ -35072,7 +35072,7 @@
       </c>
       <c r="D1388" t="inlineStr"/>
       <c r="E1388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1389">
@@ -35135,7 +35135,7 @@
       </c>
       <c r="D1391" t="inlineStr"/>
       <c r="E1391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1392">
@@ -35282,7 +35282,7 @@
       </c>
       <c r="D1398" t="inlineStr"/>
       <c r="E1398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1399">
@@ -35324,7 +35324,7 @@
       </c>
       <c r="D1400" t="inlineStr"/>
       <c r="E1400" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1401">
@@ -35450,7 +35450,7 @@
       </c>
       <c r="D1406" t="inlineStr"/>
       <c r="E1406" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1407">
@@ -35492,7 +35492,7 @@
       </c>
       <c r="D1408" t="inlineStr"/>
       <c r="E1408" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1409">
@@ -35555,7 +35555,7 @@
       </c>
       <c r="D1411" t="inlineStr"/>
       <c r="E1411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1412">
@@ -35765,7 +35765,7 @@
       </c>
       <c r="D1421" t="inlineStr"/>
       <c r="E1421" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1422">
@@ -35786,7 +35786,7 @@
       </c>
       <c r="D1422" t="inlineStr"/>
       <c r="E1422" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1423">
@@ -36164,7 +36164,7 @@
       </c>
       <c r="D1440" t="inlineStr"/>
       <c r="E1440" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1441">
@@ -36248,7 +36248,7 @@
       </c>
       <c r="D1444" t="inlineStr"/>
       <c r="E1444" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1445">
@@ -36269,7 +36269,7 @@
       </c>
       <c r="D1445" t="inlineStr"/>
       <c r="E1445" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1446">

--- a/학습자료/단답형/영어_단어.xlsx
+++ b/학습자료/단답형/영어_단어.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1262"/>
+  <dimension ref="A1:E1376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31763,6 +31763,2392 @@
       </c>
       <c r="E1262" t="inlineStr"/>
     </row>
+    <row r="1263">
+      <c r="A1263" t="inlineStr">
+        <is>
+          <t>harness</t>
+        </is>
+      </c>
+      <c r="B1263" t="inlineStr">
+        <is>
+          <t>이용하다</t>
+        </is>
+      </c>
+      <c r="C1263" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1263" t="inlineStr">
+        <is>
+          <t>Day25</t>
+        </is>
+      </c>
+      <c r="E1263" t="inlineStr"/>
+    </row>
+    <row r="1264">
+      <c r="A1264" t="inlineStr">
+        <is>
+          <t>utilize</t>
+        </is>
+      </c>
+      <c r="B1264" t="inlineStr">
+        <is>
+          <t>이용하다</t>
+        </is>
+      </c>
+      <c r="C1264" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1264" t="inlineStr">
+        <is>
+          <t>Day25</t>
+        </is>
+      </c>
+      <c r="E1264" t="inlineStr"/>
+    </row>
+    <row r="1265">
+      <c r="A1265" t="inlineStr">
+        <is>
+          <t>exploit</t>
+        </is>
+      </c>
+      <c r="B1265" t="inlineStr">
+        <is>
+          <t>이용하다</t>
+        </is>
+      </c>
+      <c r="C1265" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1265" t="inlineStr">
+        <is>
+          <t>Day25</t>
+        </is>
+      </c>
+      <c r="E1265" t="inlineStr"/>
+    </row>
+    <row r="1266">
+      <c r="A1266" t="inlineStr">
+        <is>
+          <t>take advantage of</t>
+        </is>
+      </c>
+      <c r="B1266" t="inlineStr">
+        <is>
+          <t>이용하다</t>
+        </is>
+      </c>
+      <c r="C1266" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1266" t="inlineStr">
+        <is>
+          <t>Day25</t>
+        </is>
+      </c>
+      <c r="E1266" t="inlineStr"/>
+    </row>
+    <row r="1267">
+      <c r="A1267" t="inlineStr">
+        <is>
+          <t>make use of</t>
+        </is>
+      </c>
+      <c r="B1267" t="inlineStr">
+        <is>
+          <t>이용하다</t>
+        </is>
+      </c>
+      <c r="C1267" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1267" t="inlineStr">
+        <is>
+          <t>Day25</t>
+        </is>
+      </c>
+      <c r="E1267" t="inlineStr"/>
+    </row>
+    <row r="1268">
+      <c r="A1268" t="inlineStr">
+        <is>
+          <t>avert</t>
+        </is>
+      </c>
+      <c r="B1268" t="inlineStr">
+        <is>
+          <t>피하다</t>
+        </is>
+      </c>
+      <c r="C1268" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1268" t="inlineStr">
+        <is>
+          <t>Day25</t>
+        </is>
+      </c>
+      <c r="E1268" t="inlineStr"/>
+    </row>
+    <row r="1269">
+      <c r="A1269" t="inlineStr">
+        <is>
+          <t>evade</t>
+        </is>
+      </c>
+      <c r="B1269" t="inlineStr">
+        <is>
+          <t>피하다</t>
+        </is>
+      </c>
+      <c r="C1269" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1269" t="inlineStr">
+        <is>
+          <t>Day25</t>
+        </is>
+      </c>
+      <c r="E1269" t="inlineStr"/>
+    </row>
+    <row r="1270">
+      <c r="A1270" t="inlineStr">
+        <is>
+          <t>dodge</t>
+        </is>
+      </c>
+      <c r="B1270" t="inlineStr">
+        <is>
+          <t>피하다</t>
+        </is>
+      </c>
+      <c r="C1270" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1270" t="inlineStr">
+        <is>
+          <t>Day25</t>
+        </is>
+      </c>
+      <c r="E1270" t="inlineStr"/>
+    </row>
+    <row r="1271">
+      <c r="A1271" t="inlineStr">
+        <is>
+          <t>shun</t>
+        </is>
+      </c>
+      <c r="B1271" t="inlineStr">
+        <is>
+          <t>피하다</t>
+        </is>
+      </c>
+      <c r="C1271" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1271" t="inlineStr">
+        <is>
+          <t>Day25</t>
+        </is>
+      </c>
+      <c r="E1271" t="inlineStr"/>
+    </row>
+    <row r="1272">
+      <c r="A1272" t="inlineStr">
+        <is>
+          <t>duck</t>
+        </is>
+      </c>
+      <c r="B1272" t="inlineStr">
+        <is>
+          <t>피하다</t>
+        </is>
+      </c>
+      <c r="C1272" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1272" t="inlineStr">
+        <is>
+          <t>Day25</t>
+        </is>
+      </c>
+      <c r="E1272" t="inlineStr"/>
+    </row>
+    <row r="1273">
+      <c r="A1273" t="inlineStr">
+        <is>
+          <t>muffle</t>
+        </is>
+      </c>
+      <c r="B1273" t="inlineStr">
+        <is>
+          <t>감싸다</t>
+        </is>
+      </c>
+      <c r="C1273" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1273" t="inlineStr">
+        <is>
+          <t>Day25</t>
+        </is>
+      </c>
+      <c r="E1273" t="inlineStr"/>
+    </row>
+    <row r="1274">
+      <c r="A1274" t="inlineStr">
+        <is>
+          <t>enfold</t>
+        </is>
+      </c>
+      <c r="B1274" t="inlineStr">
+        <is>
+          <t>감싸다</t>
+        </is>
+      </c>
+      <c r="C1274" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1274" t="inlineStr">
+        <is>
+          <t>Day25</t>
+        </is>
+      </c>
+      <c r="E1274" t="inlineStr"/>
+    </row>
+    <row r="1275">
+      <c r="A1275" t="inlineStr">
+        <is>
+          <t>tuck up</t>
+        </is>
+      </c>
+      <c r="B1275" t="inlineStr">
+        <is>
+          <t>감싸다</t>
+        </is>
+      </c>
+      <c r="C1275" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1275" t="inlineStr">
+        <is>
+          <t>Day25</t>
+        </is>
+      </c>
+      <c r="E1275" t="inlineStr"/>
+    </row>
+    <row r="1276">
+      <c r="A1276" t="inlineStr">
+        <is>
+          <t>swathe</t>
+        </is>
+      </c>
+      <c r="B1276" t="inlineStr">
+        <is>
+          <t>감싸다</t>
+        </is>
+      </c>
+      <c r="C1276" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1276" t="inlineStr">
+        <is>
+          <t>Day25</t>
+        </is>
+      </c>
+      <c r="E1276" t="inlineStr"/>
+    </row>
+    <row r="1277">
+      <c r="A1277" t="inlineStr">
+        <is>
+          <t>swaddle</t>
+        </is>
+      </c>
+      <c r="B1277" t="inlineStr">
+        <is>
+          <t>감싸다</t>
+        </is>
+      </c>
+      <c r="C1277" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1277" t="inlineStr">
+        <is>
+          <t>Day25</t>
+        </is>
+      </c>
+      <c r="E1277" t="inlineStr"/>
+    </row>
+    <row r="1278">
+      <c r="A1278" t="inlineStr">
+        <is>
+          <t>evoke</t>
+        </is>
+      </c>
+      <c r="B1278" t="inlineStr">
+        <is>
+          <t>일깨우다, 불러일으키다</t>
+        </is>
+      </c>
+      <c r="C1278" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1278" t="inlineStr">
+        <is>
+          <t>Day25</t>
+        </is>
+      </c>
+      <c r="E1278" t="inlineStr"/>
+    </row>
+    <row r="1279">
+      <c r="A1279" t="inlineStr">
+        <is>
+          <t>awaken</t>
+        </is>
+      </c>
+      <c r="B1279" t="inlineStr">
+        <is>
+          <t>일깨우다, 불러일으키다</t>
+        </is>
+      </c>
+      <c r="C1279" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1279" t="inlineStr">
+        <is>
+          <t>Day25</t>
+        </is>
+      </c>
+      <c r="E1279" t="inlineStr"/>
+    </row>
+    <row r="1280">
+      <c r="A1280" t="inlineStr">
+        <is>
+          <t>arouse</t>
+        </is>
+      </c>
+      <c r="B1280" t="inlineStr">
+        <is>
+          <t>일깨우다, 불러일으키다</t>
+        </is>
+      </c>
+      <c r="C1280" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1280" t="inlineStr">
+        <is>
+          <t>Day25</t>
+        </is>
+      </c>
+      <c r="E1280" t="inlineStr"/>
+    </row>
+    <row r="1281">
+      <c r="A1281" t="inlineStr">
+        <is>
+          <t>induce</t>
+        </is>
+      </c>
+      <c r="B1281" t="inlineStr">
+        <is>
+          <t>일깨우다, 불러일으키다</t>
+        </is>
+      </c>
+      <c r="C1281" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1281" t="inlineStr">
+        <is>
+          <t>Day25</t>
+        </is>
+      </c>
+      <c r="E1281" t="inlineStr"/>
+    </row>
+    <row r="1282">
+      <c r="A1282" t="inlineStr">
+        <is>
+          <t>bring about</t>
+        </is>
+      </c>
+      <c r="B1282" t="inlineStr">
+        <is>
+          <t>일깨우다, 불러일으키다</t>
+        </is>
+      </c>
+      <c r="C1282" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1282" t="inlineStr">
+        <is>
+          <t>Day25</t>
+        </is>
+      </c>
+      <c r="E1282" t="inlineStr"/>
+    </row>
+    <row r="1283">
+      <c r="A1283" t="inlineStr">
+        <is>
+          <t>inextricably</t>
+        </is>
+      </c>
+      <c r="B1283" t="inlineStr">
+        <is>
+          <t>불가분하게, 밀접하게</t>
+        </is>
+      </c>
+      <c r="C1283" t="inlineStr">
+        <is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D1283" t="inlineStr">
+        <is>
+          <t>Day25</t>
+        </is>
+      </c>
+      <c r="E1283" t="inlineStr"/>
+    </row>
+    <row r="1284">
+      <c r="A1284" t="inlineStr">
+        <is>
+          <t>inseparably</t>
+        </is>
+      </c>
+      <c r="B1284" t="inlineStr">
+        <is>
+          <t>불가분하게, 밀접하게</t>
+        </is>
+      </c>
+      <c r="C1284" t="inlineStr">
+        <is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D1284" t="inlineStr">
+        <is>
+          <t>Day25</t>
+        </is>
+      </c>
+      <c r="E1284" t="inlineStr"/>
+    </row>
+    <row r="1285">
+      <c r="A1285" t="inlineStr">
+        <is>
+          <t>closely</t>
+        </is>
+      </c>
+      <c r="B1285" t="inlineStr">
+        <is>
+          <t>불가분하게, 밀접하게</t>
+        </is>
+      </c>
+      <c r="C1285" t="inlineStr">
+        <is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D1285" t="inlineStr">
+        <is>
+          <t>Day25</t>
+        </is>
+      </c>
+      <c r="E1285" t="inlineStr"/>
+    </row>
+    <row r="1286">
+      <c r="A1286" t="inlineStr">
+        <is>
+          <t>nearly</t>
+        </is>
+      </c>
+      <c r="B1286" t="inlineStr">
+        <is>
+          <t>불가분하게, 밀접하게</t>
+        </is>
+      </c>
+      <c r="C1286" t="inlineStr">
+        <is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D1286" t="inlineStr">
+        <is>
+          <t>Day25</t>
+        </is>
+      </c>
+      <c r="E1286" t="inlineStr"/>
+    </row>
+    <row r="1287">
+      <c r="A1287" t="inlineStr">
+        <is>
+          <t>conjunctly</t>
+        </is>
+      </c>
+      <c r="B1287" t="inlineStr">
+        <is>
+          <t>불가분하게, 밀접하게</t>
+        </is>
+      </c>
+      <c r="C1287" t="inlineStr">
+        <is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D1287" t="inlineStr">
+        <is>
+          <t>Day25</t>
+        </is>
+      </c>
+      <c r="E1287" t="inlineStr"/>
+    </row>
+    <row r="1288">
+      <c r="A1288" t="inlineStr">
+        <is>
+          <t>inanimately</t>
+        </is>
+      </c>
+      <c r="B1288" t="inlineStr">
+        <is>
+          <t>활기 없이</t>
+        </is>
+      </c>
+      <c r="C1288" t="inlineStr">
+        <is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D1288" t="inlineStr">
+        <is>
+          <t>Day25</t>
+        </is>
+      </c>
+      <c r="E1288" t="inlineStr"/>
+    </row>
+    <row r="1289">
+      <c r="A1289" t="inlineStr">
+        <is>
+          <t>cheerlessly</t>
+        </is>
+      </c>
+      <c r="B1289" t="inlineStr">
+        <is>
+          <t>활기 없이</t>
+        </is>
+      </c>
+      <c r="C1289" t="inlineStr">
+        <is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D1289" t="inlineStr">
+        <is>
+          <t>Day25</t>
+        </is>
+      </c>
+      <c r="E1289" t="inlineStr"/>
+    </row>
+    <row r="1290">
+      <c r="A1290" t="inlineStr">
+        <is>
+          <t>vegetably</t>
+        </is>
+      </c>
+      <c r="B1290" t="inlineStr">
+        <is>
+          <t>활기 없이</t>
+        </is>
+      </c>
+      <c r="C1290" t="inlineStr">
+        <is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D1290" t="inlineStr">
+        <is>
+          <t>Day25</t>
+        </is>
+      </c>
+      <c r="E1290" t="inlineStr"/>
+    </row>
+    <row r="1291">
+      <c r="A1291" t="inlineStr">
+        <is>
+          <t>flabbily</t>
+        </is>
+      </c>
+      <c r="B1291" t="inlineStr">
+        <is>
+          <t>활기 없이</t>
+        </is>
+      </c>
+      <c r="C1291" t="inlineStr">
+        <is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D1291" t="inlineStr">
+        <is>
+          <t>Day25</t>
+        </is>
+      </c>
+      <c r="E1291" t="inlineStr"/>
+    </row>
+    <row r="1292">
+      <c r="A1292" t="inlineStr">
+        <is>
+          <t>languidly</t>
+        </is>
+      </c>
+      <c r="B1292" t="inlineStr">
+        <is>
+          <t>활기 없이</t>
+        </is>
+      </c>
+      <c r="C1292" t="inlineStr">
+        <is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D1292" t="inlineStr">
+        <is>
+          <t>Day25</t>
+        </is>
+      </c>
+      <c r="E1292" t="inlineStr"/>
+    </row>
+    <row r="1293">
+      <c r="A1293" t="inlineStr">
+        <is>
+          <t>ineffectively</t>
+        </is>
+      </c>
+      <c r="B1293" t="inlineStr">
+        <is>
+          <t>헛되이</t>
+        </is>
+      </c>
+      <c r="C1293" t="inlineStr">
+        <is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D1293" t="inlineStr">
+        <is>
+          <t>Day25</t>
+        </is>
+      </c>
+      <c r="E1293" t="inlineStr"/>
+    </row>
+    <row r="1294">
+      <c r="A1294" t="inlineStr">
+        <is>
+          <t>vainly</t>
+        </is>
+      </c>
+      <c r="B1294" t="inlineStr">
+        <is>
+          <t>헛되이</t>
+        </is>
+      </c>
+      <c r="C1294" t="inlineStr">
+        <is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D1294" t="inlineStr">
+        <is>
+          <t>Day25</t>
+        </is>
+      </c>
+      <c r="E1294" t="inlineStr"/>
+    </row>
+    <row r="1295">
+      <c r="A1295" t="inlineStr">
+        <is>
+          <t>futilely</t>
+        </is>
+      </c>
+      <c r="B1295" t="inlineStr">
+        <is>
+          <t>헛되이</t>
+        </is>
+      </c>
+      <c r="C1295" t="inlineStr">
+        <is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D1295" t="inlineStr">
+        <is>
+          <t>Day25</t>
+        </is>
+      </c>
+      <c r="E1295" t="inlineStr"/>
+    </row>
+    <row r="1296">
+      <c r="A1296" t="inlineStr">
+        <is>
+          <t>uselessly</t>
+        </is>
+      </c>
+      <c r="B1296" t="inlineStr">
+        <is>
+          <t>헛되이</t>
+        </is>
+      </c>
+      <c r="C1296" t="inlineStr">
+        <is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D1296" t="inlineStr">
+        <is>
+          <t>Day25</t>
+        </is>
+      </c>
+      <c r="E1296" t="inlineStr"/>
+    </row>
+    <row r="1297">
+      <c r="A1297" t="inlineStr">
+        <is>
+          <t>for nothing</t>
+        </is>
+      </c>
+      <c r="B1297" t="inlineStr">
+        <is>
+          <t>헛되이</t>
+        </is>
+      </c>
+      <c r="C1297" t="inlineStr">
+        <is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D1297" t="inlineStr">
+        <is>
+          <t>Day25</t>
+        </is>
+      </c>
+      <c r="E1297" t="inlineStr"/>
+    </row>
+    <row r="1298">
+      <c r="A1298" t="inlineStr">
+        <is>
+          <t>inconsiderately</t>
+        </is>
+      </c>
+      <c r="B1298" t="inlineStr">
+        <is>
+          <t>경솔하게</t>
+        </is>
+      </c>
+      <c r="C1298" t="inlineStr">
+        <is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D1298" t="inlineStr">
+        <is>
+          <t>Day25</t>
+        </is>
+      </c>
+      <c r="E1298" t="inlineStr"/>
+    </row>
+    <row r="1299">
+      <c r="A1299" t="inlineStr">
+        <is>
+          <t>lightly</t>
+        </is>
+      </c>
+      <c r="B1299" t="inlineStr">
+        <is>
+          <t>경솔하게</t>
+        </is>
+      </c>
+      <c r="C1299" t="inlineStr">
+        <is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D1299" t="inlineStr">
+        <is>
+          <t>Day25</t>
+        </is>
+      </c>
+      <c r="E1299" t="inlineStr"/>
+    </row>
+    <row r="1300">
+      <c r="A1300" t="inlineStr">
+        <is>
+          <t>rashly</t>
+        </is>
+      </c>
+      <c r="B1300" t="inlineStr">
+        <is>
+          <t>경솔하게</t>
+        </is>
+      </c>
+      <c r="C1300" t="inlineStr">
+        <is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D1300" t="inlineStr">
+        <is>
+          <t>Day25</t>
+        </is>
+      </c>
+      <c r="E1300" t="inlineStr"/>
+    </row>
+    <row r="1301">
+      <c r="A1301" t="inlineStr">
+        <is>
+          <t>hastily</t>
+        </is>
+      </c>
+      <c r="B1301" t="inlineStr">
+        <is>
+          <t>경솔하게</t>
+        </is>
+      </c>
+      <c r="C1301" t="inlineStr">
+        <is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D1301" t="inlineStr">
+        <is>
+          <t>Day25</t>
+        </is>
+      </c>
+      <c r="E1301" t="inlineStr"/>
+    </row>
+    <row r="1302">
+      <c r="A1302" t="inlineStr">
+        <is>
+          <t>carelessly</t>
+        </is>
+      </c>
+      <c r="B1302" t="inlineStr">
+        <is>
+          <t>경솔하게</t>
+        </is>
+      </c>
+      <c r="C1302" t="inlineStr">
+        <is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D1302" t="inlineStr">
+        <is>
+          <t>Day25</t>
+        </is>
+      </c>
+      <c r="E1302" t="inlineStr"/>
+    </row>
+    <row r="1303">
+      <c r="A1303" t="inlineStr">
+        <is>
+          <t>transient</t>
+        </is>
+      </c>
+      <c r="B1303" t="inlineStr">
+        <is>
+          <t>일시적인, 순간적인</t>
+        </is>
+      </c>
+      <c r="C1303" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1303" t="inlineStr">
+        <is>
+          <t>Day25</t>
+        </is>
+      </c>
+      <c r="E1303" t="inlineStr"/>
+    </row>
+    <row r="1304">
+      <c r="A1304" t="inlineStr">
+        <is>
+          <t>momentary</t>
+        </is>
+      </c>
+      <c r="B1304" t="inlineStr">
+        <is>
+          <t>일시적인, 순간적인</t>
+        </is>
+      </c>
+      <c r="C1304" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1304" t="inlineStr">
+        <is>
+          <t>Day25</t>
+        </is>
+      </c>
+      <c r="E1304" t="inlineStr"/>
+    </row>
+    <row r="1305">
+      <c r="A1305" t="inlineStr">
+        <is>
+          <t>temporary</t>
+        </is>
+      </c>
+      <c r="B1305" t="inlineStr">
+        <is>
+          <t>일시적인, 순간적인</t>
+        </is>
+      </c>
+      <c r="C1305" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1305" t="inlineStr">
+        <is>
+          <t>Day25</t>
+        </is>
+      </c>
+      <c r="E1305" t="inlineStr"/>
+    </row>
+    <row r="1306">
+      <c r="A1306" t="inlineStr">
+        <is>
+          <t>impermanent</t>
+        </is>
+      </c>
+      <c r="B1306" t="inlineStr">
+        <is>
+          <t>일시적인, 순간적인</t>
+        </is>
+      </c>
+      <c r="C1306" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1306" t="inlineStr">
+        <is>
+          <t>Day25</t>
+        </is>
+      </c>
+      <c r="E1306" t="inlineStr"/>
+    </row>
+    <row r="1307">
+      <c r="A1307" t="inlineStr">
+        <is>
+          <t>instantaneous</t>
+        </is>
+      </c>
+      <c r="B1307" t="inlineStr">
+        <is>
+          <t>일시적인, 순간적인</t>
+        </is>
+      </c>
+      <c r="C1307" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1307" t="inlineStr">
+        <is>
+          <t>Day25</t>
+        </is>
+      </c>
+      <c r="E1307" t="inlineStr"/>
+    </row>
+    <row r="1308">
+      <c r="A1308" t="inlineStr">
+        <is>
+          <t>transparent</t>
+        </is>
+      </c>
+      <c r="B1308" t="inlineStr">
+        <is>
+          <t>투명한</t>
+        </is>
+      </c>
+      <c r="C1308" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1308" t="inlineStr">
+        <is>
+          <t>Day25</t>
+        </is>
+      </c>
+      <c r="E1308" t="inlineStr"/>
+    </row>
+    <row r="1309">
+      <c r="A1309" t="inlineStr">
+        <is>
+          <t>clear</t>
+        </is>
+      </c>
+      <c r="B1309" t="inlineStr">
+        <is>
+          <t>투명한</t>
+        </is>
+      </c>
+      <c r="C1309" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1309" t="inlineStr">
+        <is>
+          <t>Day25</t>
+        </is>
+      </c>
+      <c r="E1309" t="inlineStr"/>
+    </row>
+    <row r="1310">
+      <c r="A1310" t="inlineStr">
+        <is>
+          <t>pellucid</t>
+        </is>
+      </c>
+      <c r="B1310" t="inlineStr">
+        <is>
+          <t>투명한</t>
+        </is>
+      </c>
+      <c r="C1310" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1310" t="inlineStr">
+        <is>
+          <t>Day25</t>
+        </is>
+      </c>
+      <c r="E1310" t="inlineStr"/>
+    </row>
+    <row r="1311">
+      <c r="A1311" t="inlineStr">
+        <is>
+          <t>limpid</t>
+        </is>
+      </c>
+      <c r="B1311" t="inlineStr">
+        <is>
+          <t>투명한</t>
+        </is>
+      </c>
+      <c r="C1311" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1311" t="inlineStr">
+        <is>
+          <t>Day25</t>
+        </is>
+      </c>
+      <c r="E1311" t="inlineStr"/>
+    </row>
+    <row r="1312">
+      <c r="A1312" t="inlineStr">
+        <is>
+          <t>translucent</t>
+        </is>
+      </c>
+      <c r="B1312" t="inlineStr">
+        <is>
+          <t>투명한</t>
+        </is>
+      </c>
+      <c r="C1312" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1312" t="inlineStr">
+        <is>
+          <t>Day25</t>
+        </is>
+      </c>
+      <c r="E1312" t="inlineStr"/>
+    </row>
+    <row r="1313">
+      <c r="A1313" t="inlineStr">
+        <is>
+          <t>memorable</t>
+        </is>
+      </c>
+      <c r="B1313" t="inlineStr">
+        <is>
+          <t>인상적인</t>
+        </is>
+      </c>
+      <c r="C1313" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1313" t="inlineStr">
+        <is>
+          <t>Day26</t>
+        </is>
+      </c>
+      <c r="E1313" t="inlineStr"/>
+    </row>
+    <row r="1314">
+      <c r="A1314" t="inlineStr">
+        <is>
+          <t>dramatic</t>
+        </is>
+      </c>
+      <c r="B1314" t="inlineStr">
+        <is>
+          <t>인상적인</t>
+        </is>
+      </c>
+      <c r="C1314" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1314" t="inlineStr">
+        <is>
+          <t>Day26</t>
+        </is>
+      </c>
+      <c r="E1314" t="inlineStr"/>
+    </row>
+    <row r="1315">
+      <c r="A1315" t="inlineStr">
+        <is>
+          <t>imposing</t>
+        </is>
+      </c>
+      <c r="B1315" t="inlineStr">
+        <is>
+          <t>인상적인</t>
+        </is>
+      </c>
+      <c r="C1315" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1315" t="inlineStr">
+        <is>
+          <t>Day26</t>
+        </is>
+      </c>
+      <c r="E1315" t="inlineStr"/>
+    </row>
+    <row r="1316">
+      <c r="A1316" t="inlineStr">
+        <is>
+          <t>impressive</t>
+        </is>
+      </c>
+      <c r="B1316" t="inlineStr">
+        <is>
+          <t>인상적인</t>
+        </is>
+      </c>
+      <c r="C1316" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1316" t="inlineStr">
+        <is>
+          <t>Day26</t>
+        </is>
+      </c>
+      <c r="E1316" t="inlineStr"/>
+    </row>
+    <row r="1317">
+      <c r="A1317" t="inlineStr">
+        <is>
+          <t>striking</t>
+        </is>
+      </c>
+      <c r="B1317" t="inlineStr">
+        <is>
+          <t>인상적인</t>
+        </is>
+      </c>
+      <c r="C1317" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1317" t="inlineStr">
+        <is>
+          <t>Day26</t>
+        </is>
+      </c>
+      <c r="E1317" t="inlineStr"/>
+    </row>
+    <row r="1318">
+      <c r="A1318" t="inlineStr">
+        <is>
+          <t>significant</t>
+        </is>
+      </c>
+      <c r="B1318" t="inlineStr">
+        <is>
+          <t>중요한, 중대한</t>
+        </is>
+      </c>
+      <c r="C1318" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1318" t="inlineStr"/>
+      <c r="E1318" t="inlineStr"/>
+    </row>
+    <row r="1319">
+      <c r="A1319" t="inlineStr">
+        <is>
+          <t>meaningful</t>
+        </is>
+      </c>
+      <c r="B1319" t="inlineStr">
+        <is>
+          <t>중요한, 중대한</t>
+        </is>
+      </c>
+      <c r="C1319" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1319" t="inlineStr"/>
+      <c r="E1319" t="inlineStr"/>
+    </row>
+    <row r="1320">
+      <c r="A1320" t="inlineStr">
+        <is>
+          <t>momentous</t>
+        </is>
+      </c>
+      <c r="B1320" t="inlineStr">
+        <is>
+          <t>중요한, 중대한</t>
+        </is>
+      </c>
+      <c r="C1320" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1320" t="inlineStr"/>
+      <c r="E1320" t="inlineStr"/>
+    </row>
+    <row r="1321">
+      <c r="A1321" t="inlineStr">
+        <is>
+          <t>considerable</t>
+        </is>
+      </c>
+      <c r="B1321" t="inlineStr">
+        <is>
+          <t>중요한, 중대한</t>
+        </is>
+      </c>
+      <c r="C1321" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1321" t="inlineStr"/>
+      <c r="E1321" t="inlineStr"/>
+    </row>
+    <row r="1322">
+      <c r="A1322" t="inlineStr">
+        <is>
+          <t>substantial</t>
+        </is>
+      </c>
+      <c r="B1322" t="inlineStr">
+        <is>
+          <t>중요한, 중대한</t>
+        </is>
+      </c>
+      <c r="C1322" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1322" t="inlineStr"/>
+      <c r="E1322" t="inlineStr"/>
+    </row>
+    <row r="1323">
+      <c r="A1323" t="inlineStr">
+        <is>
+          <t>important</t>
+        </is>
+      </c>
+      <c r="B1323" t="inlineStr">
+        <is>
+          <t>중요한, 중대한</t>
+        </is>
+      </c>
+      <c r="C1323" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1323" t="inlineStr"/>
+      <c r="E1323" t="inlineStr"/>
+    </row>
+    <row r="1324">
+      <c r="A1324" t="inlineStr">
+        <is>
+          <t>crucial</t>
+        </is>
+      </c>
+      <c r="B1324" t="inlineStr">
+        <is>
+          <t>중요한, 중대한</t>
+        </is>
+      </c>
+      <c r="C1324" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1324" t="inlineStr"/>
+      <c r="E1324" t="inlineStr"/>
+    </row>
+    <row r="1325">
+      <c r="A1325" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+      <c r="B1325" t="inlineStr">
+        <is>
+          <t>중요한, 중대한</t>
+        </is>
+      </c>
+      <c r="C1325" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1325" t="inlineStr"/>
+      <c r="E1325" t="inlineStr"/>
+    </row>
+    <row r="1326">
+      <c r="A1326" t="inlineStr">
+        <is>
+          <t>pivotal</t>
+        </is>
+      </c>
+      <c r="B1326" t="inlineStr">
+        <is>
+          <t>중요한, 중대한</t>
+        </is>
+      </c>
+      <c r="C1326" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1326" t="inlineStr"/>
+      <c r="E1326" t="inlineStr"/>
+    </row>
+    <row r="1327">
+      <c r="A1327" t="inlineStr">
+        <is>
+          <t>consequential</t>
+        </is>
+      </c>
+      <c r="B1327" t="inlineStr">
+        <is>
+          <t>중요한, 중대한</t>
+        </is>
+      </c>
+      <c r="C1327" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1327" t="inlineStr"/>
+      <c r="E1327" t="inlineStr"/>
+    </row>
+    <row r="1328">
+      <c r="A1328" t="inlineStr">
+        <is>
+          <t>grave</t>
+        </is>
+      </c>
+      <c r="B1328" t="inlineStr">
+        <is>
+          <t>중요한, 중대한</t>
+        </is>
+      </c>
+      <c r="C1328" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1328" t="inlineStr"/>
+      <c r="E1328" t="inlineStr"/>
+    </row>
+    <row r="1329">
+      <c r="A1329" t="inlineStr">
+        <is>
+          <t>vital</t>
+        </is>
+      </c>
+      <c r="B1329" t="inlineStr">
+        <is>
+          <t>중요한, 중대한</t>
+        </is>
+      </c>
+      <c r="C1329" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1329" t="inlineStr"/>
+      <c r="E1329" t="inlineStr"/>
+    </row>
+    <row r="1330">
+      <c r="A1330" t="inlineStr">
+        <is>
+          <t>weighty</t>
+        </is>
+      </c>
+      <c r="B1330" t="inlineStr">
+        <is>
+          <t>중요한, 중대한</t>
+        </is>
+      </c>
+      <c r="C1330" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1330" t="inlineStr"/>
+      <c r="E1330" t="inlineStr"/>
+    </row>
+    <row r="1331">
+      <c r="A1331" t="inlineStr">
+        <is>
+          <t>appease</t>
+        </is>
+      </c>
+      <c r="B1331" t="inlineStr">
+        <is>
+          <t>달래다, 진정시키다</t>
+        </is>
+      </c>
+      <c r="C1331" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1331" t="inlineStr"/>
+      <c r="E1331" t="inlineStr"/>
+    </row>
+    <row r="1332">
+      <c r="A1332" t="inlineStr">
+        <is>
+          <t>pacify</t>
+        </is>
+      </c>
+      <c r="B1332" t="inlineStr">
+        <is>
+          <t>달래다, 진정시키다</t>
+        </is>
+      </c>
+      <c r="C1332" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1332" t="inlineStr"/>
+      <c r="E1332" t="inlineStr"/>
+    </row>
+    <row r="1333">
+      <c r="A1333" t="inlineStr">
+        <is>
+          <t>placate</t>
+        </is>
+      </c>
+      <c r="B1333" t="inlineStr">
+        <is>
+          <t>달래다, 진정시키다</t>
+        </is>
+      </c>
+      <c r="C1333" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1333" t="inlineStr"/>
+      <c r="E1333" t="inlineStr"/>
+    </row>
+    <row r="1334">
+      <c r="A1334" t="inlineStr">
+        <is>
+          <t>assuage</t>
+        </is>
+      </c>
+      <c r="B1334" t="inlineStr">
+        <is>
+          <t>달래다, 진정시키다</t>
+        </is>
+      </c>
+      <c r="C1334" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1334" t="inlineStr"/>
+      <c r="E1334" t="inlineStr"/>
+    </row>
+    <row r="1335">
+      <c r="A1335" t="inlineStr">
+        <is>
+          <t>sedate</t>
+        </is>
+      </c>
+      <c r="B1335" t="inlineStr">
+        <is>
+          <t>달래다, 진정시키다</t>
+        </is>
+      </c>
+      <c r="C1335" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1335" t="inlineStr"/>
+      <c r="E1335" t="inlineStr"/>
+    </row>
+    <row r="1336">
+      <c r="A1336" t="inlineStr">
+        <is>
+          <t>calm</t>
+        </is>
+      </c>
+      <c r="B1336" t="inlineStr">
+        <is>
+          <t>달래다, 진정시키다</t>
+        </is>
+      </c>
+      <c r="C1336" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1336" t="inlineStr"/>
+      <c r="E1336" t="inlineStr"/>
+    </row>
+    <row r="1337">
+      <c r="A1337" t="inlineStr">
+        <is>
+          <t>salve</t>
+        </is>
+      </c>
+      <c r="B1337" t="inlineStr">
+        <is>
+          <t>달래다, 진정시키다</t>
+        </is>
+      </c>
+      <c r="C1337" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1337" t="inlineStr"/>
+      <c r="E1337" t="inlineStr"/>
+    </row>
+    <row r="1338">
+      <c r="A1338" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="B1338" t="inlineStr">
+        <is>
+          <t>배당하다, 할당하다</t>
+        </is>
+      </c>
+      <c r="C1338" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1338" t="inlineStr"/>
+      <c r="E1338" t="inlineStr"/>
+    </row>
+    <row r="1339">
+      <c r="A1339" t="inlineStr">
+        <is>
+          <t>distribute</t>
+        </is>
+      </c>
+      <c r="B1339" t="inlineStr">
+        <is>
+          <t>배당하다, 할당하다</t>
+        </is>
+      </c>
+      <c r="C1339" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1339" t="inlineStr"/>
+      <c r="E1339" t="inlineStr"/>
+    </row>
+    <row r="1340">
+      <c r="A1340" t="inlineStr">
+        <is>
+          <t>allot</t>
+        </is>
+      </c>
+      <c r="B1340" t="inlineStr">
+        <is>
+          <t>배당하다, 할당하다</t>
+        </is>
+      </c>
+      <c r="C1340" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1340" t="inlineStr"/>
+      <c r="E1340" t="inlineStr"/>
+    </row>
+    <row r="1341">
+      <c r="A1341" t="inlineStr">
+        <is>
+          <t>allocate</t>
+        </is>
+      </c>
+      <c r="B1341" t="inlineStr">
+        <is>
+          <t>배당하다, 할당하다</t>
+        </is>
+      </c>
+      <c r="C1341" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1341" t="inlineStr"/>
+      <c r="E1341" t="inlineStr"/>
+    </row>
+    <row r="1342">
+      <c r="A1342" t="inlineStr">
+        <is>
+          <t>apportion</t>
+        </is>
+      </c>
+      <c r="B1342" t="inlineStr">
+        <is>
+          <t>배당하다, 할당하다</t>
+        </is>
+      </c>
+      <c r="C1342" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1342" t="inlineStr"/>
+      <c r="E1342" t="inlineStr"/>
+    </row>
+    <row r="1343">
+      <c r="A1343" t="inlineStr">
+        <is>
+          <t>apprehend</t>
+        </is>
+      </c>
+      <c r="B1343" t="inlineStr">
+        <is>
+          <t>이해하다, 체포하다</t>
+        </is>
+      </c>
+      <c r="C1343" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1343" t="inlineStr"/>
+      <c r="E1343" t="inlineStr"/>
+    </row>
+    <row r="1344">
+      <c r="A1344" t="inlineStr">
+        <is>
+          <t>understand</t>
+        </is>
+      </c>
+      <c r="B1344" t="inlineStr">
+        <is>
+          <t>이해하다, 체포하다</t>
+        </is>
+      </c>
+      <c r="C1344" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1344" t="inlineStr"/>
+      <c r="E1344" t="inlineStr"/>
+    </row>
+    <row r="1345">
+      <c r="A1345" t="inlineStr">
+        <is>
+          <t>seize</t>
+        </is>
+      </c>
+      <c r="B1345" t="inlineStr">
+        <is>
+          <t>이해하다, 체포하다</t>
+        </is>
+      </c>
+      <c r="C1345" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1345" t="inlineStr"/>
+      <c r="E1345" t="inlineStr"/>
+    </row>
+    <row r="1346">
+      <c r="A1346" t="inlineStr">
+        <is>
+          <t>figure out</t>
+        </is>
+      </c>
+      <c r="B1346" t="inlineStr">
+        <is>
+          <t>이해하다, 체포하다</t>
+        </is>
+      </c>
+      <c r="C1346" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1346" t="inlineStr"/>
+      <c r="E1346" t="inlineStr"/>
+    </row>
+    <row r="1347">
+      <c r="A1347" t="inlineStr">
+        <is>
+          <t>arrest</t>
+        </is>
+      </c>
+      <c r="B1347" t="inlineStr">
+        <is>
+          <t>이해하다, 체포하다</t>
+        </is>
+      </c>
+      <c r="C1347" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1347" t="inlineStr"/>
+      <c r="E1347" t="inlineStr"/>
+    </row>
+    <row r="1348">
+      <c r="A1348" t="inlineStr">
+        <is>
+          <t>fathom</t>
+        </is>
+      </c>
+      <c r="B1348" t="inlineStr">
+        <is>
+          <t>이해하다, 체포하다</t>
+        </is>
+      </c>
+      <c r="C1348" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1348" t="inlineStr"/>
+      <c r="E1348" t="inlineStr"/>
+    </row>
+    <row r="1349">
+      <c r="A1349" t="inlineStr">
+        <is>
+          <t>provoke</t>
+        </is>
+      </c>
+      <c r="B1349" t="inlineStr">
+        <is>
+          <t>자극하다</t>
+        </is>
+      </c>
+      <c r="C1349" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1349" t="inlineStr"/>
+      <c r="E1349" t="inlineStr"/>
+    </row>
+    <row r="1350">
+      <c r="A1350" t="inlineStr">
+        <is>
+          <t>stimulate</t>
+        </is>
+      </c>
+      <c r="B1350" t="inlineStr">
+        <is>
+          <t>자극하다</t>
+        </is>
+      </c>
+      <c r="C1350" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1350" t="inlineStr"/>
+      <c r="E1350" t="inlineStr"/>
+    </row>
+    <row r="1351">
+      <c r="A1351" t="inlineStr">
+        <is>
+          <t>spur</t>
+        </is>
+      </c>
+      <c r="B1351" t="inlineStr">
+        <is>
+          <t>자극하다</t>
+        </is>
+      </c>
+      <c r="C1351" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1351" t="inlineStr"/>
+      <c r="E1351" t="inlineStr"/>
+    </row>
+    <row r="1352">
+      <c r="A1352" t="inlineStr">
+        <is>
+          <t>incite</t>
+        </is>
+      </c>
+      <c r="B1352" t="inlineStr">
+        <is>
+          <t>자극하다</t>
+        </is>
+      </c>
+      <c r="C1352" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1352" t="inlineStr"/>
+      <c r="E1352" t="inlineStr"/>
+    </row>
+    <row r="1353">
+      <c r="A1353" t="inlineStr">
+        <is>
+          <t>prod</t>
+        </is>
+      </c>
+      <c r="B1353" t="inlineStr">
+        <is>
+          <t>자극하다</t>
+        </is>
+      </c>
+      <c r="C1353" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1353" t="inlineStr"/>
+      <c r="E1353" t="inlineStr"/>
+    </row>
+    <row r="1354">
+      <c r="A1354" t="inlineStr">
+        <is>
+          <t>motivate</t>
+        </is>
+      </c>
+      <c r="B1354" t="inlineStr">
+        <is>
+          <t>자극하다</t>
+        </is>
+      </c>
+      <c r="C1354" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1354" t="inlineStr"/>
+      <c r="E1354" t="inlineStr"/>
+    </row>
+    <row r="1355">
+      <c r="A1355" t="inlineStr">
+        <is>
+          <t>quicken</t>
+        </is>
+      </c>
+      <c r="B1355" t="inlineStr">
+        <is>
+          <t>자극하다</t>
+        </is>
+      </c>
+      <c r="C1355" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1355" t="inlineStr"/>
+      <c r="E1355" t="inlineStr"/>
+    </row>
+    <row r="1356">
+      <c r="A1356" t="inlineStr">
+        <is>
+          <t>quintessential</t>
+        </is>
+      </c>
+      <c r="B1356" t="inlineStr">
+        <is>
+          <t>전형적인</t>
+        </is>
+      </c>
+      <c r="C1356" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1356" t="inlineStr"/>
+      <c r="E1356" t="inlineStr"/>
+    </row>
+    <row r="1357">
+      <c r="A1357" t="inlineStr">
+        <is>
+          <t>typical</t>
+        </is>
+      </c>
+      <c r="B1357" t="inlineStr">
+        <is>
+          <t>전형적인</t>
+        </is>
+      </c>
+      <c r="C1357" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1357" t="inlineStr"/>
+      <c r="E1357" t="inlineStr"/>
+    </row>
+    <row r="1358">
+      <c r="A1358" t="inlineStr">
+        <is>
+          <t>classic</t>
+        </is>
+      </c>
+      <c r="B1358" t="inlineStr">
+        <is>
+          <t>전형적인</t>
+        </is>
+      </c>
+      <c r="C1358" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1358" t="inlineStr"/>
+      <c r="E1358" t="inlineStr"/>
+    </row>
+    <row r="1359">
+      <c r="A1359" t="inlineStr">
+        <is>
+          <t>representative</t>
+        </is>
+      </c>
+      <c r="B1359" t="inlineStr">
+        <is>
+          <t>전형적인</t>
+        </is>
+      </c>
+      <c r="C1359" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1359" t="inlineStr"/>
+      <c r="E1359" t="inlineStr"/>
+    </row>
+    <row r="1360">
+      <c r="A1360" t="inlineStr">
+        <is>
+          <t>emblematic</t>
+        </is>
+      </c>
+      <c r="B1360" t="inlineStr">
+        <is>
+          <t>전형적인</t>
+        </is>
+      </c>
+      <c r="C1360" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1360" t="inlineStr"/>
+      <c r="E1360" t="inlineStr"/>
+    </row>
+    <row r="1361">
+      <c r="A1361" t="inlineStr">
+        <is>
+          <t>healthy</t>
+        </is>
+      </c>
+      <c r="B1361" t="inlineStr">
+        <is>
+          <t>건강한</t>
+        </is>
+      </c>
+      <c r="C1361" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1361" t="inlineStr"/>
+      <c r="E1361" t="inlineStr"/>
+    </row>
+    <row r="1362">
+      <c r="A1362" t="inlineStr">
+        <is>
+          <t>sound</t>
+        </is>
+      </c>
+      <c r="B1362" t="inlineStr">
+        <is>
+          <t>건강한</t>
+        </is>
+      </c>
+      <c r="C1362" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1362" t="inlineStr"/>
+      <c r="E1362" t="inlineStr"/>
+    </row>
+    <row r="1363">
+      <c r="A1363" t="inlineStr">
+        <is>
+          <t>salutary</t>
+        </is>
+      </c>
+      <c r="B1363" t="inlineStr">
+        <is>
+          <t>건강한</t>
+        </is>
+      </c>
+      <c r="C1363" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1363" t="inlineStr"/>
+      <c r="E1363" t="inlineStr"/>
+    </row>
+    <row r="1364">
+      <c r="A1364" t="inlineStr">
+        <is>
+          <t>vigorous</t>
+        </is>
+      </c>
+      <c r="B1364" t="inlineStr">
+        <is>
+          <t>건강한</t>
+        </is>
+      </c>
+      <c r="C1364" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1364" t="inlineStr"/>
+      <c r="E1364" t="inlineStr"/>
+    </row>
+    <row r="1365">
+      <c r="A1365" t="inlineStr">
+        <is>
+          <t>robust</t>
+        </is>
+      </c>
+      <c r="B1365" t="inlineStr">
+        <is>
+          <t>건강한</t>
+        </is>
+      </c>
+      <c r="C1365" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1365" t="inlineStr"/>
+      <c r="E1365" t="inlineStr"/>
+    </row>
+    <row r="1366">
+      <c r="A1366" t="inlineStr">
+        <is>
+          <t>affordable</t>
+        </is>
+      </c>
+      <c r="B1366" t="inlineStr">
+        <is>
+          <t>감당할 수 있는, 알맞은</t>
+        </is>
+      </c>
+      <c r="C1366" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1366" t="inlineStr"/>
+      <c r="E1366" t="inlineStr"/>
+    </row>
+    <row r="1367">
+      <c r="A1367" t="inlineStr">
+        <is>
+          <t>fit</t>
+        </is>
+      </c>
+      <c r="B1367" t="inlineStr">
+        <is>
+          <t>감당할 수 있는, 알맞은</t>
+        </is>
+      </c>
+      <c r="C1367" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1367" t="inlineStr"/>
+      <c r="E1367" t="inlineStr"/>
+    </row>
+    <row r="1368">
+      <c r="A1368" t="inlineStr">
+        <is>
+          <t>equal</t>
+        </is>
+      </c>
+      <c r="B1368" t="inlineStr">
+        <is>
+          <t>감당할 수 있는, 알맞은</t>
+        </is>
+      </c>
+      <c r="C1368" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1368" t="inlineStr"/>
+      <c r="E1368" t="inlineStr"/>
+    </row>
+    <row r="1369">
+      <c r="A1369" t="inlineStr">
+        <is>
+          <t>manageable</t>
+        </is>
+      </c>
+      <c r="B1369" t="inlineStr">
+        <is>
+          <t>감당할 수 있는, 알맞은</t>
+        </is>
+      </c>
+      <c r="C1369" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1369" t="inlineStr"/>
+      <c r="E1369" t="inlineStr"/>
+    </row>
+    <row r="1370">
+      <c r="A1370" t="inlineStr">
+        <is>
+          <t>suitable</t>
+        </is>
+      </c>
+      <c r="B1370" t="inlineStr">
+        <is>
+          <t>감당할 수 있는, 알맞은</t>
+        </is>
+      </c>
+      <c r="C1370" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1370" t="inlineStr"/>
+      <c r="E1370" t="inlineStr"/>
+    </row>
+    <row r="1371">
+      <c r="A1371" t="inlineStr">
+        <is>
+          <t>congenial</t>
+        </is>
+      </c>
+      <c r="B1371" t="inlineStr">
+        <is>
+          <t>감당할 수 있는, 알맞은</t>
+        </is>
+      </c>
+      <c r="C1371" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1371" t="inlineStr"/>
+      <c r="E1371" t="inlineStr"/>
+    </row>
+    <row r="1372">
+      <c r="A1372" t="inlineStr">
+        <is>
+          <t>informal</t>
+        </is>
+      </c>
+      <c r="B1372" t="inlineStr">
+        <is>
+          <t>허물없는, 형식을 따지지 않는, 비공식의</t>
+        </is>
+      </c>
+      <c r="C1372" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1372" t="inlineStr"/>
+      <c r="E1372" t="inlineStr"/>
+    </row>
+    <row r="1373">
+      <c r="A1373" t="inlineStr">
+        <is>
+          <t>confidential</t>
+        </is>
+      </c>
+      <c r="B1373" t="inlineStr">
+        <is>
+          <t>허물없는, 형식을 따지지 않는, 비공식의</t>
+        </is>
+      </c>
+      <c r="C1373" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1373" t="inlineStr"/>
+      <c r="E1373" t="inlineStr"/>
+    </row>
+    <row r="1374">
+      <c r="A1374" t="inlineStr">
+        <is>
+          <t>unceremonious</t>
+        </is>
+      </c>
+      <c r="B1374" t="inlineStr">
+        <is>
+          <t>허물없는, 형식을 따지지 않는, 비공식의</t>
+        </is>
+      </c>
+      <c r="C1374" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1374" t="inlineStr"/>
+      <c r="E1374" t="inlineStr"/>
+    </row>
+    <row r="1375">
+      <c r="A1375" t="inlineStr">
+        <is>
+          <t>causal</t>
+        </is>
+      </c>
+      <c r="B1375" t="inlineStr">
+        <is>
+          <t>허물없는, 형식을 따지지 않는, 비공식의</t>
+        </is>
+      </c>
+      <c r="C1375" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1375" t="inlineStr"/>
+      <c r="E1375" t="inlineStr"/>
+    </row>
+    <row r="1376">
+      <c r="A1376" t="inlineStr">
+        <is>
+          <t>unofficial</t>
+        </is>
+      </c>
+      <c r="B1376" t="inlineStr">
+        <is>
+          <t>허물없는, 형식을 따지지 않는, 비공식의</t>
+        </is>
+      </c>
+      <c r="C1376" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1376" t="inlineStr"/>
+      <c r="E1376" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/학습자료/단답형/영어_단어.xlsx
+++ b/학습자료/단답형/영어_단어.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1546"/>
+  <dimension ref="A1:D1660"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34445,6 +34445,2514 @@
         </is>
       </c>
     </row>
+    <row r="1547">
+      <c r="A1547" t="inlineStr">
+        <is>
+          <t>adverse</t>
+        </is>
+      </c>
+      <c r="B1547" t="inlineStr">
+        <is>
+          <t>부정적인, 불리한, 반대하는</t>
+        </is>
+      </c>
+      <c r="C1547" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1547" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1548">
+      <c r="A1548" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="B1548" t="inlineStr">
+        <is>
+          <t>부정적인, 불리한, 반대하는</t>
+        </is>
+      </c>
+      <c r="C1548" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1548" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549" t="inlineStr">
+        <is>
+          <t>disadvantageous</t>
+        </is>
+      </c>
+      <c r="B1549" t="inlineStr">
+        <is>
+          <t>부정적인, 불리한, 반대하는</t>
+        </is>
+      </c>
+      <c r="C1549" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1549" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1550">
+      <c r="A1550" t="inlineStr">
+        <is>
+          <t>inimical</t>
+        </is>
+      </c>
+      <c r="B1550" t="inlineStr">
+        <is>
+          <t>부정적인, 불리한, 반대하는</t>
+        </is>
+      </c>
+      <c r="C1550" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1550" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="A1551" t="inlineStr">
+        <is>
+          <t>opposed</t>
+        </is>
+      </c>
+      <c r="B1551" t="inlineStr">
+        <is>
+          <t>부정적인, 불리한, 반대하는</t>
+        </is>
+      </c>
+      <c r="C1551" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1551" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="A1552" t="inlineStr">
+        <is>
+          <t>allusive</t>
+        </is>
+      </c>
+      <c r="B1552" t="inlineStr">
+        <is>
+          <t>암시적인</t>
+        </is>
+      </c>
+      <c r="C1552" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1552" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553" t="inlineStr">
+        <is>
+          <t>suggestive</t>
+        </is>
+      </c>
+      <c r="B1553" t="inlineStr">
+        <is>
+          <t>암시적인</t>
+        </is>
+      </c>
+      <c r="C1553" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1553" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1554">
+      <c r="A1554" t="inlineStr">
+        <is>
+          <t>implicit</t>
+        </is>
+      </c>
+      <c r="B1554" t="inlineStr">
+        <is>
+          <t>암시적인</t>
+        </is>
+      </c>
+      <c r="C1554" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1554" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555" t="inlineStr">
+        <is>
+          <t>connotational</t>
+        </is>
+      </c>
+      <c r="B1555" t="inlineStr">
+        <is>
+          <t>암시적인</t>
+        </is>
+      </c>
+      <c r="C1555" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1555" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" t="inlineStr">
+        <is>
+          <t>implied</t>
+        </is>
+      </c>
+      <c r="B1556" t="inlineStr">
+        <is>
+          <t>암시적인</t>
+        </is>
+      </c>
+      <c r="C1556" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1556" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" t="inlineStr">
+        <is>
+          <t>turn into</t>
+        </is>
+      </c>
+      <c r="B1557" t="inlineStr">
+        <is>
+          <t>바뀌다</t>
+        </is>
+      </c>
+      <c r="C1557" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1557" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558" t="inlineStr">
+        <is>
+          <t>shift</t>
+        </is>
+      </c>
+      <c r="B1558" t="inlineStr">
+        <is>
+          <t>바뀌다</t>
+        </is>
+      </c>
+      <c r="C1558" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1558" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1559">
+      <c r="A1559" t="inlineStr">
+        <is>
+          <t>switch</t>
+        </is>
+      </c>
+      <c r="B1559" t="inlineStr">
+        <is>
+          <t>바뀌다</t>
+        </is>
+      </c>
+      <c r="C1559" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1559" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1560">
+      <c r="A1560" t="inlineStr">
+        <is>
+          <t>vary</t>
+        </is>
+      </c>
+      <c r="B1560" t="inlineStr">
+        <is>
+          <t>바뀌다</t>
+        </is>
+      </c>
+      <c r="C1560" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1560" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1561">
+      <c r="A1561" t="inlineStr">
+        <is>
+          <t>translate</t>
+        </is>
+      </c>
+      <c r="B1561" t="inlineStr">
+        <is>
+          <t>바뀌다</t>
+        </is>
+      </c>
+      <c r="C1561" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1561" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1562">
+      <c r="A1562" t="inlineStr">
+        <is>
+          <t>do without</t>
+        </is>
+      </c>
+      <c r="B1562" t="inlineStr">
+        <is>
+          <t>~없이 지내다</t>
+        </is>
+      </c>
+      <c r="C1562" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1562" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563" t="inlineStr">
+        <is>
+          <t>dispense with</t>
+        </is>
+      </c>
+      <c r="B1563" t="inlineStr">
+        <is>
+          <t>~없이 지내다</t>
+        </is>
+      </c>
+      <c r="C1563" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1563" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1564">
+      <c r="A1564" t="inlineStr">
+        <is>
+          <t>get on without</t>
+        </is>
+      </c>
+      <c r="B1564" t="inlineStr">
+        <is>
+          <t>~없이 지내다</t>
+        </is>
+      </c>
+      <c r="C1564" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1564" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1565">
+      <c r="A1565" t="inlineStr">
+        <is>
+          <t>whistle for</t>
+        </is>
+      </c>
+      <c r="B1565" t="inlineStr">
+        <is>
+          <t>~없이 지내다</t>
+        </is>
+      </c>
+      <c r="C1565" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1565" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1566">
+      <c r="A1566" t="inlineStr">
+        <is>
+          <t>forgo</t>
+        </is>
+      </c>
+      <c r="B1566" t="inlineStr">
+        <is>
+          <t>~없이 지내다</t>
+        </is>
+      </c>
+      <c r="C1566" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1566" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="A1567" t="inlineStr">
+        <is>
+          <t>put on</t>
+        </is>
+      </c>
+      <c r="B1567" t="inlineStr">
+        <is>
+          <t>상연하다</t>
+        </is>
+      </c>
+      <c r="C1567" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1567" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568" t="inlineStr">
+        <is>
+          <t>stage</t>
+        </is>
+      </c>
+      <c r="B1568" t="inlineStr">
+        <is>
+          <t>상연하다</t>
+        </is>
+      </c>
+      <c r="C1568" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1568" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1569">
+      <c r="A1569" t="inlineStr">
+        <is>
+          <t>perform</t>
+        </is>
+      </c>
+      <c r="B1569" t="inlineStr">
+        <is>
+          <t>상연하다</t>
+        </is>
+      </c>
+      <c r="C1569" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1569" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570" t="inlineStr">
+        <is>
+          <t>present</t>
+        </is>
+      </c>
+      <c r="B1570" t="inlineStr">
+        <is>
+          <t>상연하다</t>
+        </is>
+      </c>
+      <c r="C1570" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1570" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571" t="inlineStr">
+        <is>
+          <t>enact</t>
+        </is>
+      </c>
+      <c r="B1571" t="inlineStr">
+        <is>
+          <t>상연하다</t>
+        </is>
+      </c>
+      <c r="C1571" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1571" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="A1572" t="inlineStr">
+        <is>
+          <t>give up</t>
+        </is>
+      </c>
+      <c r="B1572" t="inlineStr">
+        <is>
+          <t>포기하다</t>
+        </is>
+      </c>
+      <c r="C1572" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1572" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1573">
+      <c r="A1573" t="inlineStr">
+        <is>
+          <t>relinquish</t>
+        </is>
+      </c>
+      <c r="B1573" t="inlineStr">
+        <is>
+          <t>포기하다</t>
+        </is>
+      </c>
+      <c r="C1573" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1573" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1574">
+      <c r="A1574" t="inlineStr">
+        <is>
+          <t>yield</t>
+        </is>
+      </c>
+      <c r="B1574" t="inlineStr">
+        <is>
+          <t>포기하다</t>
+        </is>
+      </c>
+      <c r="C1574" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1574" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1575">
+      <c r="A1575" t="inlineStr">
+        <is>
+          <t>jettison</t>
+        </is>
+      </c>
+      <c r="B1575" t="inlineStr">
+        <is>
+          <t>포기하다</t>
+        </is>
+      </c>
+      <c r="C1575" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1575" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1576">
+      <c r="A1576" t="inlineStr">
+        <is>
+          <t>waive</t>
+        </is>
+      </c>
+      <c r="B1576" t="inlineStr">
+        <is>
+          <t>포기하다</t>
+        </is>
+      </c>
+      <c r="C1576" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D1576" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1577">
+      <c r="A1577" t="inlineStr">
+        <is>
+          <t>rebellious</t>
+        </is>
+      </c>
+      <c r="B1577" t="inlineStr">
+        <is>
+          <t>반항적인</t>
+        </is>
+      </c>
+      <c r="C1577" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1577" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1578">
+      <c r="A1578" t="inlineStr">
+        <is>
+          <t>disobedient</t>
+        </is>
+      </c>
+      <c r="B1578" t="inlineStr">
+        <is>
+          <t>반항적인</t>
+        </is>
+      </c>
+      <c r="C1578" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1578" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1579">
+      <c r="A1579" t="inlineStr">
+        <is>
+          <t>defiant</t>
+        </is>
+      </c>
+      <c r="B1579" t="inlineStr">
+        <is>
+          <t>반항적인</t>
+        </is>
+      </c>
+      <c r="C1579" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1579" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1580">
+      <c r="A1580" t="inlineStr">
+        <is>
+          <t>insubordinate</t>
+        </is>
+      </c>
+      <c r="B1580" t="inlineStr">
+        <is>
+          <t>반항적인</t>
+        </is>
+      </c>
+      <c r="C1580" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1580" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1581">
+      <c r="A1581" t="inlineStr">
+        <is>
+          <t>contumacious</t>
+        </is>
+      </c>
+      <c r="B1581" t="inlineStr">
+        <is>
+          <t>반항적인</t>
+        </is>
+      </c>
+      <c r="C1581" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1581" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1582">
+      <c r="A1582" t="inlineStr">
+        <is>
+          <t>insurgent</t>
+        </is>
+      </c>
+      <c r="B1582" t="inlineStr">
+        <is>
+          <t>반항적인</t>
+        </is>
+      </c>
+      <c r="C1582" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1582" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1583">
+      <c r="A1583" t="inlineStr">
+        <is>
+          <t>passive</t>
+        </is>
+      </c>
+      <c r="B1583" t="inlineStr">
+        <is>
+          <t>수동적인, 소극적인, 순종하는</t>
+        </is>
+      </c>
+      <c r="C1583" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1583" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1584">
+      <c r="A1584" t="inlineStr">
+        <is>
+          <t>inactive</t>
+        </is>
+      </c>
+      <c r="B1584" t="inlineStr">
+        <is>
+          <t>수동적인, 소극적인, 순종하는</t>
+        </is>
+      </c>
+      <c r="C1584" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1584" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1585">
+      <c r="A1585" t="inlineStr">
+        <is>
+          <t>privative</t>
+        </is>
+      </c>
+      <c r="B1585" t="inlineStr">
+        <is>
+          <t>수동적인, 소극적인, 순종하는</t>
+        </is>
+      </c>
+      <c r="C1585" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1585" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1586">
+      <c r="A1586" t="inlineStr">
+        <is>
+          <t>obedient</t>
+        </is>
+      </c>
+      <c r="B1586" t="inlineStr">
+        <is>
+          <t>수동적인, 소극적인, 순종하는</t>
+        </is>
+      </c>
+      <c r="C1586" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1586" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1587">
+      <c r="A1587" t="inlineStr">
+        <is>
+          <t>submissive</t>
+        </is>
+      </c>
+      <c r="B1587" t="inlineStr">
+        <is>
+          <t>수동적인, 소극적인, 순종하는</t>
+        </is>
+      </c>
+      <c r="C1587" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1587" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1588">
+      <c r="A1588" t="inlineStr">
+        <is>
+          <t>acquiescent</t>
+        </is>
+      </c>
+      <c r="B1588" t="inlineStr">
+        <is>
+          <t>수동적인, 소극적인, 순종하는</t>
+        </is>
+      </c>
+      <c r="C1588" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1588" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1589">
+      <c r="A1589" t="inlineStr">
+        <is>
+          <t>tractable</t>
+        </is>
+      </c>
+      <c r="B1589" t="inlineStr">
+        <is>
+          <t>수동적인, 소극적인, 순종하는</t>
+        </is>
+      </c>
+      <c r="C1589" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1589" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1590">
+      <c r="A1590" t="inlineStr">
+        <is>
+          <t>ductile</t>
+        </is>
+      </c>
+      <c r="B1590" t="inlineStr">
+        <is>
+          <t>수동적인, 소극적인, 순종하는</t>
+        </is>
+      </c>
+      <c r="C1590" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1590" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591" t="inlineStr">
+        <is>
+          <t>compliable</t>
+        </is>
+      </c>
+      <c r="B1591" t="inlineStr">
+        <is>
+          <t>수동적인, 소극적인, 순종하는</t>
+        </is>
+      </c>
+      <c r="C1591" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1591" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592" t="inlineStr">
+        <is>
+          <t>supple</t>
+        </is>
+      </c>
+      <c r="B1592" t="inlineStr">
+        <is>
+          <t>수동적인, 소극적인, 순종하는</t>
+        </is>
+      </c>
+      <c r="C1592" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1592" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1593">
+      <c r="A1593" t="inlineStr">
+        <is>
+          <t>delirious</t>
+        </is>
+      </c>
+      <c r="B1593" t="inlineStr">
+        <is>
+          <t>기뻐 날뛰는, 무아지경의</t>
+        </is>
+      </c>
+      <c r="C1593" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1593" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1594">
+      <c r="A1594" t="inlineStr">
+        <is>
+          <t>rapt</t>
+        </is>
+      </c>
+      <c r="B1594" t="inlineStr">
+        <is>
+          <t>기뻐 날뛰는, 무아지경의</t>
+        </is>
+      </c>
+      <c r="C1594" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1594" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="A1595" t="inlineStr">
+        <is>
+          <t>exultant</t>
+        </is>
+      </c>
+      <c r="B1595" t="inlineStr">
+        <is>
+          <t>기뻐 날뛰는, 무아지경의</t>
+        </is>
+      </c>
+      <c r="C1595" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1595" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" t="inlineStr">
+        <is>
+          <t>rapturous</t>
+        </is>
+      </c>
+      <c r="B1596" t="inlineStr">
+        <is>
+          <t>기뻐 날뛰는, 무아지경의</t>
+        </is>
+      </c>
+      <c r="C1596" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1596" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" t="inlineStr">
+        <is>
+          <t>ecstatic</t>
+        </is>
+      </c>
+      <c r="B1597" t="inlineStr">
+        <is>
+          <t>기뻐 날뛰는, 무아지경의</t>
+        </is>
+      </c>
+      <c r="C1597" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1597" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598" t="inlineStr">
+        <is>
+          <t>sporadic</t>
+        </is>
+      </c>
+      <c r="B1598" t="inlineStr">
+        <is>
+          <t>이따금 일어나는, 우발적인</t>
+        </is>
+      </c>
+      <c r="C1598" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1598" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599" t="inlineStr">
+        <is>
+          <t>scattered</t>
+        </is>
+      </c>
+      <c r="B1599" t="inlineStr">
+        <is>
+          <t>이따금 일어나는, 우발적인</t>
+        </is>
+      </c>
+      <c r="C1599" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1599" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1600">
+      <c r="A1600" t="inlineStr">
+        <is>
+          <t>intermittent</t>
+        </is>
+      </c>
+      <c r="B1600" t="inlineStr">
+        <is>
+          <t>이따금 일어나는, 우발적인</t>
+        </is>
+      </c>
+      <c r="C1600" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1600" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1601">
+      <c r="A1601" t="inlineStr">
+        <is>
+          <t>adventitious</t>
+        </is>
+      </c>
+      <c r="B1601" t="inlineStr">
+        <is>
+          <t>이따금 일어나는, 우발적인</t>
+        </is>
+      </c>
+      <c r="C1601" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1601" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1602">
+      <c r="A1602" t="inlineStr">
+        <is>
+          <t>rare</t>
+        </is>
+      </c>
+      <c r="B1602" t="inlineStr">
+        <is>
+          <t>이따금 일어나는, 우발적인</t>
+        </is>
+      </c>
+      <c r="C1602" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1602" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+    </row>
+    <row r="1603">
+      <c r="A1603" t="inlineStr">
+        <is>
+          <t>prodigal</t>
+        </is>
+      </c>
+      <c r="B1603" t="inlineStr">
+        <is>
+          <t>낭비하는</t>
+        </is>
+      </c>
+      <c r="C1603" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1603" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1604">
+      <c r="A1604" t="inlineStr">
+        <is>
+          <t>lavish</t>
+        </is>
+      </c>
+      <c r="B1604" t="inlineStr">
+        <is>
+          <t>낭비하는</t>
+        </is>
+      </c>
+      <c r="C1604" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1604" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605" t="inlineStr">
+        <is>
+          <t>thriftless</t>
+        </is>
+      </c>
+      <c r="B1605" t="inlineStr">
+        <is>
+          <t>낭비하는</t>
+        </is>
+      </c>
+      <c r="C1605" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1605" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1606">
+      <c r="A1606" t="inlineStr">
+        <is>
+          <t>wasteful</t>
+        </is>
+      </c>
+      <c r="B1606" t="inlineStr">
+        <is>
+          <t>낭비하는</t>
+        </is>
+      </c>
+      <c r="C1606" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1606" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1607">
+      <c r="A1607" t="inlineStr">
+        <is>
+          <t>profligate</t>
+        </is>
+      </c>
+      <c r="B1607" t="inlineStr">
+        <is>
+          <t>낭비하는</t>
+        </is>
+      </c>
+      <c r="C1607" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1607" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1608">
+      <c r="A1608" t="inlineStr">
+        <is>
+          <t>perjury</t>
+        </is>
+      </c>
+      <c r="B1608" t="inlineStr">
+        <is>
+          <t>허위, 거짓</t>
+        </is>
+      </c>
+      <c r="C1608" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1608" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1609">
+      <c r="A1609" t="inlineStr">
+        <is>
+          <t>falsity</t>
+        </is>
+      </c>
+      <c r="B1609" t="inlineStr">
+        <is>
+          <t>허위, 거짓</t>
+        </is>
+      </c>
+      <c r="C1609" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1609" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1610">
+      <c r="A1610" t="inlineStr">
+        <is>
+          <t>fallacy</t>
+        </is>
+      </c>
+      <c r="B1610" t="inlineStr">
+        <is>
+          <t>허위, 거짓</t>
+        </is>
+      </c>
+      <c r="C1610" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1610" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1611">
+      <c r="A1611" t="inlineStr">
+        <is>
+          <t>pretense</t>
+        </is>
+      </c>
+      <c r="B1611" t="inlineStr">
+        <is>
+          <t>허위, 거짓</t>
+        </is>
+      </c>
+      <c r="C1611" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1611" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1612">
+      <c r="A1612" t="inlineStr">
+        <is>
+          <t>mendacity</t>
+        </is>
+      </c>
+      <c r="B1612" t="inlineStr">
+        <is>
+          <t>허위, 거짓</t>
+        </is>
+      </c>
+      <c r="C1612" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1612" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1613">
+      <c r="A1613" t="inlineStr">
+        <is>
+          <t>unstable</t>
+        </is>
+      </c>
+      <c r="B1613" t="inlineStr">
+        <is>
+          <t>불안정한</t>
+        </is>
+      </c>
+      <c r="C1613" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1613" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1614">
+      <c r="A1614" t="inlineStr">
+        <is>
+          <t>unsettled</t>
+        </is>
+      </c>
+      <c r="B1614" t="inlineStr">
+        <is>
+          <t>불안정한</t>
+        </is>
+      </c>
+      <c r="C1614" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1614" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1615">
+      <c r="A1615" t="inlineStr">
+        <is>
+          <t>volatile</t>
+        </is>
+      </c>
+      <c r="B1615" t="inlineStr">
+        <is>
+          <t>불안정한</t>
+        </is>
+      </c>
+      <c r="C1615" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1615" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1616">
+      <c r="A1616" t="inlineStr">
+        <is>
+          <t>precarious</t>
+        </is>
+      </c>
+      <c r="B1616" t="inlineStr">
+        <is>
+          <t>불안정한</t>
+        </is>
+      </c>
+      <c r="C1616" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1616" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1617">
+      <c r="A1617" t="inlineStr">
+        <is>
+          <t>capricious</t>
+        </is>
+      </c>
+      <c r="B1617" t="inlineStr">
+        <is>
+          <t>불안정한</t>
+        </is>
+      </c>
+      <c r="C1617" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1617" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1618">
+      <c r="A1618" t="inlineStr">
+        <is>
+          <t>insecure</t>
+        </is>
+      </c>
+      <c r="B1618" t="inlineStr">
+        <is>
+          <t>불안정한</t>
+        </is>
+      </c>
+      <c r="C1618" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1618" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1619">
+      <c r="A1619" t="inlineStr">
+        <is>
+          <t>shaky</t>
+        </is>
+      </c>
+      <c r="B1619" t="inlineStr">
+        <is>
+          <t>불안정한</t>
+        </is>
+      </c>
+      <c r="C1619" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1619" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1620">
+      <c r="A1620" t="inlineStr">
+        <is>
+          <t>pernicious</t>
+        </is>
+      </c>
+      <c r="B1620" t="inlineStr">
+        <is>
+          <t>치명적인</t>
+        </is>
+      </c>
+      <c r="C1620" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1620" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1621">
+      <c r="A1621" t="inlineStr">
+        <is>
+          <t>fatal</t>
+        </is>
+      </c>
+      <c r="B1621" t="inlineStr">
+        <is>
+          <t>치명적인</t>
+        </is>
+      </c>
+      <c r="C1621" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1621" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1622">
+      <c r="A1622" t="inlineStr">
+        <is>
+          <t>deadly</t>
+        </is>
+      </c>
+      <c r="B1622" t="inlineStr">
+        <is>
+          <t>치명적인</t>
+        </is>
+      </c>
+      <c r="C1622" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1622" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1623">
+      <c r="A1623" t="inlineStr">
+        <is>
+          <t>lethal</t>
+        </is>
+      </c>
+      <c r="B1623" t="inlineStr">
+        <is>
+          <t>치명적인</t>
+        </is>
+      </c>
+      <c r="C1623" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1623" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1624">
+      <c r="A1624" t="inlineStr">
+        <is>
+          <t>mortal</t>
+        </is>
+      </c>
+      <c r="B1624" t="inlineStr">
+        <is>
+          <t>치명적인</t>
+        </is>
+      </c>
+      <c r="C1624" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1624" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1625">
+      <c r="A1625" t="inlineStr">
+        <is>
+          <t>resurgence</t>
+        </is>
+      </c>
+      <c r="B1625" t="inlineStr">
+        <is>
+          <t>부활, 재기</t>
+        </is>
+      </c>
+      <c r="C1625" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1625" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1626">
+      <c r="A1626" t="inlineStr">
+        <is>
+          <t>comeback</t>
+        </is>
+      </c>
+      <c r="B1626" t="inlineStr">
+        <is>
+          <t>부활, 재기</t>
+        </is>
+      </c>
+      <c r="C1626" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1626" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1627">
+      <c r="A1627" t="inlineStr">
+        <is>
+          <t>revival</t>
+        </is>
+      </c>
+      <c r="B1627" t="inlineStr">
+        <is>
+          <t>부활, 재기</t>
+        </is>
+      </c>
+      <c r="C1627" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1627" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1628">
+      <c r="A1628" t="inlineStr">
+        <is>
+          <t>resurrection</t>
+        </is>
+      </c>
+      <c r="B1628" t="inlineStr">
+        <is>
+          <t>부활, 재기</t>
+        </is>
+      </c>
+      <c r="C1628" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1628" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1629">
+      <c r="A1629" t="inlineStr">
+        <is>
+          <t>renewal</t>
+        </is>
+      </c>
+      <c r="B1629" t="inlineStr">
+        <is>
+          <t>부활, 재기</t>
+        </is>
+      </c>
+      <c r="C1629" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1629" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1630">
+      <c r="A1630" t="inlineStr">
+        <is>
+          <t>disappearance</t>
+        </is>
+      </c>
+      <c r="B1630" t="inlineStr">
+        <is>
+          <t>소멸</t>
+        </is>
+      </c>
+      <c r="C1630" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1630" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="A1631" t="inlineStr">
+        <is>
+          <t>passing</t>
+        </is>
+      </c>
+      <c r="B1631" t="inlineStr">
+        <is>
+          <t>소멸</t>
+        </is>
+      </c>
+      <c r="C1631" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1631" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1632">
+      <c r="A1632" t="inlineStr">
+        <is>
+          <t>extinction</t>
+        </is>
+      </c>
+      <c r="B1632" t="inlineStr">
+        <is>
+          <t>소멸</t>
+        </is>
+      </c>
+      <c r="C1632" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1632" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1633">
+      <c r="A1633" t="inlineStr">
+        <is>
+          <t>extinguishment</t>
+        </is>
+      </c>
+      <c r="B1633" t="inlineStr">
+        <is>
+          <t>소멸</t>
+        </is>
+      </c>
+      <c r="C1633" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1633" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634" t="inlineStr">
+        <is>
+          <t>vanishment</t>
+        </is>
+      </c>
+      <c r="B1634" t="inlineStr">
+        <is>
+          <t>소멸</t>
+        </is>
+      </c>
+      <c r="C1634" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1634" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="A1635" t="inlineStr">
+        <is>
+          <t>motivation</t>
+        </is>
+      </c>
+      <c r="B1635" t="inlineStr">
+        <is>
+          <t>동기, 자극, 유인</t>
+        </is>
+      </c>
+      <c r="C1635" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1635" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="A1636" t="inlineStr">
+        <is>
+          <t>incentive</t>
+        </is>
+      </c>
+      <c r="B1636" t="inlineStr">
+        <is>
+          <t>동기, 자극, 유인</t>
+        </is>
+      </c>
+      <c r="C1636" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1636" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1637">
+      <c r="A1637" t="inlineStr">
+        <is>
+          <t>incitement</t>
+        </is>
+      </c>
+      <c r="B1637" t="inlineStr">
+        <is>
+          <t>동기, 자극, 유인</t>
+        </is>
+      </c>
+      <c r="C1637" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1637" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1638">
+      <c r="A1638" t="inlineStr">
+        <is>
+          <t>inducement</t>
+        </is>
+      </c>
+      <c r="B1638" t="inlineStr">
+        <is>
+          <t>동기, 자극, 유인</t>
+        </is>
+      </c>
+      <c r="C1638" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1638" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1639">
+      <c r="A1639" t="inlineStr">
+        <is>
+          <t>spur</t>
+        </is>
+      </c>
+      <c r="B1639" t="inlineStr">
+        <is>
+          <t>동기, 자극, 유인</t>
+        </is>
+      </c>
+      <c r="C1639" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1639" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640" t="inlineStr">
+        <is>
+          <t>paucity</t>
+        </is>
+      </c>
+      <c r="B1640" t="inlineStr">
+        <is>
+          <t>부족</t>
+        </is>
+      </c>
+      <c r="C1640" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1640" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1641">
+      <c r="A1641" t="inlineStr">
+        <is>
+          <t>lack</t>
+        </is>
+      </c>
+      <c r="B1641" t="inlineStr">
+        <is>
+          <t>부족</t>
+        </is>
+      </c>
+      <c r="C1641" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1641" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1642">
+      <c r="A1642" t="inlineStr">
+        <is>
+          <t>shortage</t>
+        </is>
+      </c>
+      <c r="B1642" t="inlineStr">
+        <is>
+          <t>부족</t>
+        </is>
+      </c>
+      <c r="C1642" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1642" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1643">
+      <c r="A1643" t="inlineStr">
+        <is>
+          <t>dearth</t>
+        </is>
+      </c>
+      <c r="B1643" t="inlineStr">
+        <is>
+          <t>부족</t>
+        </is>
+      </c>
+      <c r="C1643" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1643" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644" t="inlineStr">
+        <is>
+          <t>insufficiency</t>
+        </is>
+      </c>
+      <c r="B1644" t="inlineStr">
+        <is>
+          <t>부족</t>
+        </is>
+      </c>
+      <c r="C1644" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D1644" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" t="inlineStr">
+        <is>
+          <t>nocturnal</t>
+        </is>
+      </c>
+      <c r="B1645" t="inlineStr">
+        <is>
+          <t>밤의, 야간의, 야행성의</t>
+        </is>
+      </c>
+      <c r="C1645" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1645" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1646">
+      <c r="A1646" t="inlineStr">
+        <is>
+          <t>night</t>
+        </is>
+      </c>
+      <c r="B1646" t="inlineStr">
+        <is>
+          <t>밤의, 야간의, 야행성의</t>
+        </is>
+      </c>
+      <c r="C1646" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1646" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" t="inlineStr">
+        <is>
+          <t>overnight</t>
+        </is>
+      </c>
+      <c r="B1647" t="inlineStr">
+        <is>
+          <t>밤의, 야간의, 야행성의</t>
+        </is>
+      </c>
+      <c r="C1647" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1647" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648" t="inlineStr">
+        <is>
+          <t>after-dark</t>
+        </is>
+      </c>
+      <c r="B1648" t="inlineStr">
+        <is>
+          <t>밤의, 야간의, 야행성의</t>
+        </is>
+      </c>
+      <c r="C1648" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1648" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1649">
+      <c r="A1649" t="inlineStr">
+        <is>
+          <t>noctivagant</t>
+        </is>
+      </c>
+      <c r="B1649" t="inlineStr">
+        <is>
+          <t>밤의, 야간의, 야행성의</t>
+        </is>
+      </c>
+      <c r="C1649" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1649" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1650">
+      <c r="A1650" t="inlineStr">
+        <is>
+          <t>solitary</t>
+        </is>
+      </c>
+      <c r="B1650" t="inlineStr">
+        <is>
+          <t>혼자의, 고독한</t>
+        </is>
+      </c>
+      <c r="C1650" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1650" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1651">
+      <c r="A1651" t="inlineStr">
+        <is>
+          <t>lone</t>
+        </is>
+      </c>
+      <c r="B1651" t="inlineStr">
+        <is>
+          <t>혼자의, 고독한</t>
+        </is>
+      </c>
+      <c r="C1651" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1651" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1652">
+      <c r="A1652" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="B1652" t="inlineStr">
+        <is>
+          <t>혼자의, 고독한</t>
+        </is>
+      </c>
+      <c r="C1652" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1652" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="A1653" t="inlineStr">
+        <is>
+          <t>sole</t>
+        </is>
+      </c>
+      <c r="B1653" t="inlineStr">
+        <is>
+          <t>혼자의, 고독한</t>
+        </is>
+      </c>
+      <c r="C1653" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1653" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" t="inlineStr">
+        <is>
+          <t>forlorn</t>
+        </is>
+      </c>
+      <c r="B1654" t="inlineStr">
+        <is>
+          <t>혼자의, 고독한</t>
+        </is>
+      </c>
+      <c r="C1654" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1654" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" t="inlineStr">
+        <is>
+          <t>desolate</t>
+        </is>
+      </c>
+      <c r="B1655" t="inlineStr">
+        <is>
+          <t>혼자의, 고독한</t>
+        </is>
+      </c>
+      <c r="C1655" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1655" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1656">
+      <c r="A1656" t="inlineStr">
+        <is>
+          <t>lonsome</t>
+        </is>
+      </c>
+      <c r="B1656" t="inlineStr">
+        <is>
+          <t>혼자의, 고독한</t>
+        </is>
+      </c>
+      <c r="C1656" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1656" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" t="inlineStr">
+        <is>
+          <t>forsaken</t>
+        </is>
+      </c>
+      <c r="B1657" t="inlineStr">
+        <is>
+          <t>혼자의, 고독한</t>
+        </is>
+      </c>
+      <c r="C1657" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1657" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1658">
+      <c r="A1658" t="inlineStr">
+        <is>
+          <t>bleak</t>
+        </is>
+      </c>
+      <c r="B1658" t="inlineStr">
+        <is>
+          <t>혼자의, 고독한</t>
+        </is>
+      </c>
+      <c r="C1658" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1658" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" t="inlineStr">
+        <is>
+          <t>dismal</t>
+        </is>
+      </c>
+      <c r="B1659" t="inlineStr">
+        <is>
+          <t>혼자의, 고독한</t>
+        </is>
+      </c>
+      <c r="C1659" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1659" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
+    <row r="1660">
+      <c r="A1660" t="inlineStr">
+        <is>
+          <t>dreary</t>
+        </is>
+      </c>
+      <c r="B1660" t="inlineStr">
+        <is>
+          <t>혼자의, 고독한</t>
+        </is>
+      </c>
+      <c r="C1660" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D1660" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
